--- a/datos_originales.xlsx
+++ b/datos_originales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60099351\Documents\Projects\algoritmo_genetico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1D6C1A-846A-4E83-889A-B9137095E45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E690A51A-C111-4B97-AD3A-31DCBFE6D692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estibas" sheetId="1" r:id="rId1"/>
@@ -3799,8 +3799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S1116"/>
   <sheetViews>
-    <sheetView topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="F524" sqref="F524"/>
+    <sheetView tabSelected="1" topLeftCell="A697" workbookViewId="0">
+      <selection activeCell="D707" sqref="D707"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -45139,8 +45139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723F9AEC-0A63-4794-9C16-93C59AE1C0EB}">
   <dimension ref="A1:R79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/datos_originales.xlsx
+++ b/datos_originales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60099351\Documents\Projects\algoritmo_genetico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E690A51A-C111-4B97-AD3A-31DCBFE6D692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9428F8A6-2433-4313-943F-8EB7FD95C82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estibas" sheetId="1" r:id="rId1"/>
@@ -3799,8 +3799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S1116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A697" workbookViewId="0">
-      <selection activeCell="D707" sqref="D707"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3913,7 +3913,8 @@
         <v>898</v>
       </c>
       <c r="M2" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.644869602875</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>899</v>
@@ -3969,7 +3970,8 @@
         <v>898</v>
       </c>
       <c r="M3" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.217598872645</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>899</v>
@@ -4025,7 +4027,8 @@
         <v>898</v>
       </c>
       <c r="M4" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.670974689216</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>899</v>
@@ -4081,7 +4084,8 @@
         <v>707</v>
       </c>
       <c r="M5" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.224559316899</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>708</v>
@@ -4137,7 +4141,8 @@
         <v>707</v>
       </c>
       <c r="M6" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.968200131523</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>708</v>
@@ -4193,7 +4198,8 @@
         <v>707</v>
       </c>
       <c r="M7" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.578111491697</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>708</v>
@@ -4249,7 +4255,8 @@
         <v>707</v>
       </c>
       <c r="M8" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.003854540257</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>708</v>
@@ -4305,7 +4312,8 @@
         <v>707</v>
       </c>
       <c r="M9" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.251960000161</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>708</v>
@@ -4361,7 +4369,8 @@
         <v>707</v>
       </c>
       <c r="M10" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.978550236738</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>708</v>
@@ -4417,7 +4426,8 @@
         <v>374</v>
       </c>
       <c r="M11" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.945454971552</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>375</v>
@@ -4473,7 +4483,8 @@
         <v>374</v>
       </c>
       <c r="M12" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.398586063216</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>375</v>
@@ -4529,7 +4540,8 @@
         <v>374</v>
       </c>
       <c r="M13" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.092908829356</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>375</v>
@@ -4585,7 +4597,8 @@
         <v>374</v>
       </c>
       <c r="M14" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.940286603021</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>375</v>
@@ -4641,7 +4654,8 @@
         <v>374</v>
       </c>
       <c r="M15" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.725102813303</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>375</v>
@@ -4697,7 +4711,8 @@
         <v>374</v>
       </c>
       <c r="M16" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.258058377876</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>375</v>
@@ -4753,7 +4768,8 @@
         <v>308</v>
       </c>
       <c r="M17" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.914331178239</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>309</v>
@@ -4809,7 +4825,8 @@
         <v>308</v>
       </c>
       <c r="M18" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.440963944937</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>309</v>
@@ -4865,7 +4882,8 @@
         <v>308</v>
       </c>
       <c r="M19" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.840584762569</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>309</v>
@@ -4921,7 +4939,8 @@
         <v>308</v>
       </c>
       <c r="M20" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.690371984951</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>309</v>
@@ -4977,7 +4996,8 @@
         <v>308</v>
       </c>
       <c r="M21" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.357546530409</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>309</v>
@@ -5033,7 +5053,8 @@
         <v>308</v>
       </c>
       <c r="M22" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.023776024907</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>309</v>
@@ -5089,7 +5110,8 @@
         <v>308</v>
       </c>
       <c r="M23" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.358913856318</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>309</v>
@@ -5145,7 +5167,8 @@
         <v>308</v>
       </c>
       <c r="M24" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.670577396129</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>309</v>
@@ -5201,7 +5224,8 @@
         <v>308</v>
       </c>
       <c r="M25" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.987974992735</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>309</v>
@@ -5257,7 +5281,8 @@
         <v>308</v>
       </c>
       <c r="M26" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.148576338346</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>309</v>
@@ -5313,7 +5338,8 @@
         <v>308</v>
       </c>
       <c r="M27" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.750409337285</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>309</v>
@@ -5369,7 +5395,8 @@
         <v>308</v>
       </c>
       <c r="M28" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.589673720053</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>309</v>
@@ -5425,7 +5452,8 @@
         <v>308</v>
       </c>
       <c r="M29" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.749935233143</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>309</v>
@@ -5481,7 +5509,8 @@
         <v>302</v>
       </c>
       <c r="M30" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.003324359364</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>303</v>
@@ -5537,7 +5566,8 @@
         <v>302</v>
       </c>
       <c r="M31" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.877190940104</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>303</v>
@@ -5593,7 +5623,8 @@
         <v>302</v>
       </c>
       <c r="M32" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.210259348496</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>303</v>
@@ -5649,7 +5680,8 @@
         <v>483</v>
       </c>
       <c r="M33" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.637573103697</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>484</v>
@@ -5705,7 +5737,8 @@
         <v>483</v>
       </c>
       <c r="M34" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.353335476524</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>484</v>
@@ -5761,7 +5794,8 @@
         <v>483</v>
       </c>
       <c r="M35" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.056016667782</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>484</v>
@@ -5817,7 +5851,8 @@
         <v>483</v>
       </c>
       <c r="M36" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.275880924986</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>484</v>
@@ -5873,7 +5908,8 @@
         <v>458</v>
       </c>
       <c r="M37" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.017953114198</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>459</v>
@@ -5929,7 +5965,8 @@
         <v>458</v>
       </c>
       <c r="M38" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.605927657867</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>459</v>
@@ -5985,7 +6022,8 @@
         <v>458</v>
       </c>
       <c r="M39" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.947375608892</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>459</v>
@@ -6041,7 +6079,8 @@
         <v>458</v>
       </c>
       <c r="M40" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.6140897277</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>459</v>
@@ -6097,7 +6136,8 @@
         <v>458</v>
       </c>
       <c r="M41" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.213784070591</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>459</v>
@@ -6153,7 +6193,8 @@
         <v>173</v>
       </c>
       <c r="M42" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.400440376688</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>174</v>
@@ -6209,7 +6250,8 @@
         <v>173</v>
       </c>
       <c r="M43" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.575647037374</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>174</v>
@@ -6265,7 +6307,8 @@
         <v>173</v>
       </c>
       <c r="M44" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.95990985127</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>174</v>
@@ -6321,7 +6364,8 @@
         <v>173</v>
       </c>
       <c r="M45" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.606349821413</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>174</v>
@@ -6377,7 +6421,8 @@
         <v>612</v>
       </c>
       <c r="M46" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.013678765681</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>613</v>
@@ -6433,7 +6478,8 @@
         <v>612</v>
       </c>
       <c r="M47" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.121603797947</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>613</v>
@@ -6489,7 +6535,8 @@
         <v>612</v>
       </c>
       <c r="M48" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.193444088116</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>613</v>
@@ -6545,7 +6592,8 @@
         <v>612</v>
       </c>
       <c r="M49" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.343759921059</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>613</v>
@@ -6601,7 +6649,8 @@
         <v>612</v>
       </c>
       <c r="M50" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.795972545238</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>613</v>
@@ -6657,7 +6706,8 @@
         <v>612</v>
       </c>
       <c r="M51" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.980880956398</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>613</v>
@@ -6713,7 +6763,8 @@
         <v>612</v>
       </c>
       <c r="M52" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.659216165521</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>613</v>
@@ -6769,7 +6820,8 @@
         <v>612</v>
       </c>
       <c r="M53" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.549695535599</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>613</v>
@@ -6825,7 +6877,8 @@
         <v>612</v>
       </c>
       <c r="M54" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.398714150127</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>613</v>
@@ -6881,7 +6934,8 @@
         <v>612</v>
       </c>
       <c r="M55" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.058768277326</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>613</v>
@@ -6937,7 +6991,8 @@
         <v>612</v>
       </c>
       <c r="M56" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.392417209718</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>613</v>
@@ -6993,7 +7048,8 @@
         <v>612</v>
       </c>
       <c r="M57" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.57680770864</v>
       </c>
       <c r="N57" s="2" t="s">
         <v>613</v>
@@ -7049,7 +7105,8 @@
         <v>612</v>
       </c>
       <c r="M58" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.802192896852</v>
       </c>
       <c r="N58" s="2" t="s">
         <v>613</v>
@@ -7105,7 +7162,8 @@
         <v>612</v>
       </c>
       <c r="M59" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.985516608307</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>613</v>
@@ -7161,7 +7219,8 @@
         <v>612</v>
       </c>
       <c r="M60" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.717261304235</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>613</v>
@@ -7217,7 +7276,8 @@
         <v>612</v>
       </c>
       <c r="M61" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.332098815539</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>613</v>
@@ -7273,7 +7333,8 @@
         <v>612</v>
       </c>
       <c r="M62" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.55785247442</v>
       </c>
       <c r="N62" s="2" t="s">
         <v>613</v>
@@ -7329,7 +7390,8 @@
         <v>612</v>
       </c>
       <c r="M63" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.754066999092</v>
       </c>
       <c r="N63" s="2" t="s">
         <v>613</v>
@@ -7385,7 +7447,8 @@
         <v>612</v>
       </c>
       <c r="M64" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.765831456913</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>613</v>
@@ -7441,7 +7504,8 @@
         <v>612</v>
       </c>
       <c r="M65" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.730561216689</v>
       </c>
       <c r="N65" s="2" t="s">
         <v>613</v>
@@ -7497,7 +7561,8 @@
         <v>612</v>
       </c>
       <c r="M66" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.542207616731</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>613</v>
@@ -7553,7 +7618,8 @@
         <v>612</v>
       </c>
       <c r="M67" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.934160908721</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>613</v>
@@ -7609,7 +7675,8 @@
         <v>612</v>
       </c>
       <c r="M68" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.024816811136</v>
       </c>
       <c r="N68" s="2" t="s">
         <v>613</v>
@@ -7665,7 +7732,8 @@
         <v>612</v>
       </c>
       <c r="M69" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.77297627199</v>
       </c>
       <c r="N69" s="2" t="s">
         <v>613</v>
@@ -7721,7 +7789,8 @@
         <v>612</v>
       </c>
       <c r="M70" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.876812667928</v>
       </c>
       <c r="N70" s="2" t="s">
         <v>613</v>
@@ -7776,8 +7845,9 @@
       <c r="L71" s="2">
         <v>0</v>
       </c>
-      <c r="M71" s="2">
-        <v>0</v>
+      <c r="M71" s="3">
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.798188284978</v>
       </c>
       <c r="N71" s="2">
         <v>0</v>
@@ -7827,7 +7897,8 @@
         <v>267</v>
       </c>
       <c r="M72" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.024286503969</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>747</v>
@@ -7883,7 +7954,8 @@
         <v>324</v>
       </c>
       <c r="M73" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.59487928309</v>
       </c>
       <c r="N73" s="2" t="s">
         <v>325</v>
@@ -7939,7 +8011,8 @@
         <v>324</v>
       </c>
       <c r="M74" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.665604440197</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>325</v>
@@ -7995,7 +8068,8 @@
         <v>324</v>
       </c>
       <c r="M75" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.686645407077</v>
       </c>
       <c r="N75" s="2" t="s">
         <v>325</v>
@@ -8051,7 +8125,8 @@
         <v>324</v>
       </c>
       <c r="M76" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.017416929368</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>325</v>
@@ -8107,7 +8182,8 @@
         <v>324</v>
       </c>
       <c r="M77" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.026859714475</v>
       </c>
       <c r="N77" s="2" t="s">
         <v>325</v>
@@ -8163,7 +8239,8 @@
         <v>324</v>
       </c>
       <c r="M78" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.121428699582</v>
       </c>
       <c r="N78" s="2" t="s">
         <v>325</v>
@@ -8219,7 +8296,8 @@
         <v>324</v>
       </c>
       <c r="M79" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.263990805899</v>
       </c>
       <c r="N79" s="2" t="s">
         <v>325</v>
@@ -8275,7 +8353,8 @@
         <v>324</v>
       </c>
       <c r="M80" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.823673946368</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>325</v>
@@ -8331,7 +8410,8 @@
         <v>324</v>
       </c>
       <c r="M81" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.901113240543</v>
       </c>
       <c r="N81" s="2" t="s">
         <v>325</v>
@@ -8387,7 +8467,8 @@
         <v>324</v>
       </c>
       <c r="M82" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.104884885288</v>
       </c>
       <c r="N82" s="2" t="s">
         <v>325</v>
@@ -8443,7 +8524,8 @@
         <v>324</v>
       </c>
       <c r="M83" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.349052836202</v>
       </c>
       <c r="N83" s="2" t="s">
         <v>325</v>
@@ -8499,7 +8581,8 @@
         <v>324</v>
       </c>
       <c r="M84" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.280175808737</v>
       </c>
       <c r="N84" s="2" t="s">
         <v>325</v>
@@ -8555,7 +8638,8 @@
         <v>324</v>
       </c>
       <c r="M85" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.870430933195</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>325</v>
@@ -8611,7 +8695,8 @@
         <v>324</v>
       </c>
       <c r="M86" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.289872868983</v>
       </c>
       <c r="N86" s="2" t="s">
         <v>325</v>
@@ -8667,7 +8752,8 @@
         <v>324</v>
       </c>
       <c r="M87" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.054614217792</v>
       </c>
       <c r="N87" s="2" t="s">
         <v>325</v>
@@ -8723,7 +8809,8 @@
         <v>324</v>
       </c>
       <c r="M88" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.919521574295</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>325</v>
@@ -8779,7 +8866,8 @@
         <v>343</v>
       </c>
       <c r="M89" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.248600094346</v>
       </c>
       <c r="N89" s="2" t="s">
         <v>344</v>
@@ -8835,7 +8923,8 @@
         <v>343</v>
       </c>
       <c r="M90" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.160746293419</v>
       </c>
       <c r="N90" s="2" t="s">
         <v>344</v>
@@ -8891,7 +8980,8 @@
         <v>349</v>
       </c>
       <c r="M91" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.363664425488</v>
       </c>
       <c r="N91" s="2" t="s">
         <v>350</v>
@@ -8947,7 +9037,8 @@
         <v>349</v>
       </c>
       <c r="M92" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.987598081367</v>
       </c>
       <c r="N92" s="2" t="s">
         <v>350</v>
@@ -9003,7 +9094,8 @@
         <v>349</v>
       </c>
       <c r="M93" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.510935977567</v>
       </c>
       <c r="N93" s="2" t="s">
         <v>350</v>
@@ -9059,7 +9151,8 @@
         <v>349</v>
       </c>
       <c r="M94" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.710825713999</v>
       </c>
       <c r="N94" s="2" t="s">
         <v>350</v>
@@ -9115,7 +9208,8 @@
         <v>349</v>
       </c>
       <c r="M95" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.965092699756</v>
       </c>
       <c r="N95" s="2" t="s">
         <v>350</v>
@@ -9171,7 +9265,8 @@
         <v>349</v>
       </c>
       <c r="M96" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.301252606034</v>
       </c>
       <c r="N96" s="2" t="s">
         <v>350</v>
@@ -9226,8 +9321,9 @@
       <c r="L97" s="2">
         <v>0</v>
       </c>
-      <c r="M97" s="2">
-        <v>0</v>
+      <c r="M97" s="3">
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.748222281283</v>
       </c>
       <c r="N97" s="2">
         <v>0</v>
@@ -9277,7 +9373,8 @@
         <v>358</v>
       </c>
       <c r="M98" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.131725603649</v>
       </c>
       <c r="N98" s="2" t="s">
         <v>359</v>
@@ -9333,7 +9430,8 @@
         <v>358</v>
       </c>
       <c r="M99" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.181786747955</v>
       </c>
       <c r="N99" s="2" t="s">
         <v>359</v>
@@ -9389,7 +9487,8 @@
         <v>358</v>
       </c>
       <c r="M100" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.415593307873</v>
       </c>
       <c r="N100" s="2" t="s">
         <v>359</v>
@@ -9445,7 +9544,8 @@
         <v>358</v>
       </c>
       <c r="M101" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.910988896561</v>
       </c>
       <c r="N101" s="2" t="s">
         <v>359</v>
@@ -9501,7 +9601,8 @@
         <v>358</v>
       </c>
       <c r="M102" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.798860953641</v>
       </c>
       <c r="N102" s="2" t="s">
         <v>359</v>
@@ -9557,7 +9658,8 @@
         <v>358</v>
       </c>
       <c r="M103" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.600246473972</v>
       </c>
       <c r="N103" s="2" t="s">
         <v>359</v>
@@ -9613,7 +9715,8 @@
         <v>358</v>
       </c>
       <c r="M104" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.872694936981</v>
       </c>
       <c r="N104" s="2" t="s">
         <v>359</v>
@@ -9669,7 +9772,8 @@
         <v>358</v>
       </c>
       <c r="M105" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.369383366269</v>
       </c>
       <c r="N105" s="2" t="s">
         <v>359</v>
@@ -9725,7 +9829,8 @@
         <v>358</v>
       </c>
       <c r="M106" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.049145571</v>
       </c>
       <c r="N106" s="2" t="s">
         <v>359</v>
@@ -9781,7 +9886,8 @@
         <v>358</v>
       </c>
       <c r="M107" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.551130714492</v>
       </c>
       <c r="N107" s="2" t="s">
         <v>359</v>
@@ -9837,7 +9943,8 @@
         <v>358</v>
       </c>
       <c r="M108" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.112566445554</v>
       </c>
       <c r="N108" s="2" t="s">
         <v>359</v>
@@ -9893,7 +10000,8 @@
         <v>358</v>
       </c>
       <c r="M109" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.94843331672</v>
       </c>
       <c r="N109" s="2" t="s">
         <v>359</v>
@@ -9949,7 +10057,8 @@
         <v>730</v>
       </c>
       <c r="M110" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.522317864903</v>
       </c>
       <c r="N110" s="2" t="s">
         <v>731</v>
@@ -10005,7 +10114,8 @@
         <v>730</v>
       </c>
       <c r="M111" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.804671439408</v>
       </c>
       <c r="N111" s="2" t="s">
         <v>731</v>
@@ -10061,7 +10171,8 @@
         <v>730</v>
       </c>
       <c r="M112" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.123119875461</v>
       </c>
       <c r="N112" s="2" t="s">
         <v>731</v>
@@ -10117,7 +10228,8 @@
         <v>730</v>
       </c>
       <c r="M113" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.372819070129</v>
       </c>
       <c r="N113" s="2" t="s">
         <v>731</v>
@@ -10173,7 +10285,8 @@
         <v>730</v>
       </c>
       <c r="M114" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.204210548538</v>
       </c>
       <c r="N114" s="2" t="s">
         <v>731</v>
@@ -10229,7 +10342,8 @@
         <v>730</v>
       </c>
       <c r="M115" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.572231120233</v>
       </c>
       <c r="N115" s="2" t="s">
         <v>731</v>
@@ -10285,7 +10399,8 @@
         <v>730</v>
       </c>
       <c r="M116" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.5938037956</v>
       </c>
       <c r="N116" s="2" t="s">
         <v>731</v>
@@ -10341,7 +10456,8 @@
         <v>730</v>
       </c>
       <c r="M117" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.813896721309</v>
       </c>
       <c r="N117" s="2" t="s">
         <v>731</v>
@@ -10397,7 +10513,8 @@
         <v>730</v>
       </c>
       <c r="M118" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.677389033124</v>
       </c>
       <c r="N118" s="2" t="s">
         <v>731</v>
@@ -10453,7 +10570,8 @@
         <v>730</v>
       </c>
       <c r="M119" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.985853653758</v>
       </c>
       <c r="N119" s="2" t="s">
         <v>731</v>
@@ -10509,7 +10627,8 @@
         <v>730</v>
       </c>
       <c r="M120" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.569565185739</v>
       </c>
       <c r="N120" s="2" t="s">
         <v>731</v>
@@ -10565,7 +10684,8 @@
         <v>730</v>
       </c>
       <c r="M121" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.937827973197</v>
       </c>
       <c r="N121" s="2" t="s">
         <v>731</v>
@@ -10621,7 +10741,8 @@
         <v>730</v>
       </c>
       <c r="M122" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.438932888595</v>
       </c>
       <c r="N122" s="2" t="s">
         <v>731</v>
@@ -10677,7 +10798,8 @@
         <v>730</v>
       </c>
       <c r="M123" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.790675379423</v>
       </c>
       <c r="N123" s="2" t="s">
         <v>731</v>
@@ -10733,7 +10855,8 @@
         <v>678</v>
       </c>
       <c r="M124" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.101431166084</v>
       </c>
       <c r="N124" s="2" t="s">
         <v>679</v>
@@ -10789,7 +10912,8 @@
         <v>678</v>
       </c>
       <c r="M125" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.787309059961</v>
       </c>
       <c r="N125" s="2" t="s">
         <v>679</v>
@@ -10845,7 +10969,8 @@
         <v>678</v>
       </c>
       <c r="M126" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.579767141993</v>
       </c>
       <c r="N126" s="2" t="s">
         <v>679</v>
@@ -10901,7 +11026,8 @@
         <v>678</v>
       </c>
       <c r="M127" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.427022078191</v>
       </c>
       <c r="N127" s="2" t="s">
         <v>679</v>
@@ -10957,7 +11083,8 @@
         <v>678</v>
       </c>
       <c r="M128" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.257830725881</v>
       </c>
       <c r="N128" s="2" t="s">
         <v>679</v>
@@ -11013,7 +11140,8 @@
         <v>678</v>
       </c>
       <c r="M129" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.093210483348</v>
       </c>
       <c r="N129" s="2" t="s">
         <v>679</v>
@@ -11069,7 +11197,8 @@
         <v>678</v>
       </c>
       <c r="M130" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.840129201082</v>
       </c>
       <c r="N130" s="2" t="s">
         <v>679</v>
@@ -11125,7 +11254,8 @@
         <v>678</v>
       </c>
       <c r="M131" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.848747980519</v>
       </c>
       <c r="N131" s="2" t="s">
         <v>679</v>
@@ -11181,7 +11311,8 @@
         <v>678</v>
       </c>
       <c r="M132" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.477196885178</v>
       </c>
       <c r="N132" s="2" t="s">
         <v>679</v>
@@ -11237,7 +11368,8 @@
         <v>678</v>
       </c>
       <c r="M133" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.993466132291</v>
       </c>
       <c r="N133" s="2" t="s">
         <v>679</v>
@@ -11293,7 +11425,8 @@
         <v>678</v>
       </c>
       <c r="M134" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.333617070726</v>
       </c>
       <c r="N134" s="2" t="s">
         <v>679</v>
@@ -11349,7 +11482,8 @@
         <v>678</v>
       </c>
       <c r="M135" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.27134063228</v>
       </c>
       <c r="N135" s="2" t="s">
         <v>679</v>
@@ -11405,7 +11539,8 @@
         <v>678</v>
       </c>
       <c r="M136" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.652120411476</v>
       </c>
       <c r="N136" s="2" t="s">
         <v>679</v>
@@ -11461,7 +11596,8 @@
         <v>678</v>
       </c>
       <c r="M137" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.99260996782</v>
       </c>
       <c r="N137" s="2" t="s">
         <v>679</v>
@@ -11517,7 +11653,8 @@
         <v>678</v>
       </c>
       <c r="M138" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.417849565791</v>
       </c>
       <c r="N138" s="2" t="s">
         <v>679</v>
@@ -11573,7 +11710,8 @@
         <v>881</v>
       </c>
       <c r="M139" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.678260607114</v>
       </c>
       <c r="N139" s="2" t="s">
         <v>882</v>
@@ -11629,7 +11767,8 @@
         <v>881</v>
       </c>
       <c r="M140" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.95310031766</v>
       </c>
       <c r="N140" s="2" t="s">
         <v>882</v>
@@ -11685,7 +11824,8 @@
         <v>881</v>
       </c>
       <c r="M141" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.481316544261</v>
       </c>
       <c r="N141" s="2" t="s">
         <v>882</v>
@@ -11741,7 +11881,8 @@
         <v>881</v>
       </c>
       <c r="M142" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.961832147565</v>
       </c>
       <c r="N142" s="2" t="s">
         <v>882</v>
@@ -11797,7 +11938,8 @@
         <v>881</v>
       </c>
       <c r="M143" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.139955799583</v>
       </c>
       <c r="N143" s="2" t="s">
         <v>882</v>
@@ -11853,7 +11995,8 @@
         <v>881</v>
       </c>
       <c r="M144" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.452159088432</v>
       </c>
       <c r="N144" s="2" t="s">
         <v>882</v>
@@ -11909,7 +12052,8 @@
         <v>881</v>
       </c>
       <c r="M145" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.349372262113</v>
       </c>
       <c r="N145" s="2" t="s">
         <v>882</v>
@@ -11965,7 +12109,8 @@
         <v>881</v>
       </c>
       <c r="M146" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.179520895057</v>
       </c>
       <c r="N146" s="2" t="s">
         <v>882</v>
@@ -12021,7 +12166,8 @@
         <v>881</v>
       </c>
       <c r="M147" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.648205946702</v>
       </c>
       <c r="N147" s="2" t="s">
         <v>882</v>
@@ -12077,7 +12223,8 @@
         <v>881</v>
       </c>
       <c r="M148" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.413255156403</v>
       </c>
       <c r="N148" s="2" t="s">
         <v>882</v>
@@ -12133,7 +12280,8 @@
         <v>881</v>
       </c>
       <c r="M149" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.272009986285</v>
       </c>
       <c r="N149" s="2" t="s">
         <v>882</v>
@@ -12189,7 +12337,8 @@
         <v>881</v>
       </c>
       <c r="M150" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.334984082612</v>
       </c>
       <c r="N150" s="2" t="s">
         <v>882</v>
@@ -12245,7 +12394,8 @@
         <v>881</v>
       </c>
       <c r="M151" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.0075457188</v>
       </c>
       <c r="N151" s="2" t="s">
         <v>882</v>
@@ -12301,7 +12451,8 @@
         <v>207</v>
       </c>
       <c r="M152" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.873444292141</v>
       </c>
       <c r="N152" s="2" t="s">
         <v>208</v>
@@ -12357,7 +12508,8 @@
         <v>207</v>
       </c>
       <c r="M153" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.806708721451</v>
       </c>
       <c r="N153" s="2" t="s">
         <v>208</v>
@@ -12413,7 +12565,8 @@
         <v>207</v>
       </c>
       <c r="M154" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.283301331161</v>
       </c>
       <c r="N154" s="2" t="s">
         <v>208</v>
@@ -12469,7 +12622,8 @@
         <v>207</v>
       </c>
       <c r="M155" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.057535811109</v>
       </c>
       <c r="N155" s="2" t="s">
         <v>208</v>
@@ -12525,7 +12679,8 @@
         <v>207</v>
       </c>
       <c r="M156" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.695708844025</v>
       </c>
       <c r="N156" s="2" t="s">
         <v>208</v>
@@ -12581,7 +12736,8 @@
         <v>207</v>
       </c>
       <c r="M157" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.582373127443</v>
       </c>
       <c r="N157" s="2" t="s">
         <v>208</v>
@@ -12637,7 +12793,8 @@
         <v>207</v>
       </c>
       <c r="M158" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.901419504247</v>
       </c>
       <c r="N158" s="2" t="s">
         <v>208</v>
@@ -12693,7 +12850,8 @@
         <v>207</v>
       </c>
       <c r="M159" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.249465561727</v>
       </c>
       <c r="N159" s="2" t="s">
         <v>208</v>
@@ -12749,7 +12907,8 @@
         <v>207</v>
       </c>
       <c r="M160" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.02325832886</v>
       </c>
       <c r="N160" s="2" t="s">
         <v>208</v>
@@ -12805,7 +12964,8 @@
         <v>207</v>
       </c>
       <c r="M161" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.495063214228</v>
       </c>
       <c r="N161" s="2" t="s">
         <v>208</v>
@@ -12861,7 +13021,8 @@
         <v>207</v>
       </c>
       <c r="M162" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.919777390278</v>
       </c>
       <c r="N162" s="2" t="s">
         <v>208</v>
@@ -12917,7 +13078,8 @@
         <v>207</v>
       </c>
       <c r="M163" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.670506877323</v>
       </c>
       <c r="N163" s="2" t="s">
         <v>208</v>
@@ -12973,7 +13135,8 @@
         <v>207</v>
       </c>
       <c r="M164" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.598566468681</v>
       </c>
       <c r="N164" s="2" t="s">
         <v>208</v>
@@ -13029,7 +13192,8 @@
         <v>207</v>
       </c>
       <c r="M165" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.712635797412</v>
       </c>
       <c r="N165" s="2" t="s">
         <v>208</v>
@@ -13085,7 +13249,8 @@
         <v>207</v>
       </c>
       <c r="M166" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.433174940459</v>
       </c>
       <c r="N166" s="2" t="s">
         <v>208</v>
@@ -13141,7 +13306,8 @@
         <v>207</v>
       </c>
       <c r="M167" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.06871577492</v>
       </c>
       <c r="N167" s="2" t="s">
         <v>208</v>
@@ -13197,7 +13363,8 @@
         <v>207</v>
       </c>
       <c r="M168" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.019199822018</v>
       </c>
       <c r="N168" s="2" t="s">
         <v>208</v>
@@ -13253,7 +13420,8 @@
         <v>207</v>
       </c>
       <c r="M169" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.140262643348</v>
       </c>
       <c r="N169" s="2" t="s">
         <v>208</v>
@@ -13309,7 +13477,8 @@
         <v>207</v>
       </c>
       <c r="M170" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.145077577123</v>
       </c>
       <c r="N170" s="2" t="s">
         <v>208</v>
@@ -13365,7 +13534,8 @@
         <v>207</v>
       </c>
       <c r="M171" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.214807621327</v>
       </c>
       <c r="N171" s="2" t="s">
         <v>208</v>
@@ -13421,7 +13591,8 @@
         <v>207</v>
       </c>
       <c r="M172" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.40439292026</v>
       </c>
       <c r="N172" s="2" t="s">
         <v>208</v>
@@ -13477,7 +13648,8 @@
         <v>207</v>
       </c>
       <c r="M173" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.508301459922</v>
       </c>
       <c r="N173" s="2" t="s">
         <v>208</v>
@@ -13533,7 +13705,8 @@
         <v>207</v>
       </c>
       <c r="M174" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.40856873685</v>
       </c>
       <c r="N174" s="2" t="s">
         <v>208</v>
@@ -13589,7 +13762,8 @@
         <v>207</v>
       </c>
       <c r="M175" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.232152904187</v>
       </c>
       <c r="N175" s="2" t="s">
         <v>208</v>
@@ -13645,7 +13819,8 @@
         <v>207</v>
       </c>
       <c r="M176" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.760874568528</v>
       </c>
       <c r="N176" s="2" t="s">
         <v>208</v>
@@ -13701,7 +13876,8 @@
         <v>207</v>
       </c>
       <c r="M177" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.669311591497</v>
       </c>
       <c r="N177" s="2" t="s">
         <v>208</v>
@@ -13757,7 +13933,8 @@
         <v>289</v>
       </c>
       <c r="M178" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.895557605727</v>
       </c>
       <c r="N178" s="2" t="s">
         <v>290</v>
@@ -13813,7 +13990,8 @@
         <v>289</v>
       </c>
       <c r="M179" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.893771216783</v>
       </c>
       <c r="N179" s="2" t="s">
         <v>290</v>
@@ -13869,7 +14047,8 @@
         <v>289</v>
       </c>
       <c r="M180" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.661361000391</v>
       </c>
       <c r="N180" s="2" t="s">
         <v>290</v>
@@ -13925,7 +14104,8 @@
         <v>289</v>
       </c>
       <c r="M181" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.669142544844</v>
       </c>
       <c r="N181" s="2" t="s">
         <v>290</v>
@@ -13981,7 +14161,8 @@
         <v>289</v>
       </c>
       <c r="M182" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.776041469559</v>
       </c>
       <c r="N182" s="2" t="s">
         <v>290</v>
@@ -14037,7 +14218,8 @@
         <v>289</v>
       </c>
       <c r="M183" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.694003311844</v>
       </c>
       <c r="N183" s="2" t="s">
         <v>290</v>
@@ -14093,7 +14275,8 @@
         <v>289</v>
       </c>
       <c r="M184" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.086758863072</v>
       </c>
       <c r="N184" s="2" t="s">
         <v>290</v>
@@ -14149,7 +14332,8 @@
         <v>289</v>
       </c>
       <c r="M185" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.253680962727</v>
       </c>
       <c r="N185" s="2" t="s">
         <v>290</v>
@@ -14205,7 +14389,8 @@
         <v>289</v>
       </c>
       <c r="M186" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.723349266853</v>
       </c>
       <c r="N186" s="2" t="s">
         <v>290</v>
@@ -14261,7 +14446,8 @@
         <v>289</v>
       </c>
       <c r="M187" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.180925589753</v>
       </c>
       <c r="N187" s="2" t="s">
         <v>290</v>
@@ -14316,8 +14502,9 @@
       <c r="L188" s="2">
         <v>0</v>
       </c>
-      <c r="M188" s="2">
-        <v>0</v>
+      <c r="M188" s="3">
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.6584830219</v>
       </c>
       <c r="N188" s="2">
         <v>0</v>
@@ -14367,7 +14554,8 @@
         <v>411</v>
       </c>
       <c r="M189" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.455183917984</v>
       </c>
       <c r="N189" s="2" t="s">
         <v>412</v>
@@ -14423,7 +14611,8 @@
         <v>411</v>
       </c>
       <c r="M190" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.052694649668</v>
       </c>
       <c r="N190" s="2" t="s">
         <v>412</v>
@@ -14479,7 +14668,8 @@
         <v>411</v>
       </c>
       <c r="M191" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.211852815781</v>
       </c>
       <c r="N191" s="2" t="s">
         <v>412</v>
@@ -14535,7 +14725,8 @@
         <v>411</v>
       </c>
       <c r="M192" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.946570975328</v>
       </c>
       <c r="N192" s="2" t="s">
         <v>412</v>
@@ -14591,7 +14782,8 @@
         <v>411</v>
       </c>
       <c r="M193" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.323800542195</v>
       </c>
       <c r="N193" s="2" t="s">
         <v>412</v>
@@ -14647,7 +14839,8 @@
         <v>411</v>
       </c>
       <c r="M194" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.558441401394</v>
       </c>
       <c r="N194" s="2" t="s">
         <v>412</v>
@@ -14703,7 +14896,8 @@
         <v>411</v>
       </c>
       <c r="M195" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.818196384236</v>
       </c>
       <c r="N195" s="2" t="s">
         <v>412</v>
@@ -14759,7 +14953,8 @@
         <v>411</v>
       </c>
       <c r="M196" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.756690514107</v>
       </c>
       <c r="N196" s="2" t="s">
         <v>412</v>
@@ -14815,7 +15010,8 @@
         <v>411</v>
       </c>
       <c r="M197" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.472325903938</v>
       </c>
       <c r="N197" s="2" t="s">
         <v>412</v>
@@ -14871,7 +15067,8 @@
         <v>411</v>
       </c>
       <c r="M198" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.117273882213</v>
       </c>
       <c r="N198" s="2" t="s">
         <v>412</v>
@@ -14927,7 +15124,8 @@
         <v>411</v>
       </c>
       <c r="M199" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.491583239214</v>
       </c>
       <c r="N199" s="2" t="s">
         <v>412</v>
@@ -14983,7 +15181,8 @@
         <v>411</v>
       </c>
       <c r="M200" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.533145112742</v>
       </c>
       <c r="N200" s="2" t="s">
         <v>412</v>
@@ -15039,7 +15238,8 @@
         <v>667</v>
       </c>
       <c r="M201" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.498458011498</v>
       </c>
       <c r="N201" s="2" t="s">
         <v>668</v>
@@ -15095,7 +15295,8 @@
         <v>667</v>
       </c>
       <c r="M202" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.261536515398</v>
       </c>
       <c r="N202" s="2" t="s">
         <v>668</v>
@@ -15151,7 +15352,8 @@
         <v>667</v>
       </c>
       <c r="M203" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.522261954182</v>
       </c>
       <c r="N203" s="2" t="s">
         <v>668</v>
@@ -15207,7 +15409,8 @@
         <v>667</v>
       </c>
       <c r="M204" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.549342846323</v>
       </c>
       <c r="N204" s="2" t="s">
         <v>668</v>
@@ -15263,7 +15466,8 @@
         <v>667</v>
       </c>
       <c r="M205" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.657512535552</v>
       </c>
       <c r="N205" s="2" t="s">
         <v>668</v>
@@ -15319,7 +15523,8 @@
         <v>667</v>
       </c>
       <c r="M206" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.953844761374</v>
       </c>
       <c r="N206" s="2" t="s">
         <v>668</v>
@@ -15375,7 +15580,8 @@
         <v>667</v>
       </c>
       <c r="M207" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.134120234499</v>
       </c>
       <c r="N207" s="2" t="s">
         <v>668</v>
@@ -15431,7 +15637,8 @@
         <v>667</v>
       </c>
       <c r="M208" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.623219288733</v>
       </c>
       <c r="N208" s="2" t="s">
         <v>668</v>
@@ -15487,7 +15694,8 @@
         <v>435</v>
       </c>
       <c r="M209" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.353140490224</v>
       </c>
       <c r="N209" s="2" t="s">
         <v>436</v>
@@ -15543,7 +15751,8 @@
         <v>435</v>
       </c>
       <c r="M210" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.592899212519</v>
       </c>
       <c r="N210" s="2" t="s">
         <v>436</v>
@@ -15599,7 +15808,8 @@
         <v>435</v>
       </c>
       <c r="M211" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.457142110368</v>
       </c>
       <c r="N211" s="2" t="s">
         <v>436</v>
@@ -15655,7 +15865,8 @@
         <v>435</v>
       </c>
       <c r="M212" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.230826746636</v>
       </c>
       <c r="N212" s="2" t="s">
         <v>436</v>
@@ -15711,7 +15922,8 @@
         <v>435</v>
       </c>
       <c r="M213" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.483561808949</v>
       </c>
       <c r="N213" s="2" t="s">
         <v>436</v>
@@ -15767,7 +15979,8 @@
         <v>435</v>
       </c>
       <c r="M214" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.264913620689</v>
       </c>
       <c r="N214" s="2" t="s">
         <v>436</v>
@@ -15823,7 +16036,8 @@
         <v>189</v>
       </c>
       <c r="M215" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.560866984983</v>
       </c>
       <c r="N215" s="2" t="s">
         <v>190</v>
@@ -15879,7 +16093,8 @@
         <v>189</v>
       </c>
       <c r="M216" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.659965547129</v>
       </c>
       <c r="N216" s="2" t="s">
         <v>190</v>
@@ -15935,7 +16150,8 @@
         <v>189</v>
       </c>
       <c r="M217" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.456475948245</v>
       </c>
       <c r="N217" s="2" t="s">
         <v>190</v>
@@ -15991,7 +16207,8 @@
         <v>189</v>
       </c>
       <c r="M218" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.538710203007</v>
       </c>
       <c r="N218" s="2" t="s">
         <v>190</v>
@@ -16047,7 +16264,8 @@
         <v>189</v>
       </c>
       <c r="M219" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.019926692286</v>
       </c>
       <c r="N219" s="2" t="s">
         <v>190</v>
@@ -16103,7 +16321,8 @@
         <v>189</v>
       </c>
       <c r="M220" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.052043200405</v>
       </c>
       <c r="N220" s="2" t="s">
         <v>190</v>
@@ -16159,7 +16378,8 @@
         <v>189</v>
       </c>
       <c r="M221" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.8265781429</v>
       </c>
       <c r="N221" s="2" t="s">
         <v>190</v>
@@ -16215,7 +16435,8 @@
         <v>189</v>
       </c>
       <c r="M222" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.861170388962</v>
       </c>
       <c r="N222" s="2" t="s">
         <v>190</v>
@@ -16271,7 +16492,8 @@
         <v>189</v>
       </c>
       <c r="M223" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.16182258154</v>
       </c>
       <c r="N223" s="2" t="s">
         <v>190</v>
@@ -16327,7 +16549,8 @@
         <v>189</v>
       </c>
       <c r="M224" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.61288446463</v>
       </c>
       <c r="N224" s="2" t="s">
         <v>190</v>
@@ -16383,7 +16606,8 @@
         <v>189</v>
       </c>
       <c r="M225" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.53024886491</v>
       </c>
       <c r="N225" s="2" t="s">
         <v>190</v>
@@ -16439,7 +16663,8 @@
         <v>189</v>
       </c>
       <c r="M226" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.587814907376</v>
       </c>
       <c r="N226" s="2" t="s">
         <v>190</v>
@@ -16495,7 +16720,8 @@
         <v>189</v>
       </c>
       <c r="M227" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.274745504285</v>
       </c>
       <c r="N227" s="2" t="s">
         <v>190</v>
@@ -16551,7 +16777,8 @@
         <v>189</v>
       </c>
       <c r="M228" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.912054260756</v>
       </c>
       <c r="N228" s="2" t="s">
         <v>190</v>
@@ -16607,7 +16834,8 @@
         <v>117</v>
       </c>
       <c r="M229" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.332695494042</v>
       </c>
       <c r="N229" s="2" t="s">
         <v>118</v>
@@ -16666,7 +16894,8 @@
         <v>117</v>
       </c>
       <c r="M230" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.372032741121</v>
       </c>
       <c r="N230" s="2" t="s">
         <v>118</v>
@@ -16725,7 +16954,8 @@
         <v>117</v>
       </c>
       <c r="M231" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.452392083163</v>
       </c>
       <c r="N231" s="2" t="s">
         <v>118</v>
@@ -16784,7 +17014,8 @@
         <v>117</v>
       </c>
       <c r="M232" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.735365418332</v>
       </c>
       <c r="N232" s="2" t="s">
         <v>118</v>
@@ -16843,7 +17074,8 @@
         <v>117</v>
       </c>
       <c r="M233" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.47921784615</v>
       </c>
       <c r="N233" s="2" t="s">
         <v>118</v>
@@ -16902,7 +17134,8 @@
         <v>117</v>
       </c>
       <c r="M234" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.344243133892</v>
       </c>
       <c r="N234" s="2" t="s">
         <v>118</v>
@@ -16961,7 +17194,8 @@
         <v>117</v>
       </c>
       <c r="M235" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.556669185731</v>
       </c>
       <c r="N235" s="2" t="s">
         <v>118</v>
@@ -17020,7 +17254,8 @@
         <v>117</v>
       </c>
       <c r="M236" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.786544683622</v>
       </c>
       <c r="N236" s="2" t="s">
         <v>118</v>
@@ -17079,7 +17314,8 @@
         <v>117</v>
       </c>
       <c r="M237" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.274426806813</v>
       </c>
       <c r="N237" s="2" t="s">
         <v>118</v>
@@ -17138,7 +17374,8 @@
         <v>117</v>
       </c>
       <c r="M238" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.854235516053</v>
       </c>
       <c r="N238" s="2" t="s">
         <v>118</v>
@@ -17197,7 +17434,8 @@
         <v>117</v>
       </c>
       <c r="M239" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.252985305182</v>
       </c>
       <c r="N239" s="2" t="s">
         <v>118</v>
@@ -17256,7 +17494,8 @@
         <v>117</v>
       </c>
       <c r="M240" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.903649834749</v>
       </c>
       <c r="N240" s="2" t="s">
         <v>118</v>
@@ -17315,7 +17554,8 @@
         <v>696</v>
       </c>
       <c r="M241" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.421005755612</v>
       </c>
       <c r="N241" s="2" t="s">
         <v>697</v>
@@ -17371,7 +17611,8 @@
         <v>696</v>
       </c>
       <c r="M242" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.581622857782</v>
       </c>
       <c r="N242" s="2" t="s">
         <v>697</v>
@@ -17427,7 +17668,8 @@
         <v>696</v>
       </c>
       <c r="M243" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.422043537896</v>
       </c>
       <c r="N243" s="2" t="s">
         <v>697</v>
@@ -17483,7 +17725,8 @@
         <v>696</v>
       </c>
       <c r="M244" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.370143767184</v>
       </c>
       <c r="N244" s="2" t="s">
         <v>697</v>
@@ -17539,7 +17782,8 @@
         <v>696</v>
       </c>
       <c r="M245" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.897543812687</v>
       </c>
       <c r="N245" s="2" t="s">
         <v>697</v>
@@ -17595,7 +17839,8 @@
         <v>696</v>
       </c>
       <c r="M246" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.810937774564</v>
       </c>
       <c r="N246" s="2" t="s">
         <v>697</v>
@@ -17651,7 +17896,8 @@
         <v>696</v>
       </c>
       <c r="M247" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.826101731087</v>
       </c>
       <c r="N247" s="2" t="s">
         <v>697</v>
@@ -17706,8 +17952,9 @@
       <c r="L248" s="2">
         <v>0</v>
       </c>
-      <c r="M248" s="2">
-        <v>0</v>
+      <c r="M248" s="3">
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.99986106906</v>
       </c>
       <c r="N248" s="2">
         <v>0</v>
@@ -17756,8 +18003,9 @@
       <c r="L249" s="2">
         <v>0</v>
       </c>
-      <c r="M249" s="2">
-        <v>0</v>
+      <c r="M249" s="3">
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.177724390189</v>
       </c>
       <c r="N249" s="2">
         <v>0</v>
@@ -17807,7 +18055,8 @@
         <v>384</v>
       </c>
       <c r="M250" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.215148942676</v>
       </c>
       <c r="N250" s="2" t="s">
         <v>385</v>
@@ -17863,7 +18112,8 @@
         <v>384</v>
       </c>
       <c r="M251" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.868693122204</v>
       </c>
       <c r="N251" s="2" t="s">
         <v>385</v>
@@ -17919,7 +18169,8 @@
         <v>384</v>
       </c>
       <c r="M252" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.18455718529</v>
       </c>
       <c r="N252" s="2" t="s">
         <v>385</v>
@@ -17975,7 +18226,8 @@
         <v>384</v>
       </c>
       <c r="M253" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.910749348412</v>
       </c>
       <c r="N253" s="2" t="s">
         <v>385</v>
@@ -18031,7 +18283,8 @@
         <v>384</v>
       </c>
       <c r="M254" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.307760944328</v>
       </c>
       <c r="N254" s="2" t="s">
         <v>385</v>
@@ -18087,7 +18340,8 @@
         <v>384</v>
       </c>
       <c r="M255" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.458747990655</v>
       </c>
       <c r="N255" s="2" t="s">
         <v>385</v>
@@ -18143,7 +18397,8 @@
         <v>384</v>
       </c>
       <c r="M256" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.416775340898</v>
       </c>
       <c r="N256" s="2" t="s">
         <v>385</v>
@@ -18199,7 +18454,8 @@
         <v>384</v>
       </c>
       <c r="M257" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.72603633273</v>
       </c>
       <c r="N257" s="2" t="s">
         <v>385</v>
@@ -18255,7 +18511,8 @@
         <v>384</v>
       </c>
       <c r="M258" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.416996825392</v>
       </c>
       <c r="N258" s="2" t="s">
         <v>385</v>
@@ -18311,7 +18568,8 @@
         <v>384</v>
       </c>
       <c r="M259" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.171599412293</v>
       </c>
       <c r="N259" s="2" t="s">
         <v>385</v>
@@ -18367,7 +18625,8 @@
         <v>384</v>
       </c>
       <c r="M260" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.474029878147</v>
       </c>
       <c r="N260" s="2" t="s">
         <v>385</v>
@@ -18423,7 +18682,8 @@
         <v>384</v>
       </c>
       <c r="M261" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.483771268955</v>
       </c>
       <c r="N261" s="2" t="s">
         <v>385</v>
@@ -18479,7 +18739,8 @@
         <v>384</v>
       </c>
       <c r="M262" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.658811669535</v>
       </c>
       <c r="N262" s="2" t="s">
         <v>385</v>
@@ -18535,7 +18796,8 @@
         <v>384</v>
       </c>
       <c r="M263" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.966122063597</v>
       </c>
       <c r="N263" s="2" t="s">
         <v>385</v>
@@ -18591,7 +18853,8 @@
         <v>384</v>
       </c>
       <c r="M264" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.016442117398</v>
       </c>
       <c r="N264" s="2" t="s">
         <v>385</v>
@@ -18647,7 +18910,8 @@
         <v>384</v>
       </c>
       <c r="M265" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.81522152105</v>
       </c>
       <c r="N265" s="2" t="s">
         <v>385</v>
@@ -18703,7 +18967,8 @@
         <v>384</v>
       </c>
       <c r="M266" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.290338563405</v>
       </c>
       <c r="N266" s="2" t="s">
         <v>385</v>
@@ -18759,7 +19024,8 @@
         <v>384</v>
       </c>
       <c r="M267" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.27423036642</v>
       </c>
       <c r="N267" s="2" t="s">
         <v>385</v>
@@ -18815,7 +19081,8 @@
         <v>384</v>
       </c>
       <c r="M268" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.097534465931</v>
       </c>
       <c r="N268" s="2" t="s">
         <v>385</v>
@@ -18871,7 +19138,8 @@
         <v>384</v>
       </c>
       <c r="M269" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.702196639024</v>
       </c>
       <c r="N269" s="2" t="s">
         <v>385</v>
@@ -18927,7 +19195,8 @@
         <v>384</v>
       </c>
       <c r="M270" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.905945960003</v>
       </c>
       <c r="N270" s="2" t="s">
         <v>385</v>
@@ -18983,7 +19252,8 @@
         <v>384</v>
       </c>
       <c r="M271" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.120452131341</v>
       </c>
       <c r="N271" s="2" t="s">
         <v>385</v>
@@ -19039,7 +19309,8 @@
         <v>384</v>
       </c>
       <c r="M272" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.455135111471</v>
       </c>
       <c r="N272" s="2" t="s">
         <v>385</v>
@@ -19095,7 +19366,8 @@
         <v>384</v>
       </c>
       <c r="M273" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.411000529348</v>
       </c>
       <c r="N273" s="2" t="s">
         <v>385</v>
@@ -19151,7 +19423,8 @@
         <v>236</v>
       </c>
       <c r="M274" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.012949434691</v>
       </c>
       <c r="N274" s="2" t="s">
         <v>237</v>
@@ -19207,7 +19480,8 @@
         <v>236</v>
       </c>
       <c r="M275" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.162130243822</v>
       </c>
       <c r="N275" s="2" t="s">
         <v>237</v>
@@ -19263,7 +19537,8 @@
         <v>236</v>
       </c>
       <c r="M276" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.780817289095</v>
       </c>
       <c r="N276" s="2" t="s">
         <v>237</v>
@@ -19319,7 +19594,8 @@
         <v>236</v>
       </c>
       <c r="M277" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.487288628108</v>
       </c>
       <c r="N277" s="2" t="s">
         <v>237</v>
@@ -19375,7 +19651,8 @@
         <v>236</v>
       </c>
       <c r="M278" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.503633287204</v>
       </c>
       <c r="N278" s="2" t="s">
         <v>237</v>
@@ -19431,7 +19708,8 @@
         <v>236</v>
       </c>
       <c r="M279" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.276882915241</v>
       </c>
       <c r="N279" s="2" t="s">
         <v>237</v>
@@ -19487,7 +19765,8 @@
         <v>236</v>
       </c>
       <c r="M280" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.606336919351</v>
       </c>
       <c r="N280" s="2" t="s">
         <v>237</v>
@@ -19543,7 +19822,8 @@
         <v>236</v>
       </c>
       <c r="M281" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.083501827103</v>
       </c>
       <c r="N281" s="2" t="s">
         <v>237</v>
@@ -19599,7 +19879,8 @@
         <v>236</v>
       </c>
       <c r="M282" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.958105481521</v>
       </c>
       <c r="N282" s="2" t="s">
         <v>237</v>
@@ -19655,7 +19936,8 @@
         <v>236</v>
       </c>
       <c r="M283" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.443784644704</v>
       </c>
       <c r="N283" s="2" t="s">
         <v>237</v>
@@ -19711,7 +19993,8 @@
         <v>236</v>
       </c>
       <c r="M284" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.890794592764</v>
       </c>
       <c r="N284" s="2" t="s">
         <v>237</v>
@@ -19767,7 +20050,8 @@
         <v>236</v>
       </c>
       <c r="M285" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.221688582911</v>
       </c>
       <c r="N285" s="2" t="s">
         <v>237</v>
@@ -19823,7 +20107,8 @@
         <v>236</v>
       </c>
       <c r="M286" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.808144412724</v>
       </c>
       <c r="N286" s="2" t="s">
         <v>237</v>
@@ -19879,7 +20164,8 @@
         <v>236</v>
       </c>
       <c r="M287" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.592652925152</v>
       </c>
       <c r="N287" s="2" t="s">
         <v>237</v>
@@ -19935,7 +20221,8 @@
         <v>236</v>
       </c>
       <c r="M288" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.194438940583</v>
       </c>
       <c r="N288" s="2" t="s">
         <v>237</v>
@@ -19991,7 +20278,8 @@
         <v>236</v>
       </c>
       <c r="M289" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.699240948277</v>
       </c>
       <c r="N289" s="2" t="s">
         <v>237</v>
@@ -20047,7 +20335,8 @@
         <v>236</v>
       </c>
       <c r="M290" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.620961132357</v>
       </c>
       <c r="N290" s="2" t="s">
         <v>237</v>
@@ -20103,7 +20392,8 @@
         <v>236</v>
       </c>
       <c r="M291" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.965459706567</v>
       </c>
       <c r="N291" s="2" t="s">
         <v>237</v>
@@ -20159,7 +20449,8 @@
         <v>236</v>
       </c>
       <c r="M292" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.868452092029</v>
       </c>
       <c r="N292" s="2" t="s">
         <v>237</v>
@@ -20215,7 +20506,8 @@
         <v>236</v>
       </c>
       <c r="M293" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.734348958787</v>
       </c>
       <c r="N293" s="2" t="s">
         <v>237</v>
@@ -20271,7 +20563,8 @@
         <v>236</v>
       </c>
       <c r="M294" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.552628908234</v>
       </c>
       <c r="N294" s="2" t="s">
         <v>237</v>
@@ -20327,7 +20620,8 @@
         <v>516</v>
       </c>
       <c r="M295" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.124411256998</v>
       </c>
       <c r="N295" s="2" t="s">
         <v>517</v>
@@ -20383,7 +20677,8 @@
         <v>516</v>
       </c>
       <c r="M296" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.070704268102</v>
       </c>
       <c r="N296" s="2" t="s">
         <v>517</v>
@@ -20439,7 +20734,8 @@
         <v>516</v>
       </c>
       <c r="M297" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.956561313207</v>
       </c>
       <c r="N297" s="2" t="s">
         <v>517</v>
@@ -20495,7 +20791,8 @@
         <v>516</v>
       </c>
       <c r="M298" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.415066989233</v>
       </c>
       <c r="N298" s="2" t="s">
         <v>517</v>
@@ -20551,7 +20848,8 @@
         <v>516</v>
       </c>
       <c r="M299" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.316687492807</v>
       </c>
       <c r="N299" s="2" t="s">
         <v>517</v>
@@ -20607,7 +20905,8 @@
         <v>516</v>
       </c>
       <c r="M300" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.565800742006</v>
       </c>
       <c r="N300" s="2" t="s">
         <v>517</v>
@@ -20663,7 +20962,8 @@
         <v>516</v>
       </c>
       <c r="M301" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.949546585893</v>
       </c>
       <c r="N301" s="2" t="s">
         <v>517</v>
@@ -20719,7 +21019,8 @@
         <v>516</v>
       </c>
       <c r="M302" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.60490741441</v>
       </c>
       <c r="N302" s="2" t="s">
         <v>517</v>
@@ -20775,7 +21076,8 @@
         <v>516</v>
       </c>
       <c r="M303" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.503799199694</v>
       </c>
       <c r="N303" s="2" t="s">
         <v>517</v>
@@ -20831,7 +21133,8 @@
         <v>516</v>
       </c>
       <c r="M304" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.869018609083</v>
       </c>
       <c r="N304" s="2" t="s">
         <v>517</v>
@@ -20887,7 +21190,8 @@
         <v>516</v>
       </c>
       <c r="M305" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.356315145385</v>
       </c>
       <c r="N305" s="2" t="s">
         <v>517</v>
@@ -20943,7 +21247,8 @@
         <v>516</v>
       </c>
       <c r="M306" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.852770299352</v>
       </c>
       <c r="N306" s="2" t="s">
         <v>517</v>
@@ -20999,7 +21304,8 @@
         <v>516</v>
       </c>
       <c r="M307" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.178227295895</v>
       </c>
       <c r="N307" s="2" t="s">
         <v>517</v>
@@ -21055,7 +21361,8 @@
         <v>134</v>
       </c>
       <c r="M308" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.703397565565</v>
       </c>
       <c r="N308" s="2" t="s">
         <v>135</v>
@@ -21111,7 +21418,8 @@
         <v>134</v>
       </c>
       <c r="M309" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.011584884873</v>
       </c>
       <c r="N309" s="2" t="s">
         <v>135</v>
@@ -21167,7 +21475,8 @@
         <v>134</v>
       </c>
       <c r="M310" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.72361311868</v>
       </c>
       <c r="N310" s="2" t="s">
         <v>135</v>
@@ -21223,7 +21532,8 @@
         <v>134</v>
       </c>
       <c r="M311" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.601619298504</v>
       </c>
       <c r="N311" s="2" t="s">
         <v>135</v>
@@ -21279,7 +21589,8 @@
         <v>134</v>
       </c>
       <c r="M312" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.981526520438</v>
       </c>
       <c r="N312" s="2" t="s">
         <v>135</v>
@@ -21335,7 +21646,8 @@
         <v>134</v>
       </c>
       <c r="M313" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.260760844074</v>
       </c>
       <c r="N313" s="2" t="s">
         <v>135</v>
@@ -21391,7 +21703,8 @@
         <v>134</v>
       </c>
       <c r="M314" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.18422458187</v>
       </c>
       <c r="N314" s="2" t="s">
         <v>135</v>
@@ -21447,7 +21760,8 @@
         <v>134</v>
       </c>
       <c r="M315" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.47297205792</v>
       </c>
       <c r="N315" s="2" t="s">
         <v>135</v>
@@ -21503,7 +21817,8 @@
         <v>134</v>
       </c>
       <c r="M316" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.119042812366</v>
       </c>
       <c r="N316" s="2" t="s">
         <v>135</v>
@@ -21559,7 +21874,8 @@
         <v>134</v>
       </c>
       <c r="M317" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.362760723685</v>
       </c>
       <c r="N317" s="2" t="s">
         <v>135</v>
@@ -21615,7 +21931,8 @@
         <v>784</v>
       </c>
       <c r="M318" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.557139499222</v>
       </c>
       <c r="N318" s="2" t="s">
         <v>785</v>
@@ -21671,7 +21988,8 @@
         <v>784</v>
       </c>
       <c r="M319" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.794705122797</v>
       </c>
       <c r="N319" s="2" t="s">
         <v>785</v>
@@ -21727,7 +22045,8 @@
         <v>784</v>
       </c>
       <c r="M320" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.849060747445</v>
       </c>
       <c r="N320" s="2" t="s">
         <v>785</v>
@@ -21783,7 +22102,8 @@
         <v>784</v>
       </c>
       <c r="M321" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.034049266462</v>
       </c>
       <c r="N321" s="2" t="s">
         <v>785</v>
@@ -21839,7 +22159,8 @@
         <v>784</v>
       </c>
       <c r="M322" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.061237857604</v>
       </c>
       <c r="N322" s="2" t="s">
         <v>785</v>
@@ -21895,7 +22216,8 @@
         <v>784</v>
       </c>
       <c r="M323" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.100339577133</v>
       </c>
       <c r="N323" s="2" t="s">
         <v>785</v>
@@ -21951,7 +22273,8 @@
         <v>784</v>
       </c>
       <c r="M324" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.979203525523</v>
       </c>
       <c r="N324" s="2" t="s">
         <v>785</v>
@@ -22007,7 +22330,8 @@
         <v>784</v>
       </c>
       <c r="M325" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.797825487236</v>
       </c>
       <c r="N325" s="2" t="s">
         <v>785</v>
@@ -22063,7 +22387,8 @@
         <v>784</v>
       </c>
       <c r="M326" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.793265281711</v>
       </c>
       <c r="N326" s="2" t="s">
         <v>785</v>
@@ -22119,7 +22444,8 @@
         <v>784</v>
       </c>
       <c r="M327" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.933727264455</v>
       </c>
       <c r="N327" s="2" t="s">
         <v>785</v>
@@ -22175,7 +22501,8 @@
         <v>427</v>
       </c>
       <c r="M328" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.837554072757</v>
       </c>
       <c r="N328" s="2" t="s">
         <v>428</v>
@@ -22231,7 +22558,8 @@
         <v>427</v>
       </c>
       <c r="M329" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.32000022399</v>
       </c>
       <c r="N329" s="2" t="s">
         <v>428</v>
@@ -22287,7 +22615,8 @@
         <v>427</v>
       </c>
       <c r="M330" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.334925055751</v>
       </c>
       <c r="N330" s="2" t="s">
         <v>428</v>
@@ -22343,7 +22672,8 @@
         <v>427</v>
       </c>
       <c r="M331" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.340161765518</v>
       </c>
       <c r="N331" s="2" t="s">
         <v>428</v>
@@ -22399,7 +22729,8 @@
         <v>427</v>
       </c>
       <c r="M332" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.150222588352</v>
       </c>
       <c r="N332" s="2" t="s">
         <v>428</v>
@@ -22454,8 +22785,9 @@
       <c r="L333" s="2">
         <v>0</v>
       </c>
-      <c r="M333" s="2">
-        <v>0</v>
+      <c r="M333" s="3">
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.733604431174</v>
       </c>
       <c r="N333" s="2">
         <v>0</v>
@@ -22505,7 +22837,8 @@
         <v>832</v>
       </c>
       <c r="M334" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.93804981163</v>
       </c>
       <c r="N334" s="2" t="s">
         <v>833</v>
@@ -22561,7 +22894,8 @@
         <v>832</v>
       </c>
       <c r="M335" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.463381053356</v>
       </c>
       <c r="N335" s="2" t="s">
         <v>833</v>
@@ -22617,7 +22951,8 @@
         <v>832</v>
       </c>
       <c r="M336" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.117251721647</v>
       </c>
       <c r="N336" s="2" t="s">
         <v>833</v>
@@ -22673,7 +23008,8 @@
         <v>832</v>
       </c>
       <c r="M337" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.639422629079</v>
       </c>
       <c r="N337" s="2" t="s">
         <v>833</v>
@@ -22729,7 +23065,8 @@
         <v>832</v>
       </c>
       <c r="M338" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.45987686493</v>
       </c>
       <c r="N338" s="2" t="s">
         <v>833</v>
@@ -22785,7 +23122,8 @@
         <v>832</v>
       </c>
       <c r="M339" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.242256339305</v>
       </c>
       <c r="N339" s="2" t="s">
         <v>833</v>
@@ -22841,7 +23179,8 @@
         <v>832</v>
       </c>
       <c r="M340" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.699110369424</v>
       </c>
       <c r="N340" s="2" t="s">
         <v>833</v>
@@ -22897,7 +23236,8 @@
         <v>832</v>
       </c>
       <c r="M341" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.213185502769</v>
       </c>
       <c r="N341" s="2" t="s">
         <v>833</v>
@@ -22953,7 +23293,8 @@
         <v>832</v>
       </c>
       <c r="M342" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.900441912527</v>
       </c>
       <c r="N342" s="2" t="s">
         <v>833</v>
@@ -23009,7 +23350,8 @@
         <v>832</v>
       </c>
       <c r="M343" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.711356664855</v>
       </c>
       <c r="N343" s="2" t="s">
         <v>833</v>
@@ -23065,7 +23407,8 @@
         <v>832</v>
       </c>
       <c r="M344" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.264664207403</v>
       </c>
       <c r="N344" s="2" t="s">
         <v>833</v>
@@ -23121,7 +23464,8 @@
         <v>832</v>
       </c>
       <c r="M345" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.062527300695</v>
       </c>
       <c r="N345" s="2" t="s">
         <v>833</v>
@@ -23177,7 +23521,8 @@
         <v>832</v>
       </c>
       <c r="M346" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.832276384019</v>
       </c>
       <c r="N346" s="2" t="s">
         <v>833</v>
@@ -23233,7 +23578,8 @@
         <v>832</v>
       </c>
       <c r="M347" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.960649952118</v>
       </c>
       <c r="N347" s="2" t="s">
         <v>833</v>
@@ -23289,7 +23635,8 @@
         <v>832</v>
       </c>
       <c r="M348" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.492901376012</v>
       </c>
       <c r="N348" s="2" t="s">
         <v>833</v>
@@ -23345,7 +23692,8 @@
         <v>832</v>
       </c>
       <c r="M349" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.307530351587</v>
       </c>
       <c r="N349" s="2" t="s">
         <v>833</v>
@@ -23401,7 +23749,8 @@
         <v>832</v>
       </c>
       <c r="M350" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.779882792951</v>
       </c>
       <c r="N350" s="2" t="s">
         <v>833</v>
@@ -23457,7 +23806,8 @@
         <v>832</v>
       </c>
       <c r="M351" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.492963341268</v>
       </c>
       <c r="N351" s="2" t="s">
         <v>833</v>
@@ -23513,7 +23863,8 @@
         <v>832</v>
       </c>
       <c r="M352" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.201011429519</v>
       </c>
       <c r="N352" s="2" t="s">
         <v>833</v>
@@ -23569,7 +23920,8 @@
         <v>832</v>
       </c>
       <c r="M353" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.453486238541</v>
       </c>
       <c r="N353" s="2" t="s">
         <v>833</v>
@@ -23625,7 +23977,8 @@
         <v>832</v>
       </c>
       <c r="M354" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.698606806203</v>
       </c>
       <c r="N354" s="2" t="s">
         <v>833</v>
@@ -23681,7 +24034,8 @@
         <v>832</v>
       </c>
       <c r="M355" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.473222083398</v>
       </c>
       <c r="N355" s="2" t="s">
         <v>833</v>
@@ -23737,7 +24091,8 @@
         <v>832</v>
       </c>
       <c r="M356" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.719527641355</v>
       </c>
       <c r="N356" s="2" t="s">
         <v>833</v>
@@ -23793,7 +24148,8 @@
         <v>832</v>
       </c>
       <c r="M357" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.313669628282</v>
       </c>
       <c r="N357" s="2" t="s">
         <v>833</v>
@@ -23849,7 +24205,8 @@
         <v>832</v>
       </c>
       <c r="M358" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.627583918264</v>
       </c>
       <c r="N358" s="2" t="s">
         <v>833</v>
@@ -23905,7 +24262,8 @@
         <v>832</v>
       </c>
       <c r="M359" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.600601934719</v>
       </c>
       <c r="N359" s="2" t="s">
         <v>833</v>
@@ -23961,7 +24319,8 @@
         <v>832</v>
       </c>
       <c r="M360" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.26330102051</v>
       </c>
       <c r="N360" s="2" t="s">
         <v>833</v>
@@ -24017,7 +24376,8 @@
         <v>832</v>
       </c>
       <c r="M361" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.906475192496</v>
       </c>
       <c r="N361" s="2" t="s">
         <v>833</v>
@@ -24073,7 +24433,8 @@
         <v>832</v>
       </c>
       <c r="M362" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.27136064064</v>
       </c>
       <c r="N362" s="2" t="s">
         <v>833</v>
@@ -24129,7 +24490,8 @@
         <v>832</v>
       </c>
       <c r="M363" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.388305029068</v>
       </c>
       <c r="N363" s="2" t="s">
         <v>833</v>
@@ -24185,7 +24547,8 @@
         <v>832</v>
       </c>
       <c r="M364" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.475144423261</v>
       </c>
       <c r="N364" s="2" t="s">
         <v>833</v>
@@ -24241,7 +24604,8 @@
         <v>832</v>
       </c>
       <c r="M365" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.672010986644</v>
       </c>
       <c r="N365" s="2" t="s">
         <v>833</v>
@@ -24297,7 +24661,8 @@
         <v>81</v>
       </c>
       <c r="M366" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.07608088971</v>
       </c>
       <c r="N366" s="2" t="s">
         <v>82</v>
@@ -24353,7 +24718,8 @@
         <v>81</v>
       </c>
       <c r="M367" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.281813031099</v>
       </c>
       <c r="N367" s="2" t="s">
         <v>82</v>
@@ -24409,7 +24775,8 @@
         <v>81</v>
       </c>
       <c r="M368" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.847134219053</v>
       </c>
       <c r="N368" s="2" t="s">
         <v>82</v>
@@ -24465,7 +24832,8 @@
         <v>81</v>
       </c>
       <c r="M369" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.937020204474</v>
       </c>
       <c r="N369" s="2" t="s">
         <v>82</v>
@@ -24521,7 +24889,8 @@
         <v>81</v>
       </c>
       <c r="M370" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.180764099183</v>
       </c>
       <c r="N370" s="2" t="s">
         <v>82</v>
@@ -24577,7 +24946,8 @@
         <v>81</v>
       </c>
       <c r="M371" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.053118044438</v>
       </c>
       <c r="N371" s="2" t="s">
         <v>82</v>
@@ -24633,7 +25003,8 @@
         <v>81</v>
       </c>
       <c r="M372" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.788206682686</v>
       </c>
       <c r="N372" s="2" t="s">
         <v>82</v>
@@ -24689,7 +25060,8 @@
         <v>81</v>
       </c>
       <c r="M373" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.547147019999</v>
       </c>
       <c r="N373" s="2" t="s">
         <v>82</v>
@@ -24745,7 +25117,8 @@
         <v>903</v>
       </c>
       <c r="M374" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.598979060982</v>
       </c>
       <c r="N374" s="2" t="s">
         <v>904</v>
@@ -24801,7 +25174,8 @@
         <v>18</v>
       </c>
       <c r="M375" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.054432947742</v>
       </c>
       <c r="N375" s="2" t="s">
         <v>19</v>
@@ -24857,7 +25231,8 @@
         <v>18</v>
       </c>
       <c r="M376" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.412669490033</v>
       </c>
       <c r="N376" s="2" t="s">
         <v>19</v>
@@ -24913,7 +25288,8 @@
         <v>18</v>
       </c>
       <c r="M377" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.708610458729</v>
       </c>
       <c r="N377" s="2" t="s">
         <v>19</v>
@@ -24969,7 +25345,8 @@
         <v>18</v>
       </c>
       <c r="M378" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.316691301101</v>
       </c>
       <c r="N378" s="2" t="s">
         <v>19</v>
@@ -25025,7 +25402,8 @@
         <v>18</v>
       </c>
       <c r="M379" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.046650386372</v>
       </c>
       <c r="N379" s="2" t="s">
         <v>19</v>
@@ -25081,7 +25459,8 @@
         <v>18</v>
       </c>
       <c r="M380" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.347000081201</v>
       </c>
       <c r="N380" s="2" t="s">
         <v>19</v>
@@ -25137,7 +25516,8 @@
         <v>18</v>
       </c>
       <c r="M381" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.030807460447</v>
       </c>
       <c r="N381" s="2" t="s">
         <v>19</v>
@@ -25193,7 +25573,8 @@
         <v>18</v>
       </c>
       <c r="M382" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.206827290356</v>
       </c>
       <c r="N382" s="2" t="s">
         <v>19</v>
@@ -25249,7 +25630,8 @@
         <v>18</v>
       </c>
       <c r="M383" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.369645368359</v>
       </c>
       <c r="N383" s="2" t="s">
         <v>19</v>
@@ -25305,7 +25687,8 @@
         <v>18</v>
       </c>
       <c r="M384" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.723947643812</v>
       </c>
       <c r="N384" s="2" t="s">
         <v>19</v>
@@ -25361,7 +25744,8 @@
         <v>493</v>
       </c>
       <c r="M385" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.629403488456</v>
       </c>
       <c r="N385" s="2" t="s">
         <v>494</v>
@@ -25417,7 +25801,8 @@
         <v>493</v>
       </c>
       <c r="M386" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.265538462896</v>
       </c>
       <c r="N386" s="2" t="s">
         <v>494</v>
@@ -25473,7 +25858,8 @@
         <v>493</v>
       </c>
       <c r="M387" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.819455012177</v>
       </c>
       <c r="N387" s="2" t="s">
         <v>494</v>
@@ -25529,7 +25915,8 @@
         <v>493</v>
       </c>
       <c r="M388" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.924314358417</v>
       </c>
       <c r="N388" s="2" t="s">
         <v>494</v>
@@ -25585,7 +25972,8 @@
         <v>493</v>
       </c>
       <c r="M389" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.887358735687</v>
       </c>
       <c r="N389" s="2" t="s">
         <v>494</v>
@@ -25641,7 +26029,8 @@
         <v>493</v>
       </c>
       <c r="M390" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.297924732709</v>
       </c>
       <c r="N390" s="2" t="s">
         <v>494</v>
@@ -25697,7 +26086,8 @@
         <v>493</v>
       </c>
       <c r="M391" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.802012591535</v>
       </c>
       <c r="N391" s="2" t="s">
         <v>494</v>
@@ -25753,7 +26143,8 @@
         <v>493</v>
       </c>
       <c r="M392" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.216206968311</v>
       </c>
       <c r="N392" s="2" t="s">
         <v>494</v>
@@ -25809,7 +26200,8 @@
         <v>493</v>
       </c>
       <c r="M393" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.57289139786</v>
       </c>
       <c r="N393" s="2" t="s">
         <v>494</v>
@@ -25865,7 +26257,8 @@
         <v>493</v>
       </c>
       <c r="M394" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.910797053686</v>
       </c>
       <c r="N394" s="2" t="s">
         <v>494</v>
@@ -25921,7 +26314,8 @@
         <v>493</v>
       </c>
       <c r="M395" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.042807587561</v>
       </c>
       <c r="N395" s="2" t="s">
         <v>494</v>
@@ -25977,7 +26371,8 @@
         <v>493</v>
       </c>
       <c r="M396" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.06340570312</v>
       </c>
       <c r="N396" s="2" t="s">
         <v>494</v>
@@ -26033,7 +26428,8 @@
         <v>493</v>
       </c>
       <c r="M397" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.013773394836</v>
       </c>
       <c r="N397" s="2" t="s">
         <v>494</v>
@@ -26089,7 +26485,8 @@
         <v>553</v>
       </c>
       <c r="M398" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.435063752855</v>
       </c>
       <c r="N398" s="2" t="s">
         <v>554</v>
@@ -26145,7 +26542,8 @@
         <v>553</v>
       </c>
       <c r="M399" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.130370172119</v>
       </c>
       <c r="N399" s="2" t="s">
         <v>554</v>
@@ -26201,7 +26599,8 @@
         <v>553</v>
       </c>
       <c r="M400" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.989642445595</v>
       </c>
       <c r="N400" s="2" t="s">
         <v>554</v>
@@ -26257,7 +26656,8 @@
         <v>553</v>
       </c>
       <c r="M401" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.242508067044</v>
       </c>
       <c r="N401" s="2" t="s">
         <v>554</v>
@@ -26313,7 +26713,8 @@
         <v>553</v>
       </c>
       <c r="M402" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.265916548182</v>
       </c>
       <c r="N402" s="2" t="s">
         <v>554</v>
@@ -26369,7 +26770,8 @@
         <v>553</v>
       </c>
       <c r="M403" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.775533921085</v>
       </c>
       <c r="N403" s="2" t="s">
         <v>554</v>
@@ -26425,7 +26827,8 @@
         <v>553</v>
       </c>
       <c r="M404" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.710692184461</v>
       </c>
       <c r="N404" s="2" t="s">
         <v>554</v>
@@ -26481,7 +26884,8 @@
         <v>553</v>
       </c>
       <c r="M405" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.032703829893</v>
       </c>
       <c r="N405" s="2" t="s">
         <v>554</v>
@@ -26537,7 +26941,8 @@
         <v>553</v>
       </c>
       <c r="M406" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.897501474123</v>
       </c>
       <c r="N406" s="2" t="s">
         <v>554</v>
@@ -26593,7 +26998,8 @@
         <v>553</v>
       </c>
       <c r="M407" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.9420218245</v>
       </c>
       <c r="N407" s="2" t="s">
         <v>554</v>
@@ -26649,7 +27055,8 @@
         <v>553</v>
       </c>
       <c r="M408" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.52366794004</v>
       </c>
       <c r="N408" s="2" t="s">
         <v>554</v>
@@ -26705,7 +27112,8 @@
         <v>553</v>
       </c>
       <c r="M409" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.563094896352</v>
       </c>
       <c r="N409" s="2" t="s">
         <v>554</v>
@@ -26761,7 +27169,8 @@
         <v>553</v>
       </c>
       <c r="M410" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.515039008307</v>
       </c>
       <c r="N410" s="2" t="s">
         <v>554</v>
@@ -26817,7 +27226,8 @@
         <v>553</v>
       </c>
       <c r="M411" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.51402200391</v>
       </c>
       <c r="N411" s="2" t="s">
         <v>554</v>
@@ -26873,7 +27283,8 @@
         <v>553</v>
       </c>
       <c r="M412" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.255063806624</v>
       </c>
       <c r="N412" s="2" t="s">
         <v>554</v>
@@ -26929,7 +27340,8 @@
         <v>553</v>
       </c>
       <c r="M413" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.069385951574</v>
       </c>
       <c r="N413" s="2" t="s">
         <v>554</v>
@@ -26985,7 +27397,8 @@
         <v>489</v>
       </c>
       <c r="M414" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.789003841892</v>
       </c>
       <c r="N414" s="2" t="s">
         <v>490</v>
@@ -27041,7 +27454,8 @@
         <v>531</v>
       </c>
       <c r="M415" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.60654466955</v>
       </c>
       <c r="N415" s="2" t="s">
         <v>532</v>
@@ -27097,7 +27511,8 @@
         <v>531</v>
       </c>
       <c r="M416" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.735875085105</v>
       </c>
       <c r="N416" s="2" t="s">
         <v>532</v>
@@ -27153,7 +27568,8 @@
         <v>531</v>
       </c>
       <c r="M417" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.900083550121</v>
       </c>
       <c r="N417" s="2" t="s">
         <v>532</v>
@@ -27209,7 +27625,8 @@
         <v>531</v>
       </c>
       <c r="M418" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.303742196265</v>
       </c>
       <c r="N418" s="2" t="s">
         <v>532</v>
@@ -27265,7 +27682,8 @@
         <v>531</v>
       </c>
       <c r="M419" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.044066410526</v>
       </c>
       <c r="N419" s="2" t="s">
         <v>532</v>
@@ -27321,7 +27739,8 @@
         <v>531</v>
       </c>
       <c r="M420" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.112560266221</v>
       </c>
       <c r="N420" s="2" t="s">
         <v>532</v>
@@ -27377,7 +27796,8 @@
         <v>531</v>
       </c>
       <c r="M421" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.500460368603</v>
       </c>
       <c r="N421" s="2" t="s">
         <v>532</v>
@@ -27433,7 +27853,8 @@
         <v>531</v>
       </c>
       <c r="M422" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.607982288508</v>
       </c>
       <c r="N422" s="2" t="s">
         <v>532</v>
@@ -27489,7 +27910,8 @@
         <v>531</v>
       </c>
       <c r="M423" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.797583313077</v>
       </c>
       <c r="N423" s="2" t="s">
         <v>532</v>
@@ -27545,7 +27967,8 @@
         <v>531</v>
       </c>
       <c r="M424" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.464612295815</v>
       </c>
       <c r="N424" s="2" t="s">
         <v>532</v>
@@ -27601,7 +28024,8 @@
         <v>531</v>
       </c>
       <c r="M425" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.512653275939</v>
       </c>
       <c r="N425" s="2" t="s">
         <v>532</v>
@@ -27657,7 +28081,8 @@
         <v>531</v>
       </c>
       <c r="M426" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.206021789527</v>
       </c>
       <c r="N426" s="2" t="s">
         <v>532</v>
@@ -27713,7 +28138,8 @@
         <v>531</v>
       </c>
       <c r="M427" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.550030833991</v>
       </c>
       <c r="N427" s="2" t="s">
         <v>532</v>
@@ -27769,7 +28195,8 @@
         <v>531</v>
       </c>
       <c r="M428" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.634076490613</v>
       </c>
       <c r="N428" s="2" t="s">
         <v>532</v>
@@ -27825,7 +28252,8 @@
         <v>531</v>
       </c>
       <c r="M429" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.77190658162</v>
       </c>
       <c r="N429" s="2" t="s">
         <v>532</v>
@@ -27881,7 +28309,8 @@
         <v>531</v>
       </c>
       <c r="M430" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.520306043603</v>
       </c>
       <c r="N430" s="2" t="s">
         <v>532</v>
@@ -27937,7 +28366,8 @@
         <v>531</v>
       </c>
       <c r="M431" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.55064337721</v>
       </c>
       <c r="N431" s="2" t="s">
         <v>532</v>
@@ -27993,7 +28423,8 @@
         <v>531</v>
       </c>
       <c r="M432" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.841284723378</v>
       </c>
       <c r="N432" s="2" t="s">
         <v>532</v>
@@ -28049,7 +28480,8 @@
         <v>531</v>
       </c>
       <c r="M433" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.409355694734</v>
       </c>
       <c r="N433" s="2" t="s">
         <v>532</v>
@@ -28105,7 +28537,8 @@
         <v>531</v>
       </c>
       <c r="M434" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.253926659105</v>
       </c>
       <c r="N434" s="2" t="s">
         <v>532</v>
@@ -28161,7 +28594,8 @@
         <v>384</v>
       </c>
       <c r="M435" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.195492301238</v>
       </c>
       <c r="N435" s="2" t="s">
         <v>639</v>
@@ -28217,7 +28651,8 @@
         <v>384</v>
       </c>
       <c r="M436" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.064356011135</v>
       </c>
       <c r="N436" s="2" t="s">
         <v>639</v>
@@ -28273,7 +28708,8 @@
         <v>384</v>
       </c>
       <c r="M437" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.436392792122</v>
       </c>
       <c r="N437" s="2" t="s">
         <v>639</v>
@@ -28329,7 +28765,8 @@
         <v>384</v>
       </c>
       <c r="M438" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.737678778947</v>
       </c>
       <c r="N438" s="2" t="s">
         <v>639</v>
@@ -28385,7 +28822,8 @@
         <v>384</v>
       </c>
       <c r="M439" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.399063134028</v>
       </c>
       <c r="N439" s="2" t="s">
         <v>639</v>
@@ -28441,7 +28879,8 @@
         <v>384</v>
       </c>
       <c r="M440" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.56369830959</v>
       </c>
       <c r="N440" s="2" t="s">
         <v>639</v>
@@ -28497,7 +28936,8 @@
         <v>384</v>
       </c>
       <c r="M441" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.547853716307</v>
       </c>
       <c r="N441" s="2" t="s">
         <v>639</v>
@@ -28553,7 +28993,8 @@
         <v>384</v>
       </c>
       <c r="M442" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.273148375978</v>
       </c>
       <c r="N442" s="2" t="s">
         <v>639</v>
@@ -28609,7 +29050,8 @@
         <v>384</v>
       </c>
       <c r="M443" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.604810259203</v>
       </c>
       <c r="N443" s="2" t="s">
         <v>639</v>
@@ -28665,7 +29107,8 @@
         <v>384</v>
       </c>
       <c r="M444" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.557303313675</v>
       </c>
       <c r="N444" s="2" t="s">
         <v>639</v>
@@ -28721,7 +29164,8 @@
         <v>384</v>
       </c>
       <c r="M445" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.836852983644</v>
       </c>
       <c r="N445" s="2" t="s">
         <v>639</v>
@@ -28777,7 +29221,8 @@
         <v>384</v>
       </c>
       <c r="M446" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.040406525928</v>
       </c>
       <c r="N446" s="2" t="s">
         <v>639</v>
@@ -28833,7 +29278,8 @@
         <v>384</v>
       </c>
       <c r="M447" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.74915415841</v>
       </c>
       <c r="N447" s="2" t="s">
         <v>639</v>
@@ -28889,7 +29335,8 @@
         <v>384</v>
       </c>
       <c r="M448" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.951639030849</v>
       </c>
       <c r="N448" s="2" t="s">
         <v>639</v>
@@ -28945,7 +29392,8 @@
         <v>384</v>
       </c>
       <c r="M449" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.56625289892</v>
       </c>
       <c r="N449" s="2" t="s">
         <v>639</v>
@@ -29001,7 +29449,8 @@
         <v>384</v>
       </c>
       <c r="M450" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.67606043339</v>
       </c>
       <c r="N450" s="2" t="s">
         <v>639</v>
@@ -29057,7 +29506,8 @@
         <v>384</v>
       </c>
       <c r="M451" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.885523811077</v>
       </c>
       <c r="N451" s="2" t="s">
         <v>639</v>
@@ -29113,7 +29563,8 @@
         <v>384</v>
       </c>
       <c r="M452" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.856400660603</v>
       </c>
       <c r="N452" s="2" t="s">
         <v>639</v>
@@ -29169,7 +29620,8 @@
         <v>384</v>
       </c>
       <c r="M453" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.119279979546</v>
       </c>
       <c r="N453" s="2" t="s">
         <v>639</v>
@@ -29225,7 +29677,8 @@
         <v>384</v>
       </c>
       <c r="M454" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.764122323424</v>
       </c>
       <c r="N454" s="2" t="s">
         <v>639</v>
@@ -29281,7 +29734,8 @@
         <v>384</v>
       </c>
       <c r="M455" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.405462391813</v>
       </c>
       <c r="N455" s="2" t="s">
         <v>639</v>
@@ -29337,7 +29791,8 @@
         <v>384</v>
       </c>
       <c r="M456" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.9682476983</v>
       </c>
       <c r="N456" s="2" t="s">
         <v>639</v>
@@ -29393,7 +29848,8 @@
         <v>384</v>
       </c>
       <c r="M457" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.24806296367</v>
       </c>
       <c r="N457" s="2" t="s">
         <v>639</v>
@@ -29449,7 +29905,8 @@
         <v>749</v>
       </c>
       <c r="M458" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.581252869459</v>
       </c>
       <c r="N458" s="2" t="s">
         <v>750</v>
@@ -29505,7 +29962,8 @@
         <v>749</v>
       </c>
       <c r="M459" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.424061844482</v>
       </c>
       <c r="N459" s="2" t="s">
         <v>750</v>
@@ -29561,7 +30019,8 @@
         <v>749</v>
       </c>
       <c r="M460" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.644525092219</v>
       </c>
       <c r="N460" s="2" t="s">
         <v>750</v>
@@ -29617,7 +30076,8 @@
         <v>749</v>
       </c>
       <c r="M461" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.133505121179</v>
       </c>
       <c r="N461" s="2" t="s">
         <v>750</v>
@@ -29673,7 +30133,8 @@
         <v>749</v>
       </c>
       <c r="M462" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.384035423609</v>
       </c>
       <c r="N462" s="2" t="s">
         <v>750</v>
@@ -29729,7 +30190,8 @@
         <v>749</v>
       </c>
       <c r="M463" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.744768539764</v>
       </c>
       <c r="N463" s="2" t="s">
         <v>750</v>
@@ -29785,7 +30247,8 @@
         <v>749</v>
       </c>
       <c r="M464" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.016392946411</v>
       </c>
       <c r="N464" s="2" t="s">
         <v>750</v>
@@ -29841,7 +30304,8 @@
         <v>749</v>
       </c>
       <c r="M465" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.283008031183</v>
       </c>
       <c r="N465" s="2" t="s">
         <v>750</v>
@@ -29897,7 +30361,8 @@
         <v>749</v>
       </c>
       <c r="M466" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.700676335058</v>
       </c>
       <c r="N466" s="2" t="s">
         <v>750</v>
@@ -29953,7 +30418,8 @@
         <v>749</v>
       </c>
       <c r="M467" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.257504727764</v>
       </c>
       <c r="N467" s="2" t="s">
         <v>750</v>
@@ -30009,7 +30475,8 @@
         <v>749</v>
       </c>
       <c r="M468" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.778298403653</v>
       </c>
       <c r="N468" s="2" t="s">
         <v>750</v>
@@ -30065,7 +30532,8 @@
         <v>749</v>
       </c>
       <c r="M469" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.879437242089</v>
       </c>
       <c r="N469" s="2" t="s">
         <v>750</v>
@@ -30121,7 +30589,8 @@
         <v>749</v>
       </c>
       <c r="M470" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.000705481216</v>
       </c>
       <c r="N470" s="2" t="s">
         <v>750</v>
@@ -30177,7 +30646,8 @@
         <v>749</v>
       </c>
       <c r="M471" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.647590477245</v>
       </c>
       <c r="N471" s="2" t="s">
         <v>750</v>
@@ -30233,7 +30703,8 @@
         <v>749</v>
       </c>
       <c r="M472" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.20120376283</v>
       </c>
       <c r="N472" s="2" t="s">
         <v>750</v>
@@ -30289,7 +30760,8 @@
         <v>749</v>
       </c>
       <c r="M473" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.388645276922</v>
       </c>
       <c r="N473" s="2" t="s">
         <v>750</v>
@@ -30345,7 +30817,8 @@
         <v>749</v>
       </c>
       <c r="M474" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.544992066461</v>
       </c>
       <c r="N474" s="2" t="s">
         <v>750</v>
@@ -30401,7 +30874,8 @@
         <v>201</v>
       </c>
       <c r="M475" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.165762215896</v>
       </c>
       <c r="N475" s="2" t="s">
         <v>473</v>
@@ -30457,7 +30931,8 @@
         <v>92</v>
       </c>
       <c r="M476" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.991324690141</v>
       </c>
       <c r="N476" s="2" t="s">
         <v>93</v>
@@ -30513,7 +30988,8 @@
         <v>92</v>
       </c>
       <c r="M477" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.260722747822</v>
       </c>
       <c r="N477" s="2" t="s">
         <v>93</v>
@@ -30569,7 +31045,8 @@
         <v>92</v>
       </c>
       <c r="M478" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.168090067935</v>
       </c>
       <c r="N478" s="2" t="s">
         <v>93</v>
@@ -30625,7 +31102,8 @@
         <v>92</v>
       </c>
       <c r="M479" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.838919795278</v>
       </c>
       <c r="N479" s="2" t="s">
         <v>93</v>
@@ -30681,7 +31159,8 @@
         <v>92</v>
       </c>
       <c r="M480" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.963424116984</v>
       </c>
       <c r="N480" s="2" t="s">
         <v>93</v>
@@ -30737,7 +31216,8 @@
         <v>92</v>
       </c>
       <c r="M481" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.003055190471</v>
       </c>
       <c r="N481" s="2" t="s">
         <v>93</v>
@@ -30793,7 +31273,8 @@
         <v>92</v>
       </c>
       <c r="M482" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.773428660505</v>
       </c>
       <c r="N482" s="2" t="s">
         <v>93</v>
@@ -30849,7 +31330,8 @@
         <v>92</v>
       </c>
       <c r="M483" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.110589843338</v>
       </c>
       <c r="N483" s="2" t="s">
         <v>93</v>
@@ -30905,7 +31387,8 @@
         <v>92</v>
       </c>
       <c r="M484" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.800058385343</v>
       </c>
       <c r="N484" s="2" t="s">
         <v>93</v>
@@ -30961,7 +31444,8 @@
         <v>92</v>
       </c>
       <c r="M485" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.340982682821</v>
       </c>
       <c r="N485" s="2" t="s">
         <v>93</v>
@@ -31017,7 +31501,8 @@
         <v>92</v>
       </c>
       <c r="M486" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.204251108567</v>
       </c>
       <c r="N486" s="2" t="s">
         <v>93</v>
@@ -31073,7 +31558,8 @@
         <v>92</v>
       </c>
       <c r="M487" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.335493736769</v>
       </c>
       <c r="N487" s="2" t="s">
         <v>93</v>
@@ -31129,7 +31615,8 @@
         <v>92</v>
       </c>
       <c r="M488" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.359096359956</v>
       </c>
       <c r="N488" s="2" t="s">
         <v>93</v>
@@ -31185,7 +31672,8 @@
         <v>92</v>
       </c>
       <c r="M489" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.131355096128</v>
       </c>
       <c r="N489" s="2" t="s">
         <v>93</v>
@@ -31241,7 +31729,8 @@
         <v>92</v>
       </c>
       <c r="M490" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.917134490031</v>
       </c>
       <c r="N490" s="2" t="s">
         <v>93</v>
@@ -31297,7 +31786,8 @@
         <v>92</v>
       </c>
       <c r="M491" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.894407737847</v>
       </c>
       <c r="N491" s="2" t="s">
         <v>93</v>
@@ -31353,7 +31843,8 @@
         <v>92</v>
       </c>
       <c r="M492" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.271244193485</v>
       </c>
       <c r="N492" s="2" t="s">
         <v>93</v>
@@ -31409,7 +31900,8 @@
         <v>92</v>
       </c>
       <c r="M493" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.6148988774</v>
       </c>
       <c r="N493" s="2" t="s">
         <v>93</v>
@@ -31465,7 +31957,8 @@
         <v>92</v>
       </c>
       <c r="M494" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.312432746046</v>
       </c>
       <c r="N494" s="2" t="s">
         <v>93</v>
@@ -31521,7 +32014,8 @@
         <v>92</v>
       </c>
       <c r="M495" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.80663379957</v>
       </c>
       <c r="N495" s="2" t="s">
         <v>93</v>
@@ -31577,7 +32071,8 @@
         <v>92</v>
       </c>
       <c r="M496" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.953301274298</v>
       </c>
       <c r="N496" s="2" t="s">
         <v>93</v>
@@ -31633,7 +32128,8 @@
         <v>67</v>
       </c>
       <c r="M497" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.870146714718</v>
       </c>
       <c r="N497" s="2" t="s">
         <v>68</v>
@@ -31689,7 +32185,8 @@
         <v>67</v>
       </c>
       <c r="M498" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.004340131367</v>
       </c>
       <c r="N498" s="2" t="s">
         <v>68</v>
@@ -31745,7 +32242,8 @@
         <v>67</v>
       </c>
       <c r="M499" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.370339654582</v>
       </c>
       <c r="N499" s="2" t="s">
         <v>68</v>
@@ -31801,7 +32299,8 @@
         <v>67</v>
       </c>
       <c r="M500" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.941832402954</v>
       </c>
       <c r="N500" s="2" t="s">
         <v>68</v>
@@ -31857,7 +32356,8 @@
         <v>67</v>
       </c>
       <c r="M501" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.31839031916</v>
       </c>
       <c r="N501" s="2" t="s">
         <v>68</v>
@@ -31913,7 +32413,8 @@
         <v>67</v>
       </c>
       <c r="M502" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.572145395723</v>
       </c>
       <c r="N502" s="2" t="s">
         <v>68</v>
@@ -31969,7 +32470,8 @@
         <v>67</v>
       </c>
       <c r="M503" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.120989405681</v>
       </c>
       <c r="N503" s="2" t="s">
         <v>68</v>
@@ -32025,7 +32527,8 @@
         <v>67</v>
       </c>
       <c r="M504" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.719126551121</v>
       </c>
       <c r="N504" s="2" t="s">
         <v>68</v>
@@ -32081,7 +32584,8 @@
         <v>67</v>
       </c>
       <c r="M505" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.307539665329</v>
       </c>
       <c r="N505" s="2" t="s">
         <v>68</v>
@@ -32137,7 +32641,8 @@
         <v>67</v>
       </c>
       <c r="M506" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.217266962616</v>
       </c>
       <c r="N506" s="2" t="s">
         <v>68</v>
@@ -32193,7 +32698,8 @@
         <v>67</v>
       </c>
       <c r="M507" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.322438592921</v>
       </c>
       <c r="N507" s="2" t="s">
         <v>68</v>
@@ -32249,7 +32755,8 @@
         <v>67</v>
       </c>
       <c r="M508" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.203587773292</v>
       </c>
       <c r="N508" s="2" t="s">
         <v>68</v>
@@ -32305,7 +32812,8 @@
         <v>796</v>
       </c>
       <c r="M509" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.889188766152</v>
       </c>
       <c r="N509" s="2" t="s">
         <v>797</v>
@@ -32361,7 +32869,8 @@
         <v>796</v>
       </c>
       <c r="M510" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.533305524114</v>
       </c>
       <c r="N510" s="2" t="s">
         <v>797</v>
@@ -32417,7 +32926,8 @@
         <v>796</v>
       </c>
       <c r="M511" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.322658951067</v>
       </c>
       <c r="N511" s="2" t="s">
         <v>797</v>
@@ -32473,7 +32983,8 @@
         <v>796</v>
       </c>
       <c r="M512" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.010549253006</v>
       </c>
       <c r="N512" s="2" t="s">
         <v>797</v>
@@ -32529,7 +33040,8 @@
         <v>796</v>
       </c>
       <c r="M513" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.971784264329</v>
       </c>
       <c r="N513" s="2" t="s">
         <v>797</v>
@@ -32585,7 +33097,8 @@
         <v>796</v>
       </c>
       <c r="M514" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.156643047812</v>
       </c>
       <c r="N514" s="2" t="s">
         <v>797</v>
@@ -32641,7 +33154,8 @@
         <v>796</v>
       </c>
       <c r="M515" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.570416101604</v>
       </c>
       <c r="N515" s="2" t="s">
         <v>797</v>
@@ -32697,7 +33211,8 @@
         <v>796</v>
       </c>
       <c r="M516" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.018147874311</v>
       </c>
       <c r="N516" s="2" t="s">
         <v>797</v>
@@ -32753,7 +33268,8 @@
         <v>796</v>
       </c>
       <c r="M517" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.92491112803</v>
       </c>
       <c r="N517" s="2" t="s">
         <v>797</v>
@@ -32808,8 +33324,9 @@
       <c r="L518" s="2">
         <v>0</v>
       </c>
-      <c r="M518" s="2">
-        <v>0</v>
+      <c r="M518" s="3">
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.365116024201</v>
       </c>
       <c r="N518" s="2">
         <v>0</v>
@@ -32859,7 +33376,8 @@
         <v>509</v>
       </c>
       <c r="M519" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.71775552597</v>
       </c>
       <c r="N519" s="2" t="s">
         <v>510</v>
@@ -32915,7 +33433,8 @@
         <v>509</v>
       </c>
       <c r="M520" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.85718753071</v>
       </c>
       <c r="N520" s="2" t="s">
         <v>510</v>
@@ -32971,7 +33490,8 @@
         <v>509</v>
       </c>
       <c r="M521" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.888866202877</v>
       </c>
       <c r="N521" s="2" t="s">
         <v>510</v>
@@ -33027,7 +33547,8 @@
         <v>476</v>
       </c>
       <c r="M522" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.567318617439</v>
       </c>
       <c r="N522" s="2" t="s">
         <v>477</v>
@@ -33083,7 +33604,8 @@
         <v>476</v>
       </c>
       <c r="M523" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.873509336998</v>
       </c>
       <c r="N523" s="2" t="s">
         <v>477</v>
@@ -33139,7 +33661,8 @@
         <v>476</v>
       </c>
       <c r="M524" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.050689942858</v>
       </c>
       <c r="N524" s="2" t="s">
         <v>477</v>
@@ -33195,7 +33718,8 @@
         <v>476</v>
       </c>
       <c r="M525" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.619417457696</v>
       </c>
       <c r="N525" s="2" t="s">
         <v>477</v>
@@ -33251,7 +33775,8 @@
         <v>466</v>
       </c>
       <c r="M526" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.735295051869</v>
       </c>
       <c r="N526" s="2" t="s">
         <v>467</v>
@@ -33307,7 +33832,8 @@
         <v>466</v>
       </c>
       <c r="M527" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.135333464066</v>
       </c>
       <c r="N527" s="2" t="s">
         <v>467</v>
@@ -33363,7 +33889,8 @@
         <v>466</v>
       </c>
       <c r="M528" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.466155723712</v>
       </c>
       <c r="N528" s="2" t="s">
         <v>467</v>
@@ -33419,7 +33946,8 @@
         <v>466</v>
       </c>
       <c r="M529" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.376671892613</v>
       </c>
       <c r="N529" s="2" t="s">
         <v>467</v>
@@ -33475,7 +34003,8 @@
         <v>466</v>
       </c>
       <c r="M530" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.795461151902</v>
       </c>
       <c r="N530" s="2" t="s">
         <v>467</v>
@@ -33531,7 +34060,8 @@
         <v>591</v>
       </c>
       <c r="M531" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.816829431635</v>
       </c>
       <c r="N531" s="2" t="s">
         <v>592</v>
@@ -33587,7 +34117,8 @@
         <v>591</v>
       </c>
       <c r="M532" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.930695017683</v>
       </c>
       <c r="N532" s="2" t="s">
         <v>592</v>
@@ -33643,7 +34174,8 @@
         <v>591</v>
       </c>
       <c r="M533" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.486858292439</v>
       </c>
       <c r="N533" s="2" t="s">
         <v>592</v>
@@ -33699,7 +34231,8 @@
         <v>591</v>
       </c>
       <c r="M534" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.880489059753</v>
       </c>
       <c r="N534" s="2" t="s">
         <v>592</v>
@@ -33755,7 +34288,8 @@
         <v>591</v>
       </c>
       <c r="M535" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.537386867414</v>
       </c>
       <c r="N535" s="2" t="s">
         <v>592</v>
@@ -33811,7 +34345,8 @@
         <v>591</v>
       </c>
       <c r="M536" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.619973672197</v>
       </c>
       <c r="N536" s="2" t="s">
         <v>592</v>
@@ -33867,7 +34402,8 @@
         <v>591</v>
       </c>
       <c r="M537" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.965735932718</v>
       </c>
       <c r="N537" s="2" t="s">
         <v>592</v>
@@ -33923,7 +34459,8 @@
         <v>591</v>
       </c>
       <c r="M538" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.115906417173</v>
       </c>
       <c r="N538" s="2" t="s">
         <v>592</v>
@@ -33979,7 +34516,8 @@
         <v>591</v>
       </c>
       <c r="M539" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.539782539854</v>
       </c>
       <c r="N539" s="2" t="s">
         <v>592</v>
@@ -34035,7 +34573,8 @@
         <v>591</v>
       </c>
       <c r="M540" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.30733819522</v>
       </c>
       <c r="N540" s="2" t="s">
         <v>592</v>
@@ -34091,7 +34630,8 @@
         <v>591</v>
       </c>
       <c r="M541" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.711419554966</v>
       </c>
       <c r="N541" s="2" t="s">
         <v>592</v>
@@ -34147,7 +34687,8 @@
         <v>591</v>
       </c>
       <c r="M542" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.121299939339</v>
       </c>
       <c r="N542" s="2" t="s">
         <v>592</v>
@@ -34203,7 +34744,8 @@
         <v>591</v>
       </c>
       <c r="M543" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.982293842368</v>
       </c>
       <c r="N543" s="2" t="s">
         <v>592</v>
@@ -34259,7 +34801,8 @@
         <v>591</v>
       </c>
       <c r="M544" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.459249418163</v>
       </c>
       <c r="N544" s="2" t="s">
         <v>592</v>
@@ -34315,7 +34858,8 @@
         <v>591</v>
       </c>
       <c r="M545" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.4636504706</v>
       </c>
       <c r="N545" s="2" t="s">
         <v>592</v>
@@ -34371,7 +34915,8 @@
         <v>591</v>
       </c>
       <c r="M546" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.629802799209</v>
       </c>
       <c r="N546" s="2" t="s">
         <v>592</v>
@@ -34427,7 +34972,8 @@
         <v>591</v>
       </c>
       <c r="M547" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.738718841778</v>
       </c>
       <c r="N547" s="2" t="s">
         <v>592</v>
@@ -34483,7 +35029,8 @@
         <v>716</v>
       </c>
       <c r="M548" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.59987640482</v>
       </c>
       <c r="N548" s="2" t="s">
         <v>717</v>
@@ -34539,7 +35086,8 @@
         <v>716</v>
       </c>
       <c r="M549" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.904410264062</v>
       </c>
       <c r="N549" s="2" t="s">
         <v>717</v>
@@ -34595,7 +35143,8 @@
         <v>716</v>
       </c>
       <c r="M550" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.241557142559</v>
       </c>
       <c r="N550" s="2" t="s">
         <v>717</v>
@@ -34651,7 +35200,8 @@
         <v>716</v>
       </c>
       <c r="M551" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.56463831666</v>
       </c>
       <c r="N551" s="2" t="s">
         <v>717</v>
@@ -34707,7 +35257,8 @@
         <v>716</v>
       </c>
       <c r="M552" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.449220425464</v>
       </c>
       <c r="N552" s="2" t="s">
         <v>717</v>
@@ -34763,7 +35314,8 @@
         <v>716</v>
       </c>
       <c r="M553" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.13223914666</v>
       </c>
       <c r="N553" s="2" t="s">
         <v>717</v>
@@ -34819,7 +35371,8 @@
         <v>716</v>
       </c>
       <c r="M554" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.581455814507</v>
       </c>
       <c r="N554" s="2" t="s">
         <v>717</v>
@@ -34875,7 +35428,8 @@
         <v>716</v>
       </c>
       <c r="M555" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.70989402078</v>
       </c>
       <c r="N555" s="2" t="s">
         <v>717</v>
@@ -34931,7 +35485,8 @@
         <v>716</v>
       </c>
       <c r="M556" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.62113671752</v>
       </c>
       <c r="N556" s="2" t="s">
         <v>717</v>
@@ -34987,7 +35542,8 @@
         <v>716</v>
       </c>
       <c r="M557" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.637416811718</v>
       </c>
       <c r="N557" s="2" t="s">
         <v>717</v>
@@ -35043,7 +35599,8 @@
         <v>716</v>
       </c>
       <c r="M558" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.358107497457</v>
       </c>
       <c r="N558" s="2" t="s">
         <v>717</v>
@@ -35099,7 +35656,8 @@
         <v>769</v>
       </c>
       <c r="M559" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.237443821687</v>
       </c>
       <c r="N559" s="2" t="s">
         <v>770</v>
@@ -35155,7 +35713,8 @@
         <v>769</v>
       </c>
       <c r="M560" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.95772674046</v>
       </c>
       <c r="N560" s="2" t="s">
         <v>770</v>
@@ -35211,7 +35770,8 @@
         <v>769</v>
       </c>
       <c r="M561" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.131693936157</v>
       </c>
       <c r="N561" s="2" t="s">
         <v>770</v>
@@ -35267,7 +35827,8 @@
         <v>769</v>
       </c>
       <c r="M562" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.026986633915</v>
       </c>
       <c r="N562" s="2" t="s">
         <v>770</v>
@@ -35323,7 +35884,8 @@
         <v>769</v>
       </c>
       <c r="M563" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.89186115624</v>
       </c>
       <c r="N563" s="2" t="s">
         <v>770</v>
@@ -35379,7 +35941,8 @@
         <v>769</v>
       </c>
       <c r="M564" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.217274324474</v>
       </c>
       <c r="N564" s="2" t="s">
         <v>770</v>
@@ -35435,7 +35998,8 @@
         <v>769</v>
       </c>
       <c r="M565" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.757948300241</v>
       </c>
       <c r="N565" s="2" t="s">
         <v>770</v>
@@ -35491,7 +36055,8 @@
         <v>769</v>
       </c>
       <c r="M566" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.658171519281</v>
       </c>
       <c r="N566" s="2" t="s">
         <v>770</v>
@@ -35547,7 +36112,8 @@
         <v>769</v>
       </c>
       <c r="M567" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.366650414828</v>
       </c>
       <c r="N567" s="2" t="s">
         <v>770</v>
@@ -35603,7 +36169,8 @@
         <v>769</v>
       </c>
       <c r="M568" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.146720488228</v>
       </c>
       <c r="N568" s="2" t="s">
         <v>770</v>
@@ -35659,7 +36226,8 @@
         <v>769</v>
       </c>
       <c r="M569" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.498597644895</v>
       </c>
       <c r="N569" s="2" t="s">
         <v>770</v>
@@ -35715,7 +36283,8 @@
         <v>769</v>
       </c>
       <c r="M570" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.40750768243</v>
       </c>
       <c r="N570" s="2" t="s">
         <v>770</v>
@@ -35771,7 +36340,8 @@
         <v>612</v>
       </c>
       <c r="M571" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.668141788898</v>
       </c>
       <c r="N571" s="2" t="s">
         <v>809</v>
@@ -35827,7 +36397,8 @@
         <v>612</v>
       </c>
       <c r="M572" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.662744454159</v>
       </c>
       <c r="N572" s="2" t="s">
         <v>809</v>
@@ -35883,7 +36454,8 @@
         <v>612</v>
       </c>
       <c r="M573" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.528737455956</v>
       </c>
       <c r="N573" s="2" t="s">
         <v>809</v>
@@ -35939,7 +36511,8 @@
         <v>612</v>
       </c>
       <c r="M574" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.306089402766</v>
       </c>
       <c r="N574" s="2" t="s">
         <v>809</v>
@@ -35995,7 +36568,8 @@
         <v>612</v>
       </c>
       <c r="M575" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.312789980933</v>
       </c>
       <c r="N575" s="2" t="s">
         <v>809</v>
@@ -36051,7 +36625,8 @@
         <v>612</v>
       </c>
       <c r="M576" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.843138972967</v>
       </c>
       <c r="N576" s="2" t="s">
         <v>809</v>
@@ -36107,7 +36682,8 @@
         <v>612</v>
       </c>
       <c r="M577" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.664397921159</v>
       </c>
       <c r="N577" s="2" t="s">
         <v>809</v>
@@ -36163,7 +36739,8 @@
         <v>612</v>
       </c>
       <c r="M578" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.545995786168</v>
       </c>
       <c r="N578" s="2" t="s">
         <v>809</v>
@@ -36219,7 +36796,8 @@
         <v>612</v>
       </c>
       <c r="M579" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.016874846566</v>
       </c>
       <c r="N579" s="2" t="s">
         <v>809</v>
@@ -36275,7 +36853,8 @@
         <v>612</v>
       </c>
       <c r="M580" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.856970620895</v>
       </c>
       <c r="N580" s="2" t="s">
         <v>809</v>
@@ -36331,7 +36910,8 @@
         <v>612</v>
       </c>
       <c r="M581" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.880049939209</v>
       </c>
       <c r="N581" s="2" t="s">
         <v>809</v>
@@ -36387,7 +36967,8 @@
         <v>612</v>
       </c>
       <c r="M582" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.503357201451</v>
       </c>
       <c r="N582" s="2" t="s">
         <v>809</v>
@@ -36443,7 +37024,8 @@
         <v>612</v>
       </c>
       <c r="M583" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.917173042901</v>
       </c>
       <c r="N583" s="2" t="s">
         <v>809</v>
@@ -36499,7 +37081,8 @@
         <v>612</v>
       </c>
       <c r="M584" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.117334978167</v>
       </c>
       <c r="N584" s="2" t="s">
         <v>809</v>
@@ -36555,7 +37138,8 @@
         <v>612</v>
       </c>
       <c r="M585" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.454191077399</v>
       </c>
       <c r="N585" s="2" t="s">
         <v>809</v>
@@ -36611,7 +37195,8 @@
         <v>612</v>
       </c>
       <c r="M586" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.970092382129</v>
       </c>
       <c r="N586" s="2" t="s">
         <v>809</v>
@@ -36667,7 +37252,8 @@
         <v>612</v>
       </c>
       <c r="M587" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.636373358859</v>
       </c>
       <c r="N587" s="2" t="s">
         <v>809</v>
@@ -36723,7 +37309,8 @@
         <v>612</v>
       </c>
       <c r="M588" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.543713544655</v>
       </c>
       <c r="N588" s="2" t="s">
         <v>809</v>
@@ -36779,7 +37366,8 @@
         <v>612</v>
       </c>
       <c r="M589" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.152166197113</v>
       </c>
       <c r="N589" s="2" t="s">
         <v>809</v>
@@ -36835,7 +37423,8 @@
         <v>612</v>
       </c>
       <c r="M590" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.882964134966</v>
       </c>
       <c r="N590" s="2" t="s">
         <v>809</v>
@@ -36891,7 +37480,8 @@
         <v>612</v>
       </c>
       <c r="M591" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.302814422095</v>
       </c>
       <c r="N591" s="2" t="s">
         <v>809</v>
@@ -36947,7 +37537,8 @@
         <v>612</v>
       </c>
       <c r="M592" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.602825407572</v>
       </c>
       <c r="N592" s="2" t="s">
         <v>809</v>
@@ -37003,7 +37594,8 @@
         <v>867</v>
       </c>
       <c r="M593" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.698778717226</v>
       </c>
       <c r="N593" s="2" t="s">
         <v>868</v>
@@ -37059,7 +37651,8 @@
         <v>867</v>
       </c>
       <c r="M594" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.298530035492</v>
       </c>
       <c r="N594" s="2" t="s">
         <v>868</v>
@@ -37115,7 +37708,8 @@
         <v>867</v>
       </c>
       <c r="M595" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.369773348721</v>
       </c>
       <c r="N595" s="2" t="s">
         <v>868</v>
@@ -37171,7 +37765,8 @@
         <v>867</v>
       </c>
       <c r="M596" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.342130970901</v>
       </c>
       <c r="N596" s="2" t="s">
         <v>868</v>
@@ -37227,7 +37822,8 @@
         <v>867</v>
       </c>
       <c r="M597" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.105381880967</v>
       </c>
       <c r="N597" s="2" t="s">
         <v>868</v>
@@ -37283,7 +37879,8 @@
         <v>867</v>
       </c>
       <c r="M598" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.933217587684</v>
       </c>
       <c r="N598" s="2" t="s">
         <v>868</v>
@@ -37339,7 +37936,8 @@
         <v>867</v>
       </c>
       <c r="M599" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.645476150261</v>
       </c>
       <c r="N599" s="2" t="s">
         <v>868</v>
@@ -37395,7 +37993,8 @@
         <v>867</v>
       </c>
       <c r="M600" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.386718639085</v>
       </c>
       <c r="N600" s="2" t="s">
         <v>868</v>
@@ -37451,7 +38050,8 @@
         <v>867</v>
       </c>
       <c r="M601" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.32370523319</v>
       </c>
       <c r="N601" s="2" t="s">
         <v>868</v>
@@ -37507,7 +38107,8 @@
         <v>867</v>
       </c>
       <c r="M602" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.713412647281</v>
       </c>
       <c r="N602" s="2" t="s">
         <v>868</v>
@@ -37563,7 +38164,8 @@
         <v>867</v>
       </c>
       <c r="M603" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.585038496123</v>
       </c>
       <c r="N603" s="2" t="s">
         <v>868</v>
@@ -37619,7 +38221,8 @@
         <v>33</v>
       </c>
       <c r="M604" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.753031158267</v>
       </c>
       <c r="N604" s="2" t="s">
         <v>34</v>
@@ -37675,7 +38278,8 @@
         <v>33</v>
       </c>
       <c r="M605" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.173395664504</v>
       </c>
       <c r="N605" s="2" t="s">
         <v>34</v>
@@ -37731,7 +38335,8 @@
         <v>33</v>
       </c>
       <c r="M606" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.366273637519</v>
       </c>
       <c r="N606" s="2" t="s">
         <v>34</v>
@@ -37787,7 +38392,8 @@
         <v>33</v>
       </c>
       <c r="M607" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.62420540383</v>
       </c>
       <c r="N607" s="2" t="s">
         <v>34</v>
@@ -37843,7 +38449,8 @@
         <v>33</v>
       </c>
       <c r="M608" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.95361097432</v>
       </c>
       <c r="N608" s="2" t="s">
         <v>34</v>
@@ -37899,7 +38506,8 @@
         <v>33</v>
       </c>
       <c r="M609" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.439005368913</v>
       </c>
       <c r="N609" s="2" t="s">
         <v>34</v>
@@ -37955,7 +38563,8 @@
         <v>33</v>
       </c>
       <c r="M610" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.344940267896</v>
       </c>
       <c r="N610" s="2" t="s">
         <v>34</v>
@@ -38011,7 +38620,8 @@
         <v>33</v>
       </c>
       <c r="M611" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.07135807578</v>
       </c>
       <c r="N611" s="2" t="s">
         <v>34</v>
@@ -38067,7 +38677,8 @@
         <v>33</v>
       </c>
       <c r="M612" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.183040282791</v>
       </c>
       <c r="N612" s="2" t="s">
         <v>34</v>
@@ -38123,7 +38734,8 @@
         <v>33</v>
       </c>
       <c r="M613" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.056315935784</v>
       </c>
       <c r="N613" s="2" t="s">
         <v>34</v>
@@ -38179,7 +38791,8 @@
         <v>33</v>
       </c>
       <c r="M614" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.024965044984</v>
       </c>
       <c r="N614" s="2" t="s">
         <v>34</v>
@@ -38235,7 +38848,8 @@
         <v>33</v>
       </c>
       <c r="M615" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.58129631765</v>
       </c>
       <c r="N615" s="2" t="s">
         <v>34</v>
@@ -38291,7 +38905,8 @@
         <v>33</v>
       </c>
       <c r="M616" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.514594676766</v>
       </c>
       <c r="N616" s="2" t="s">
         <v>34</v>
@@ -38347,7 +38962,8 @@
         <v>33</v>
       </c>
       <c r="M617" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.751779360478</v>
       </c>
       <c r="N617" s="2" t="s">
         <v>34</v>
@@ -38403,7 +39019,8 @@
         <v>33</v>
       </c>
       <c r="M618" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.521436237555</v>
       </c>
       <c r="N618" s="2" t="s">
         <v>34</v>
@@ -38459,7 +39076,8 @@
         <v>33</v>
       </c>
       <c r="M619" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.22857929649</v>
       </c>
       <c r="N619" s="2" t="s">
         <v>34</v>
@@ -38515,7 +39133,8 @@
         <v>148</v>
       </c>
       <c r="M620" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.762273463908</v>
       </c>
       <c r="N620" s="2" t="s">
         <v>149</v>
@@ -38571,7 +39190,8 @@
         <v>148</v>
       </c>
       <c r="M621" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.027800526499</v>
       </c>
       <c r="N621" s="2" t="s">
         <v>149</v>
@@ -38627,7 +39247,8 @@
         <v>148</v>
       </c>
       <c r="M622" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.798147067282</v>
       </c>
       <c r="N622" s="2" t="s">
         <v>149</v>
@@ -38683,7 +39304,8 @@
         <v>148</v>
       </c>
       <c r="M623" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.405011072973</v>
       </c>
       <c r="N623" s="2" t="s">
         <v>149</v>
@@ -38739,7 +39361,8 @@
         <v>148</v>
       </c>
       <c r="M624" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.930466982267</v>
       </c>
       <c r="N624" s="2" t="s">
         <v>149</v>
@@ -38795,7 +39418,8 @@
         <v>148</v>
       </c>
       <c r="M625" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.557347840913</v>
       </c>
       <c r="N625" s="2" t="s">
         <v>149</v>
@@ -38851,7 +39475,8 @@
         <v>148</v>
       </c>
       <c r="M626" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.57326253903</v>
       </c>
       <c r="N626" s="2" t="s">
         <v>149</v>
@@ -38907,7 +39532,8 @@
         <v>148</v>
       </c>
       <c r="M627" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.251370997707</v>
       </c>
       <c r="N627" s="2" t="s">
         <v>149</v>
@@ -38963,7 +39589,8 @@
         <v>148</v>
       </c>
       <c r="M628" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.361994880455</v>
       </c>
       <c r="N628" s="2" t="s">
         <v>149</v>
@@ -39019,7 +39646,8 @@
         <v>148</v>
       </c>
       <c r="M629" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.066473095292</v>
       </c>
       <c r="N629" s="2" t="s">
         <v>149</v>
@@ -39075,7 +39703,8 @@
         <v>148</v>
       </c>
       <c r="M630" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.872213140748</v>
       </c>
       <c r="N630" s="2" t="s">
         <v>149</v>
@@ -39131,7 +39760,8 @@
         <v>148</v>
       </c>
       <c r="M631" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.976904039089</v>
       </c>
       <c r="N631" s="2" t="s">
         <v>149</v>
@@ -39187,7 +39817,8 @@
         <v>148</v>
       </c>
       <c r="M632" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.640448424652</v>
       </c>
       <c r="N632" s="2" t="s">
         <v>149</v>
@@ -39243,7 +39874,8 @@
         <v>148</v>
       </c>
       <c r="M633" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.494836996259</v>
       </c>
       <c r="N633" s="2" t="s">
         <v>149</v>
@@ -39299,7 +39931,8 @@
         <v>148</v>
       </c>
       <c r="M634" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.006150203619</v>
       </c>
       <c r="N634" s="2" t="s">
         <v>149</v>
@@ -39355,7 +39988,8 @@
         <v>148</v>
       </c>
       <c r="M635" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.066543032088</v>
       </c>
       <c r="N635" s="2" t="s">
         <v>149</v>
@@ -39411,7 +40045,8 @@
         <v>148</v>
       </c>
       <c r="M636" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.284669297485</v>
       </c>
       <c r="N636" s="2" t="s">
         <v>149</v>
@@ -39467,7 +40102,8 @@
         <v>148</v>
       </c>
       <c r="M637" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.105856603048</v>
       </c>
       <c r="N637" s="2" t="s">
         <v>149</v>
@@ -39523,7 +40159,8 @@
         <v>148</v>
       </c>
       <c r="M638" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.339509629521</v>
       </c>
       <c r="N638" s="2" t="s">
         <v>149</v>
@@ -39579,7 +40216,8 @@
         <v>148</v>
       </c>
       <c r="M639" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.078574684776</v>
       </c>
       <c r="N639" s="2" t="s">
         <v>149</v>
@@ -39635,7 +40273,8 @@
         <v>148</v>
       </c>
       <c r="M640" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.031131809315</v>
       </c>
       <c r="N640" s="2" t="s">
         <v>149</v>
@@ -39691,7 +40330,8 @@
         <v>53</v>
       </c>
       <c r="M641" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.440042864233</v>
       </c>
       <c r="N641" s="2" t="s">
         <v>54</v>
@@ -39747,7 +40387,8 @@
         <v>53</v>
       </c>
       <c r="M642" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.39938827874</v>
       </c>
       <c r="N642" s="2" t="s">
         <v>54</v>
@@ -39803,7 +40444,8 @@
         <v>53</v>
       </c>
       <c r="M643" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.490851315662</v>
       </c>
       <c r="N643" s="2" t="s">
         <v>54</v>
@@ -39859,7 +40501,8 @@
         <v>53</v>
       </c>
       <c r="M644" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.905857530197</v>
       </c>
       <c r="N644" s="2" t="s">
         <v>54</v>
@@ -39915,7 +40558,8 @@
         <v>53</v>
       </c>
       <c r="M645" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.816530497017</v>
       </c>
       <c r="N645" s="2" t="s">
         <v>54</v>
@@ -39971,7 +40615,8 @@
         <v>53</v>
       </c>
       <c r="M646" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.142005938658</v>
       </c>
       <c r="N646" s="2" t="s">
         <v>54</v>
@@ -40027,7 +40672,8 @@
         <v>53</v>
       </c>
       <c r="M647" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.777549502091</v>
       </c>
       <c r="N647" s="2" t="s">
         <v>54</v>
@@ -40083,7 +40729,8 @@
         <v>53</v>
       </c>
       <c r="M648" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.493662302761</v>
       </c>
       <c r="N648" s="2" t="s">
         <v>54</v>
@@ -40139,7 +40786,8 @@
         <v>53</v>
       </c>
       <c r="M649" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.852083356847</v>
       </c>
       <c r="N649" s="2" t="s">
         <v>54</v>
@@ -40195,7 +40843,8 @@
         <v>53</v>
       </c>
       <c r="M650" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.262403893452</v>
       </c>
       <c r="N650" s="2" t="s">
         <v>54</v>
@@ -40251,7 +40900,8 @@
         <v>53</v>
       </c>
       <c r="M651" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.038675943644</v>
       </c>
       <c r="N651" s="2" t="s">
         <v>54</v>
@@ -40307,7 +40957,8 @@
         <v>573</v>
       </c>
       <c r="M652" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.664267068074</v>
       </c>
       <c r="N652" s="2" t="s">
         <v>574</v>
@@ -40363,7 +41014,8 @@
         <v>573</v>
       </c>
       <c r="M653" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.805769000799</v>
       </c>
       <c r="N653" s="2" t="s">
         <v>574</v>
@@ -40419,7 +41071,8 @@
         <v>573</v>
       </c>
       <c r="M654" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.63870608779</v>
       </c>
       <c r="N654" s="2" t="s">
         <v>574</v>
@@ -40475,7 +41128,8 @@
         <v>573</v>
       </c>
       <c r="M655" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.53764271531</v>
       </c>
       <c r="N655" s="2" t="s">
         <v>574</v>
@@ -40531,7 +41185,8 @@
         <v>573</v>
       </c>
       <c r="M656" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.863673728018</v>
       </c>
       <c r="N656" s="2" t="s">
         <v>574</v>
@@ -40587,7 +41242,8 @@
         <v>573</v>
       </c>
       <c r="M657" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.870476445329</v>
       </c>
       <c r="N657" s="2" t="s">
         <v>574</v>
@@ -40643,7 +41299,8 @@
         <v>573</v>
       </c>
       <c r="M658" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.760867463687</v>
       </c>
       <c r="N658" s="2" t="s">
         <v>574</v>
@@ -40699,7 +41356,8 @@
         <v>573</v>
       </c>
       <c r="M659" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.249430972348</v>
       </c>
       <c r="N659" s="2" t="s">
         <v>574</v>
@@ -40755,7 +41413,8 @@
         <v>573</v>
       </c>
       <c r="M660" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.228721513318</v>
       </c>
       <c r="N660" s="2" t="s">
         <v>574</v>
@@ -40811,7 +41470,8 @@
         <v>573</v>
       </c>
       <c r="M661" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.119305170563</v>
       </c>
       <c r="N661" s="2" t="s">
         <v>574</v>
@@ -40867,7 +41527,8 @@
         <v>573</v>
       </c>
       <c r="M662" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.685301952886</v>
       </c>
       <c r="N662" s="2" t="s">
         <v>574</v>
@@ -40923,7 +41584,8 @@
         <v>573</v>
       </c>
       <c r="M663" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.418509811192</v>
       </c>
       <c r="N663" s="2" t="s">
         <v>574</v>
@@ -40979,7 +41641,8 @@
         <v>573</v>
       </c>
       <c r="M664" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.772603201302</v>
       </c>
       <c r="N664" s="2" t="s">
         <v>574</v>
@@ -41035,7 +41698,8 @@
         <v>573</v>
       </c>
       <c r="M665" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.994898120436</v>
       </c>
       <c r="N665" s="2" t="s">
         <v>574</v>
@@ -41091,7 +41755,8 @@
         <v>444</v>
       </c>
       <c r="M666" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.236504908033</v>
       </c>
       <c r="N666" s="2" t="s">
         <v>445</v>
@@ -41147,7 +41812,8 @@
         <v>444</v>
       </c>
       <c r="M667" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.844658522648</v>
       </c>
       <c r="N667" s="2" t="s">
         <v>445</v>
@@ -41203,7 +41869,8 @@
         <v>444</v>
       </c>
       <c r="M668" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.596028296139</v>
       </c>
       <c r="N668" s="2" t="s">
         <v>445</v>
@@ -41259,7 +41926,8 @@
         <v>444</v>
       </c>
       <c r="M669" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.129136283678</v>
       </c>
       <c r="N669" s="2" t="s">
         <v>445</v>
@@ -41315,7 +41983,8 @@
         <v>444</v>
       </c>
       <c r="M670" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.984849207191</v>
       </c>
       <c r="N670" s="2" t="s">
         <v>445</v>
@@ -41371,7 +42040,8 @@
         <v>444</v>
       </c>
       <c r="M671" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.16672248688</v>
       </c>
       <c r="N671" s="2" t="s">
         <v>445</v>
@@ -41427,7 +42097,8 @@
         <v>444</v>
       </c>
       <c r="M672" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.570646920489</v>
       </c>
       <c r="N672" s="2" t="s">
         <v>445</v>
@@ -41483,7 +42154,8 @@
         <v>444</v>
       </c>
       <c r="M673" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.003887196573</v>
       </c>
       <c r="N673" s="2" t="s">
         <v>445</v>
@@ -41539,7 +42211,8 @@
         <v>444</v>
       </c>
       <c r="M674" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.188330128607</v>
       </c>
       <c r="N674" s="2" t="s">
         <v>445</v>
@@ -41595,7 +42268,8 @@
         <v>444</v>
       </c>
       <c r="M675" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45874.741620426212</v>
       </c>
       <c r="N675" s="2" t="s">
         <v>445</v>
@@ -41651,7 +42325,8 @@
         <v>444</v>
       </c>
       <c r="M676" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.966165860453</v>
       </c>
       <c r="N676" s="2" t="s">
         <v>445</v>
@@ -41707,7 +42382,8 @@
         <v>260</v>
       </c>
       <c r="M677" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.372897012057</v>
       </c>
       <c r="N677" s="2" t="s">
         <v>261</v>
@@ -41763,7 +42439,8 @@
         <v>260</v>
       </c>
       <c r="M678" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.487792361593</v>
       </c>
       <c r="N678" s="2" t="s">
         <v>261</v>
@@ -41819,7 +42496,8 @@
         <v>260</v>
       </c>
       <c r="M679" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.192910674836</v>
       </c>
       <c r="N679" s="2" t="s">
         <v>261</v>
@@ -41875,7 +42553,8 @@
         <v>260</v>
       </c>
       <c r="M680" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.435974566812</v>
       </c>
       <c r="N680" s="2" t="s">
         <v>261</v>
@@ -41931,7 +42610,8 @@
         <v>260</v>
       </c>
       <c r="M681" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.625306559741</v>
       </c>
       <c r="N681" s="2" t="s">
         <v>261</v>
@@ -41987,7 +42667,8 @@
         <v>260</v>
       </c>
       <c r="M682" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.572564918839</v>
       </c>
       <c r="N682" s="2" t="s">
         <v>261</v>
@@ -42043,7 +42724,8 @@
         <v>260</v>
       </c>
       <c r="M683" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.61360621381</v>
       </c>
       <c r="N683" s="2" t="s">
         <v>261</v>
@@ -42099,7 +42781,8 @@
         <v>260</v>
       </c>
       <c r="M684" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45880.727013658143</v>
       </c>
       <c r="N684" s="2" t="s">
         <v>261</v>
@@ -42155,7 +42838,8 @@
         <v>273</v>
       </c>
       <c r="M685" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.37647632655</v>
       </c>
       <c r="N685" s="2" t="s">
         <v>274</v>
@@ -42211,7 +42895,8 @@
         <v>273</v>
       </c>
       <c r="M686" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.900976591132</v>
       </c>
       <c r="N686" s="2" t="s">
         <v>274</v>
@@ -42267,7 +42952,8 @@
         <v>273</v>
       </c>
       <c r="M687" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45875.885028263743</v>
       </c>
       <c r="N687" s="2" t="s">
         <v>274</v>
@@ -42323,7 +43009,8 @@
         <v>273</v>
       </c>
       <c r="M688" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.028400977055</v>
       </c>
       <c r="N688" s="2" t="s">
         <v>274</v>
@@ -42379,7 +43066,8 @@
         <v>273</v>
       </c>
       <c r="M689" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45884.139460809129</v>
       </c>
       <c r="N689" s="2" t="s">
         <v>274</v>
@@ -42435,7 +43123,8 @@
         <v>273</v>
       </c>
       <c r="M690" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.491163434555</v>
       </c>
       <c r="N690" s="2" t="s">
         <v>274</v>
@@ -42491,7 +43180,8 @@
         <v>273</v>
       </c>
       <c r="M691" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45878.84226522439</v>
       </c>
       <c r="N691" s="2" t="s">
         <v>274</v>
@@ -42547,7 +43237,8 @@
         <v>273</v>
       </c>
       <c r="M692" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.434580714114</v>
       </c>
       <c r="N692" s="2" t="s">
         <v>274</v>
@@ -42603,7 +43294,8 @@
         <v>273</v>
       </c>
       <c r="M693" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.547800771135</v>
       </c>
       <c r="N693" s="2" t="s">
         <v>274</v>
@@ -42659,7 +43351,8 @@
         <v>273</v>
       </c>
       <c r="M694" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.196419545136</v>
       </c>
       <c r="N694" s="2" t="s">
         <v>274</v>
@@ -42715,7 +43408,8 @@
         <v>273</v>
       </c>
       <c r="M695" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.132168642864</v>
       </c>
       <c r="N695" s="2" t="s">
         <v>274</v>
@@ -42771,7 +43465,8 @@
         <v>273</v>
       </c>
       <c r="M696" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.518307878978</v>
       </c>
       <c r="N696" s="2" t="s">
         <v>274</v>
@@ -42827,7 +43522,8 @@
         <v>181</v>
       </c>
       <c r="M697" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.200395608888</v>
       </c>
       <c r="N697" s="2" t="s">
         <v>182</v>
@@ -42883,7 +43579,8 @@
         <v>181</v>
       </c>
       <c r="M698" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45873.429369573154</v>
       </c>
       <c r="N698" s="2" t="s">
         <v>182</v>
@@ -42939,7 +43636,8 @@
         <v>181</v>
       </c>
       <c r="M699" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.803377603217</v>
       </c>
       <c r="N699" s="2" t="s">
         <v>182</v>
@@ -42995,7 +43693,8 @@
         <v>181</v>
       </c>
       <c r="M700" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45877.5167131407</v>
       </c>
       <c r="N700" s="2" t="s">
         <v>182</v>
@@ -43051,7 +43750,8 @@
         <v>181</v>
       </c>
       <c r="M701" s="3">
-        <v>47625.229409722226</v>
+        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.148723371371</v>
       </c>
       <c r="N701" s="2" t="s">
         <v>182</v>
@@ -45139,8 +45839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723F9AEC-0A63-4794-9C16-93C59AE1C0EB}">
   <dimension ref="A1:R79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -45249,10 +45949,12 @@
         <v>1000</v>
       </c>
       <c r="M2" s="3">
-        <v>45797.250416666669</v>
+        <f ca="1">DATE(2025,7,25) + RANDBETWEEN(-5,5) + RAND()</f>
+        <v>45865.05939698757</v>
       </c>
       <c r="N2" s="3">
-        <v>45797.251620370371</v>
+        <f ca="1">DATE(2025,8,5) + RANDBETWEEN(-5,5) + RAND()</f>
+        <v>45879.642293674282</v>
       </c>
       <c r="O2" s="2">
         <v>85331</v>
@@ -45299,10 +46001,12 @@
         <v>0</v>
       </c>
       <c r="M3" s="3">
-        <v>45797.423611111109</v>
+        <f t="shared" ref="M3:M66" ca="1" si="0">DATE(2025,7,25) + RANDBETWEEN(-5,5) + RAND()</f>
+        <v>45865.084374449914</v>
       </c>
       <c r="N3" s="3">
-        <v>45797.42763888889</v>
+        <f t="shared" ref="N3:N66" ca="1" si="1">DATE(2025,8,5) + RANDBETWEEN(-5,5) + RAND()</f>
+        <v>45869.400928326068</v>
       </c>
       <c r="O3" s="2">
         <v>9173</v>
@@ -45349,10 +46053,12 @@
         <v>0</v>
       </c>
       <c r="M4" s="3">
-        <v>45797.42765046296</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45864.150231339612</v>
       </c>
       <c r="N4" s="3">
-        <v>45797.43167824074</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45877.187693792119</v>
       </c>
       <c r="O4" s="2">
         <v>9173</v>
@@ -45399,10 +46105,12 @@
         <v>0</v>
       </c>
       <c r="M5" s="3">
-        <v>45797.431689814817</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45868.155196364969</v>
       </c>
       <c r="N5" s="3">
-        <v>45797.435717592591</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45874.194235066854</v>
       </c>
       <c r="O5" s="2">
         <v>9173</v>
@@ -45449,10 +46157,12 @@
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <v>45797.439768518518</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45867.325865803083</v>
       </c>
       <c r="N6" s="3">
-        <v>45797.443796296298</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45869.384719243149</v>
       </c>
       <c r="O6" s="2">
         <v>9173</v>
@@ -45500,10 +46210,12 @@
         <v>0</v>
       </c>
       <c r="M7" s="3">
-        <v>45797.443807870368</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45868.988267618166</v>
       </c>
       <c r="N7" s="3">
-        <v>45797.447835648149</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45877.508806664388</v>
       </c>
       <c r="O7" s="2">
         <v>9173</v>
@@ -45550,10 +46262,12 @@
         <v>1000</v>
       </c>
       <c r="M8" s="3">
-        <v>45798.047627314816</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45859.646840599133</v>
       </c>
       <c r="N8" s="3">
-        <v>45798.048831018517</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45879.035413273559</v>
       </c>
       <c r="O8" s="2">
         <v>85331</v>
@@ -45600,10 +46314,12 @@
         <v>2000</v>
       </c>
       <c r="M9" s="3">
-        <v>45799.966921296298</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45867.053679207413</v>
       </c>
       <c r="N9" s="3">
-        <v>45799.974953703706</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45869.960725723009</v>
       </c>
       <c r="O9" s="2">
         <v>84971</v>
@@ -45650,10 +46366,12 @@
         <v>5000</v>
       </c>
       <c r="M10" s="3">
-        <v>45800.037453703706</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45865.040412249764</v>
       </c>
       <c r="N10" s="3">
-        <v>45800.059282407405</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45875.354437073889</v>
       </c>
       <c r="O10" s="2">
         <v>9148</v>
@@ -45697,10 +46415,12 @@
         <v>4000</v>
       </c>
       <c r="M11" s="3">
-        <v>45800.037453703706</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45868.86983447813</v>
       </c>
       <c r="N11" s="3">
-        <v>45800.037453703706</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45870.50510577255</v>
       </c>
       <c r="O11" s="2">
         <v>84971</v>
@@ -45744,10 +46464,12 @@
         <v>3000</v>
       </c>
       <c r="M12" s="3">
-        <v>45800.037453703706</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45866.803321640531</v>
       </c>
       <c r="N12" s="3">
-        <v>45800.037453703706</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45879.371828901662</v>
       </c>
       <c r="O12" s="2">
         <v>84971</v>
@@ -45794,10 +46516,12 @@
         <v>0</v>
       </c>
       <c r="M13" s="3">
-        <v>45800.040972222225</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45861.254208287588</v>
       </c>
       <c r="N13" s="3">
-        <v>45800.043749999997</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45877.009523707478</v>
       </c>
       <c r="O13" s="2">
         <v>85426</v>
@@ -45844,10 +46568,12 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>45800.043761574074</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45862.485199122151</v>
       </c>
       <c r="N14" s="3">
-        <v>45800.046539351853</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45872.316967314189</v>
       </c>
       <c r="O14" s="2">
         <v>85426</v>
@@ -45894,10 +46620,12 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>45800.046550925923</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45868.445438813498</v>
       </c>
       <c r="N15" s="3">
-        <v>45800.049328703702</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45869.367062628728</v>
       </c>
       <c r="O15" s="2">
         <v>85426</v>
@@ -45944,10 +46672,12 @@
         <v>0</v>
       </c>
       <c r="M16" s="3">
-        <v>45800.049340277779</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45863.667159652017</v>
       </c>
       <c r="N16" s="3">
-        <v>45800.052118055559</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45872.022076436158</v>
       </c>
       <c r="O16" s="2">
         <v>85426</v>
@@ -45994,10 +46724,12 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
-        <v>45800.052129629628</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45867.802607359394</v>
       </c>
       <c r="N17" s="3">
-        <v>45800.054907407408</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45869.857794705582</v>
       </c>
       <c r="O17" s="2">
         <v>85426</v>
@@ -46044,10 +46776,12 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>45800.054918981485</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45861.11232996601</v>
       </c>
       <c r="N18" s="3">
-        <v>45800.057696759257</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45877.538049314506</v>
       </c>
       <c r="O18" s="2">
         <v>85426</v>
@@ -46094,10 +46828,12 @@
         <v>0</v>
       </c>
       <c r="M19" s="3">
-        <v>45800.057708333334</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45863.530047562665</v>
       </c>
       <c r="N19" s="3">
-        <v>45800.060486111113</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45874.140227005766</v>
       </c>
       <c r="O19" s="2">
         <v>85426</v>
@@ -46144,10 +46880,12 @@
         <v>5000</v>
       </c>
       <c r="M20" s="3">
-        <v>45800.059293981481</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45864.779325813142</v>
       </c>
       <c r="N20" s="3">
-        <v>45800.070208333331</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45873.938950438518</v>
       </c>
       <c r="O20" s="2">
         <v>9148</v>
@@ -46194,10 +46932,12 @@
         <v>0</v>
       </c>
       <c r="M21" s="3">
-        <v>45800.060497685183</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45866.690972335244</v>
       </c>
       <c r="N21" s="3">
-        <v>45800.063275462962</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45876.028192702164</v>
       </c>
       <c r="O21" s="2">
         <v>85426</v>
@@ -46244,10 +46984,12 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>45800.063287037039</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45863.264884608958</v>
       </c>
       <c r="N22" s="3">
-        <v>45800.066064814811</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45876.335857723054</v>
       </c>
       <c r="O22" s="2">
         <v>85426</v>
@@ -46294,10 +47036,12 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>45800.066076388888</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45862.542711142851</v>
       </c>
       <c r="N23" s="3">
-        <v>45800.068854166668</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45871.732934976069</v>
       </c>
       <c r="O23" s="2">
         <v>85426</v>
@@ -46344,10 +47088,12 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>45800.068865740737</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45864.68775072322</v>
       </c>
       <c r="N24" s="3">
-        <v>45800.071643518517</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45879.570436019989</v>
       </c>
       <c r="O24" s="2">
         <v>85426</v>
@@ -46394,10 +47140,12 @@
         <v>6000</v>
       </c>
       <c r="M25" s="3">
-        <v>45800.070208333331</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45867.646693745286</v>
       </c>
       <c r="N25" s="3">
-        <v>45800.102349537039</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45873.044742107675</v>
       </c>
       <c r="O25" s="2">
         <v>84971</v>
@@ -46444,10 +47192,12 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>45800.071655092594</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45865.518557766656</v>
       </c>
       <c r="N26" s="3">
-        <v>45800.074432870373</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45876.803797359091</v>
       </c>
       <c r="O26" s="2">
         <v>85426</v>
@@ -46494,10 +47244,12 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>45800.074444444443</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45865.756816653025</v>
       </c>
       <c r="N27" s="3">
-        <v>45800.077222222222</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45875.431727876705</v>
       </c>
       <c r="O27" s="2">
         <v>85426</v>
@@ -46544,10 +47296,12 @@
         <v>0</v>
       </c>
       <c r="M28" s="3">
-        <v>45800.077233796299</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45858.25272740292</v>
       </c>
       <c r="N28" s="3">
-        <v>45800.080011574071</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45873.6815309913</v>
       </c>
       <c r="O28" s="2">
         <v>85426</v>
@@ -46594,10 +47348,12 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
-        <v>45800.080023148148</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45861.357824133462</v>
       </c>
       <c r="N29" s="3">
-        <v>45800.082800925928</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45869.4549223621</v>
       </c>
       <c r="O29" s="2">
         <v>85426</v>
@@ -46644,10 +47400,12 @@
         <v>0</v>
       </c>
       <c r="M30" s="3">
-        <v>45800.085416666669</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45861.303591551346</v>
       </c>
       <c r="N30" s="3">
-        <v>45800.087939814817</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45870.138259172723</v>
       </c>
       <c r="O30" s="2">
         <v>85426</v>
@@ -46694,10 +47452,12 @@
         <v>0</v>
       </c>
       <c r="M31" s="3">
-        <v>45800.087951388887</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45866.54296707613</v>
       </c>
       <c r="N31" s="3">
-        <v>45800.090474537035</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45870.343072289412</v>
       </c>
       <c r="O31" s="2">
         <v>85426</v>
@@ -46744,10 +47504,12 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>45800.090486111112</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45868.026702126823</v>
       </c>
       <c r="N32" s="3">
-        <v>45800.093009259261</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45875.928078936813</v>
       </c>
       <c r="O32" s="2">
         <v>85426</v>
@@ -46794,10 +47556,12 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>45800.09302083333</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45861.28819213844</v>
       </c>
       <c r="N33" s="3">
-        <v>45800.095543981479</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45875.809987898429</v>
       </c>
       <c r="O33" s="2">
         <v>85426</v>
@@ -46844,10 +47608,12 @@
         <v>0</v>
       </c>
       <c r="M34" s="3">
-        <v>45800.095555555556</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45861.336754636875</v>
       </c>
       <c r="N34" s="3">
-        <v>45800.098078703704</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45873.991482028418</v>
       </c>
       <c r="O34" s="2">
         <v>85426</v>
@@ -46894,10 +47660,12 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>45800.098090277781</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45864.994672188077</v>
       </c>
       <c r="N35" s="3">
-        <v>45800.100613425922</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45871.391022093128</v>
       </c>
       <c r="O35" s="2">
         <v>85426</v>
@@ -46944,10 +47712,12 @@
         <v>0</v>
       </c>
       <c r="M36" s="3">
-        <v>45800.100624999999</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45862.866225739715</v>
       </c>
       <c r="N36" s="3">
-        <v>45800.103148148148</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45878.252758172632</v>
       </c>
       <c r="O36" s="2">
         <v>85426</v>
@@ -46994,10 +47764,12 @@
         <v>6000</v>
       </c>
       <c r="M37" s="3">
-        <v>45800.102361111109</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45866.507965766694</v>
       </c>
       <c r="N37" s="3">
-        <v>45800.134502314817</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45875.79459225251</v>
       </c>
       <c r="O37" s="2">
         <v>84971</v>
@@ -47044,10 +47816,12 @@
         <v>0</v>
       </c>
       <c r="M38" s="3">
-        <v>45800.103159722225</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45868.370199883291</v>
       </c>
       <c r="N38" s="3">
-        <v>45800.105682870373</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45878.700689597994</v>
       </c>
       <c r="O38" s="2">
         <v>85426</v>
@@ -47094,10 +47868,12 @@
         <v>0</v>
       </c>
       <c r="M39" s="3">
-        <v>45800.113194444442</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45862.014253771384</v>
       </c>
       <c r="N39" s="3">
-        <v>45800.118958333333</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45871.687932773464</v>
       </c>
       <c r="O39" s="2">
         <v>86217</v>
@@ -47144,10 +47920,12 @@
         <v>0</v>
       </c>
       <c r="M40" s="3">
-        <v>45800.118969907409</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45861.863940593932</v>
       </c>
       <c r="N40" s="3">
-        <v>45800.1247337963</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45874.160449505405</v>
       </c>
       <c r="O40" s="2">
         <v>86217</v>
@@ -47194,10 +47972,12 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>45800.124745370369</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45858.707768155582</v>
       </c>
       <c r="N41" s="3">
-        <v>45800.130509259259</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45870.014131812524</v>
       </c>
       <c r="O41" s="2">
         <v>86217</v>
@@ -47244,10 +48024,12 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
-        <v>45800.130520833336</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45860.440655849605</v>
       </c>
       <c r="N42" s="3">
-        <v>45800.136284722219</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45877.581848217582</v>
       </c>
       <c r="O42" s="2">
         <v>86217</v>
@@ -47294,10 +48076,12 @@
         <v>6000</v>
       </c>
       <c r="M43" s="3">
-        <v>45800.134513888886</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45867.925317020512</v>
       </c>
       <c r="N43" s="3">
-        <v>45800.142523148148</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45877.674705846039</v>
       </c>
       <c r="O43" s="2">
         <v>84971</v>
@@ -47344,10 +48128,12 @@
         <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>45800.136284722219</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45858.071250615394</v>
       </c>
       <c r="N44" s="3">
-        <v>45800.138206018521</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45876.343496839945</v>
       </c>
       <c r="O44" s="2">
         <v>86217</v>
@@ -47394,10 +48180,12 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>45800.13821759259</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45863.983160539232</v>
       </c>
       <c r="N45" s="3">
-        <v>45800.140138888892</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45879.487474949485</v>
       </c>
       <c r="O45" s="2">
         <v>86217</v>
@@ -47444,10 +48232,12 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>45800.140150462961</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45866.7696815288</v>
       </c>
       <c r="N46" s="3">
-        <v>45800.142071759263</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45875.97650295066</v>
       </c>
       <c r="O46" s="2">
         <v>86217</v>
@@ -47494,10 +48284,12 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>45800.142083333332</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45858.013960976459</v>
       </c>
       <c r="N47" s="3">
-        <v>45800.144004629627</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45875.297815308491</v>
       </c>
       <c r="O47" s="2">
         <v>86217</v>
@@ -47544,10 +48336,12 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>45800.144016203703</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45858.776647348699</v>
       </c>
       <c r="N48" s="3">
-        <v>45800.145937499998</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45873.981663519909</v>
       </c>
       <c r="O48" s="2">
         <v>86217</v>
@@ -47594,10 +48388,12 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
-        <v>45800.145949074074</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45858.129496356363</v>
       </c>
       <c r="N49" s="3">
-        <v>45800.147870370369</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45870.709657650521</v>
       </c>
       <c r="O49" s="2">
         <v>86217</v>
@@ -47644,10 +48440,12 @@
         <v>0</v>
       </c>
       <c r="M50" s="3">
-        <v>45800.147881944446</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45860.991153964758</v>
       </c>
       <c r="N50" s="3">
-        <v>45800.14980324074</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45874.126197828024</v>
       </c>
       <c r="O50" s="2">
         <v>86217</v>
@@ -47694,10 +48492,12 @@
         <v>0</v>
       </c>
       <c r="M51" s="3">
-        <v>45800.149814814817</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45864.715875732407</v>
       </c>
       <c r="N51" s="3">
-        <v>45800.151736111111</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45878.159804015777</v>
       </c>
       <c r="O51" s="2">
         <v>86217</v>
@@ -47744,10 +48544,12 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
-        <v>45800.151747685188</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45864.468698213372</v>
       </c>
       <c r="N52" s="3">
-        <v>45800.153668981482</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45878.915119549245</v>
       </c>
       <c r="O52" s="2">
         <v>86217</v>
@@ -47794,10 +48596,12 @@
         <v>0</v>
       </c>
       <c r="M53" s="3">
-        <v>45800.183182870373</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45859.557120946294</v>
       </c>
       <c r="N53" s="3">
-        <v>45800.188946759263</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45872.723184567483</v>
       </c>
       <c r="O53" s="2">
         <v>86217</v>
@@ -47844,10 +48648,12 @@
         <v>0</v>
       </c>
       <c r="M54" s="3">
-        <v>45800.188958333332</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45868.512489192224</v>
       </c>
       <c r="N54" s="3">
-        <v>45800.194722222222</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45874.017168819533</v>
       </c>
       <c r="O54" s="2">
         <v>86217</v>
@@ -47894,10 +48700,12 @@
         <v>0</v>
       </c>
       <c r="M55" s="3">
-        <v>45800.194733796299</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45860.569190919712</v>
       </c>
       <c r="N55" s="3">
-        <v>45800.200497685182</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45875.809344776804</v>
       </c>
       <c r="O55" s="2">
         <v>86217</v>
@@ -47944,10 +48752,12 @@
         <v>0</v>
       </c>
       <c r="M56" s="3">
-        <v>45800.200509259259</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45863.981404546073</v>
       </c>
       <c r="N56" s="3">
-        <v>45800.206273148149</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45873.816195649459</v>
       </c>
       <c r="O56" s="2">
         <v>86217</v>
@@ -47994,10 +48804,12 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>45800.206284722219</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45866.588332367901</v>
       </c>
       <c r="N57" s="3">
-        <v>45800.212048611109</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45877.503896433773</v>
       </c>
       <c r="O57" s="2">
         <v>86217</v>
@@ -48044,10 +48856,12 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>45800.222916666666</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45865.116856071021</v>
       </c>
       <c r="N58" s="3">
-        <v>45800.228680555556</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45878.312906161605</v>
       </c>
       <c r="O58" s="2">
         <v>86217</v>
@@ -48094,10 +48908,12 @@
         <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>45800.228692129633</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45861.532219650209</v>
       </c>
       <c r="N59" s="3">
-        <v>45800.234456018516</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45874.873197743931</v>
       </c>
       <c r="O59" s="2">
         <v>86217</v>
@@ -48144,10 +48960,12 @@
         <v>0</v>
       </c>
       <c r="M60" s="3">
-        <v>45800.234467592592</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45868.208124158584</v>
       </c>
       <c r="N60" s="3">
-        <v>45800.240231481483</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45870.622818853553</v>
       </c>
       <c r="O60" s="2">
         <v>86217</v>
@@ -48194,10 +49012,12 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>45800.240243055552</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45859.5408363358</v>
       </c>
       <c r="N61" s="3">
-        <v>45800.246006944442</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45871.452836607554</v>
       </c>
       <c r="O61" s="2">
         <v>86217</v>
@@ -48244,10 +49064,12 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
-        <v>45800.246018518519</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45865.265821563429</v>
       </c>
       <c r="N62" s="3">
-        <v>45800.251782407409</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45873.835605453372</v>
       </c>
       <c r="O62" s="2">
         <v>86217</v>
@@ -48294,10 +49116,12 @@
         <v>0</v>
       </c>
       <c r="M63" s="3">
-        <v>45800.251793981479</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45860.453008782868</v>
       </c>
       <c r="N63" s="3">
-        <v>45800.257557870369</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45875.930388435743</v>
       </c>
       <c r="O63" s="2">
         <v>86217</v>
@@ -48344,10 +49168,12 @@
         <v>0</v>
       </c>
       <c r="M64" s="3">
-        <v>45800.275000000001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45858.958819944637</v>
       </c>
       <c r="N64" s="3">
-        <v>45800.280763888892</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45879.764080643305</v>
       </c>
       <c r="O64" s="2">
         <v>86217</v>
@@ -48394,10 +49220,12 @@
         <v>0</v>
       </c>
       <c r="M65" s="3">
-        <v>45800.280775462961</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45864.467312483685</v>
       </c>
       <c r="N65" s="3">
-        <v>45800.286539351851</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45877.922203204202</v>
       </c>
       <c r="O65" s="2">
         <v>86217</v>
@@ -48444,10 +49272,12 @@
         <v>0</v>
       </c>
       <c r="M66" s="3">
-        <v>45800.286550925928</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45867.212247100353</v>
       </c>
       <c r="N66" s="3">
-        <v>45800.292314814818</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45877.615327780004</v>
       </c>
       <c r="O66" s="2">
         <v>86217</v>
@@ -48494,10 +49324,12 @@
         <v>0</v>
       </c>
       <c r="M67" s="3">
-        <v>45800.292326388888</v>
+        <f t="shared" ref="M67:M77" ca="1" si="2">DATE(2025,7,25) + RANDBETWEEN(-5,5) + RAND()</f>
+        <v>45861.609642992669</v>
       </c>
       <c r="N67" s="3">
-        <v>45800.298090277778</v>
+        <f t="shared" ref="N67:N77" ca="1" si="3">DATE(2025,8,5) + RANDBETWEEN(-5,5) + RAND()</f>
+        <v>45872.526364221914</v>
       </c>
       <c r="O67" s="2">
         <v>86217</v>
@@ -48544,10 +49376,12 @@
         <v>0</v>
       </c>
       <c r="M68" s="3">
-        <v>45800.298101851855</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45863.352777753767</v>
       </c>
       <c r="N68" s="3">
-        <v>45800.303865740738</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45876.951131471178</v>
       </c>
       <c r="O68" s="2">
         <v>86217</v>
@@ -48594,10 +49428,12 @@
         <v>0</v>
       </c>
       <c r="M69" s="3">
-        <v>45800.303877314815</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45866.233983872364</v>
       </c>
       <c r="N69" s="3">
-        <v>45800.309641203705</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45878.572335940917</v>
       </c>
       <c r="O69" s="2">
         <v>86217</v>
@@ -48644,10 +49480,12 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
-        <v>45800.309652777774</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45859.494356221592</v>
       </c>
       <c r="N70" s="3">
-        <v>45800.315416666665</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45871.077007815467</v>
       </c>
       <c r="O70" s="2">
         <v>86217</v>
@@ -48694,10 +49532,12 @@
         <v>0</v>
       </c>
       <c r="M71" s="3">
-        <v>45800.327777777777</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45867.764384480455</v>
       </c>
       <c r="N71" s="3">
-        <v>45800.333541666667</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45874.333627453831</v>
       </c>
       <c r="O71" s="2">
         <v>86217</v>
@@ -48744,10 +49584,12 @@
         <v>0</v>
       </c>
       <c r="M72" s="3">
-        <v>45800.333553240744</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45867.028152412386</v>
       </c>
       <c r="N72" s="3">
-        <v>45800.339317129627</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45878.78788785122</v>
       </c>
       <c r="O72" s="2">
         <v>86217</v>
@@ -48794,10 +49636,12 @@
         <v>0</v>
       </c>
       <c r="M73" s="3">
-        <v>45800.339328703703</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45859.010988250971</v>
       </c>
       <c r="N73" s="3">
-        <v>45800.345092592594</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45877.340561956538</v>
       </c>
       <c r="O73" s="2">
         <v>86217</v>
@@ -48844,10 +49688,12 @@
         <v>0</v>
       </c>
       <c r="M74" s="3">
-        <v>45800.345104166663</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45858.92057260096</v>
       </c>
       <c r="N74" s="3">
-        <v>45800.350868055553</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45877.755661009338</v>
       </c>
       <c r="O74" s="2">
         <v>86217</v>
@@ -48894,10 +49740,12 @@
         <v>0</v>
       </c>
       <c r="M75" s="3">
-        <v>45800.35087962963</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45858.205543251235</v>
       </c>
       <c r="N75" s="3">
-        <v>45800.35664351852</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45870.397272830349</v>
       </c>
       <c r="O75" s="2">
         <v>86217</v>
@@ -48944,10 +49792,12 @@
         <v>0</v>
       </c>
       <c r="M76" s="3">
-        <v>45800.35665509259</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45866.27272900712</v>
       </c>
       <c r="N76" s="3">
-        <v>45800.358541666668</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45873.53089001622</v>
       </c>
       <c r="O76" s="2">
         <v>86217</v>
@@ -48994,10 +49844,12 @@
         <v>0</v>
       </c>
       <c r="M77" s="3">
-        <v>45800.358541666668</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45868.106222688541</v>
       </c>
       <c r="N77" s="3">
-        <v>45800.362858796296</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45874.345770636573</v>
       </c>
       <c r="O77" s="2">
         <v>86217</v>

--- a/datos_originales.xlsx
+++ b/datos_originales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60099351\Documents\Projects\algoritmo_genetico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9428F8A6-2433-4313-943F-8EB7FD95C82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BCFB6A-20F4-46D5-B419-22A5ECAA683F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estibas" sheetId="1" r:id="rId1"/>
@@ -3799,7 +3799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S1116"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -3913,8 +3913,8 @@
         <v>898</v>
       </c>
       <c r="M2" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.644869602875</v>
+        <f t="shared" ref="M2:M65" ca="1" si="0">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.327060517426</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>899</v>
@@ -3970,8 +3970,8 @@
         <v>898</v>
       </c>
       <c r="M3" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.217598872645</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45873.127110576948</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>899</v>
@@ -4027,8 +4027,8 @@
         <v>898</v>
       </c>
       <c r="M4" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.670974689216</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45883.791223850625</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>899</v>
@@ -4084,8 +4084,8 @@
         <v>707</v>
       </c>
       <c r="M5" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.224559316899</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45882.884421882431</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>708</v>
@@ -4141,8 +4141,8 @@
         <v>707</v>
       </c>
       <c r="M6" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.968200131523</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45876.420962234071</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>708</v>
@@ -4198,8 +4198,8 @@
         <v>707</v>
       </c>
       <c r="M7" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.578111491697</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45881.243245050435</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>708</v>
@@ -4255,8 +4255,8 @@
         <v>707</v>
       </c>
       <c r="M8" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.003854540257</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45880.508898462605</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>708</v>
@@ -4312,8 +4312,8 @@
         <v>707</v>
       </c>
       <c r="M9" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.251960000161</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45879.627206199119</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>708</v>
@@ -4369,8 +4369,8 @@
         <v>707</v>
       </c>
       <c r="M10" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.978550236738</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45884.917951208437</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>708</v>
@@ -4426,8 +4426,8 @@
         <v>374</v>
       </c>
       <c r="M11" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.945454971552</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45882.960800753317</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>375</v>
@@ -4483,8 +4483,8 @@
         <v>374</v>
       </c>
       <c r="M12" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.398586063216</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45873.878876599949</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>375</v>
@@ -4540,8 +4540,8 @@
         <v>374</v>
       </c>
       <c r="M13" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.092908829356</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45873.312388848972</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>375</v>
@@ -4597,8 +4597,8 @@
         <v>374</v>
       </c>
       <c r="M14" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.940286603021</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45878.000205544842</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>375</v>
@@ -4654,8 +4654,8 @@
         <v>374</v>
       </c>
       <c r="M15" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.725102813303</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45873.640072374445</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>375</v>
@@ -4711,8 +4711,8 @@
         <v>374</v>
       </c>
       <c r="M16" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.258058377876</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45873.821040792769</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>375</v>
@@ -4768,8 +4768,8 @@
         <v>308</v>
       </c>
       <c r="M17" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.914331178239</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45879.291999179972</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>309</v>
@@ -4825,8 +4825,8 @@
         <v>308</v>
       </c>
       <c r="M18" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.440963944937</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45874.367005650121</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>309</v>
@@ -4882,8 +4882,8 @@
         <v>308</v>
       </c>
       <c r="M19" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.840584762569</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45884.055489891813</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>309</v>
@@ -4939,8 +4939,8 @@
         <v>308</v>
       </c>
       <c r="M20" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.690371984951</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45879.553470368548</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>309</v>
@@ -4996,8 +4996,8 @@
         <v>308</v>
       </c>
       <c r="M21" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.357546530409</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45885.17351146842</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>309</v>
@@ -5053,8 +5053,8 @@
         <v>308</v>
       </c>
       <c r="M22" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.023776024907</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45884.240361581331</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>309</v>
@@ -5110,8 +5110,8 @@
         <v>308</v>
       </c>
       <c r="M23" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.358913856318</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45882.004301237168</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>309</v>
@@ -5167,8 +5167,8 @@
         <v>308</v>
       </c>
       <c r="M24" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.670577396129</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45875.280081266144</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>309</v>
@@ -5224,8 +5224,8 @@
         <v>308</v>
       </c>
       <c r="M25" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.987974992735</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45884.650120683342</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>309</v>
@@ -5281,8 +5281,8 @@
         <v>308</v>
       </c>
       <c r="M26" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.148576338346</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45882.229910912349</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>309</v>
@@ -5338,8 +5338,8 @@
         <v>308</v>
       </c>
       <c r="M27" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.750409337285</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45885.22639466876</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>309</v>
@@ -5395,8 +5395,8 @@
         <v>308</v>
       </c>
       <c r="M28" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.589673720053</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45883.079376949143</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>309</v>
@@ -5452,8 +5452,8 @@
         <v>308</v>
       </c>
       <c r="M29" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.749935233143</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45879.181504689986</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>309</v>
@@ -5509,8 +5509,8 @@
         <v>302</v>
       </c>
       <c r="M30" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.003324359364</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45876.909052400886</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>303</v>
@@ -5566,8 +5566,8 @@
         <v>302</v>
       </c>
       <c r="M31" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.877190940104</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45885.649256373639</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>303</v>
@@ -5623,8 +5623,8 @@
         <v>302</v>
       </c>
       <c r="M32" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.210259348496</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45878.354111612913</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>303</v>
@@ -5680,8 +5680,8 @@
         <v>483</v>
       </c>
       <c r="M33" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.637573103697</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45874.767166795136</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>484</v>
@@ -5737,8 +5737,8 @@
         <v>483</v>
       </c>
       <c r="M34" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.353335476524</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45882.913157955722</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>484</v>
@@ -5794,8 +5794,8 @@
         <v>483</v>
       </c>
       <c r="M35" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.056016667782</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45884.142921422303</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>484</v>
@@ -5851,8 +5851,8 @@
         <v>483</v>
       </c>
       <c r="M36" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.275880924986</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45880.610051386429</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>484</v>
@@ -5908,8 +5908,8 @@
         <v>458</v>
       </c>
       <c r="M37" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.017953114198</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45884.661620355801</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>459</v>
@@ -5965,8 +5965,8 @@
         <v>458</v>
       </c>
       <c r="M38" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.605927657867</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45880.619930362671</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>459</v>
@@ -6022,8 +6022,8 @@
         <v>458</v>
       </c>
       <c r="M39" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.947375608892</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45883.453599243243</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>459</v>
@@ -6079,8 +6079,8 @@
         <v>458</v>
       </c>
       <c r="M40" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.6140897277</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45885.013865695619</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>459</v>
@@ -6136,8 +6136,8 @@
         <v>458</v>
       </c>
       <c r="M41" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.213784070591</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45877.255561909653</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>459</v>
@@ -6193,8 +6193,8 @@
         <v>173</v>
       </c>
       <c r="M42" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.400440376688</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45882.769874014179</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>174</v>
@@ -6250,8 +6250,8 @@
         <v>173</v>
       </c>
       <c r="M43" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.575647037374</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45873.672082988414</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>174</v>
@@ -6307,8 +6307,8 @@
         <v>173</v>
       </c>
       <c r="M44" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.95990985127</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45876.993298428693</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>174</v>
@@ -6364,8 +6364,8 @@
         <v>173</v>
       </c>
       <c r="M45" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.606349821413</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45877.660038905036</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>174</v>
@@ -6421,8 +6421,8 @@
         <v>612</v>
       </c>
       <c r="M46" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.013678765681</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45882.413757794428</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>613</v>
@@ -6478,8 +6478,8 @@
         <v>612</v>
       </c>
       <c r="M47" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.121603797947</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45873.708393851783</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>613</v>
@@ -6535,8 +6535,8 @@
         <v>612</v>
       </c>
       <c r="M48" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.193444088116</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45876.877238455505</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>613</v>
@@ -6592,8 +6592,8 @@
         <v>612</v>
       </c>
       <c r="M49" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.343759921059</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45877.779807947503</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>613</v>
@@ -6649,8 +6649,8 @@
         <v>612</v>
       </c>
       <c r="M50" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.795972545238</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45874.336963786263</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>613</v>
@@ -6706,8 +6706,8 @@
         <v>612</v>
       </c>
       <c r="M51" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.980880956398</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45878.554201746796</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>613</v>
@@ -6763,8 +6763,8 @@
         <v>612</v>
       </c>
       <c r="M52" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.659216165521</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45885.866958899169</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>613</v>
@@ -6820,8 +6820,8 @@
         <v>612</v>
       </c>
       <c r="M53" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.549695535599</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45884.319558993622</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>613</v>
@@ -6877,8 +6877,8 @@
         <v>612</v>
       </c>
       <c r="M54" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.398714150127</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45878.037728311574</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>613</v>
@@ -6934,8 +6934,8 @@
         <v>612</v>
       </c>
       <c r="M55" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.058768277326</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45878.115519265455</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>613</v>
@@ -6991,8 +6991,8 @@
         <v>612</v>
       </c>
       <c r="M56" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.392417209718</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45885.390142417287</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>613</v>
@@ -7048,8 +7048,8 @@
         <v>612</v>
       </c>
       <c r="M57" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.57680770864</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45884.088501851511</v>
       </c>
       <c r="N57" s="2" t="s">
         <v>613</v>
@@ -7105,8 +7105,8 @@
         <v>612</v>
       </c>
       <c r="M58" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.802192896852</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45876.863646187354</v>
       </c>
       <c r="N58" s="2" t="s">
         <v>613</v>
@@ -7162,8 +7162,8 @@
         <v>612</v>
       </c>
       <c r="M59" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.985516608307</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45877.228640499976</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>613</v>
@@ -7219,8 +7219,8 @@
         <v>612</v>
       </c>
       <c r="M60" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.717261304235</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45874.78285741085</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>613</v>
@@ -7276,8 +7276,8 @@
         <v>612</v>
       </c>
       <c r="M61" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.332098815539</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45876.623576935832</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>613</v>
@@ -7333,8 +7333,8 @@
         <v>612</v>
       </c>
       <c r="M62" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.55785247442</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45884.958622344537</v>
       </c>
       <c r="N62" s="2" t="s">
         <v>613</v>
@@ -7390,8 +7390,8 @@
         <v>612</v>
       </c>
       <c r="M63" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.754066999092</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45878.892567200477</v>
       </c>
       <c r="N63" s="2" t="s">
         <v>613</v>
@@ -7447,8 +7447,8 @@
         <v>612</v>
       </c>
       <c r="M64" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.765831456913</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45879.699303259134</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>613</v>
@@ -7504,8 +7504,8 @@
         <v>612</v>
       </c>
       <c r="M65" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.730561216689</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45881.447035763616</v>
       </c>
       <c r="N65" s="2" t="s">
         <v>613</v>
@@ -7561,8 +7561,8 @@
         <v>612</v>
       </c>
       <c r="M66" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.542207616731</v>
+        <f t="shared" ref="M66:M129" ca="1" si="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.019759306284</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>613</v>
@@ -7618,8 +7618,8 @@
         <v>612</v>
       </c>
       <c r="M67" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.934160908721</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45885.593147401945</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>613</v>
@@ -7675,8 +7675,8 @@
         <v>612</v>
       </c>
       <c r="M68" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.024816811136</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45883.495048752935</v>
       </c>
       <c r="N68" s="2" t="s">
         <v>613</v>
@@ -7732,8 +7732,8 @@
         <v>612</v>
       </c>
       <c r="M69" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.77297627199</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45875.733951373608</v>
       </c>
       <c r="N69" s="2" t="s">
         <v>613</v>
@@ -7789,8 +7789,8 @@
         <v>612</v>
       </c>
       <c r="M70" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.876812667928</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45878.509778506217</v>
       </c>
       <c r="N70" s="2" t="s">
         <v>613</v>
@@ -7846,8 +7846,8 @@
         <v>0</v>
       </c>
       <c r="M71" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.798188284978</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45879.517147234394</v>
       </c>
       <c r="N71" s="2">
         <v>0</v>
@@ -7897,8 +7897,8 @@
         <v>267</v>
       </c>
       <c r="M72" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.024286503969</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45874.61733312349</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>747</v>
@@ -7954,8 +7954,8 @@
         <v>324</v>
       </c>
       <c r="M73" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.59487928309</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45877.309675383127</v>
       </c>
       <c r="N73" s="2" t="s">
         <v>325</v>
@@ -8011,8 +8011,8 @@
         <v>324</v>
       </c>
       <c r="M74" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.665604440197</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45881.374848048334</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>325</v>
@@ -8068,8 +8068,8 @@
         <v>324</v>
       </c>
       <c r="M75" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.686645407077</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45873.680687099804</v>
       </c>
       <c r="N75" s="2" t="s">
         <v>325</v>
@@ -8125,8 +8125,8 @@
         <v>324</v>
       </c>
       <c r="M76" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.017416929368</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45885.530479488662</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>325</v>
@@ -8182,8 +8182,8 @@
         <v>324</v>
       </c>
       <c r="M77" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.026859714475</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45875.533284245219</v>
       </c>
       <c r="N77" s="2" t="s">
         <v>325</v>
@@ -8239,8 +8239,8 @@
         <v>324</v>
       </c>
       <c r="M78" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.121428699582</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45884.540570417514</v>
       </c>
       <c r="N78" s="2" t="s">
         <v>325</v>
@@ -8296,8 +8296,8 @@
         <v>324</v>
       </c>
       <c r="M79" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.263990805899</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45881.292464255057</v>
       </c>
       <c r="N79" s="2" t="s">
         <v>325</v>
@@ -8353,8 +8353,8 @@
         <v>324</v>
       </c>
       <c r="M80" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.823673946368</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45884.680628639268</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>325</v>
@@ -8410,8 +8410,8 @@
         <v>324</v>
       </c>
       <c r="M81" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.901113240543</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45876.591588889765</v>
       </c>
       <c r="N81" s="2" t="s">
         <v>325</v>
@@ -8467,8 +8467,8 @@
         <v>324</v>
       </c>
       <c r="M82" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.104884885288</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45883.398129063411</v>
       </c>
       <c r="N82" s="2" t="s">
         <v>325</v>
@@ -8524,8 +8524,8 @@
         <v>324</v>
       </c>
       <c r="M83" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.349052836202</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45880.98303140411</v>
       </c>
       <c r="N83" s="2" t="s">
         <v>325</v>
@@ -8581,8 +8581,8 @@
         <v>324</v>
       </c>
       <c r="M84" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.280175808737</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45874.705456766918</v>
       </c>
       <c r="N84" s="2" t="s">
         <v>325</v>
@@ -8638,8 +8638,8 @@
         <v>324</v>
       </c>
       <c r="M85" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.870430933195</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45875.487958449688</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>325</v>
@@ -8695,8 +8695,8 @@
         <v>324</v>
       </c>
       <c r="M86" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.289872868983</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45880.596745991235</v>
       </c>
       <c r="N86" s="2" t="s">
         <v>325</v>
@@ -8752,8 +8752,8 @@
         <v>324</v>
       </c>
       <c r="M87" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.054614217792</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45874.632342978693</v>
       </c>
       <c r="N87" s="2" t="s">
         <v>325</v>
@@ -8809,8 +8809,8 @@
         <v>324</v>
       </c>
       <c r="M88" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.919521574295</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45884.333768761127</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>325</v>
@@ -8866,8 +8866,8 @@
         <v>343</v>
       </c>
       <c r="M89" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.248600094346</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45876.2625015905</v>
       </c>
       <c r="N89" s="2" t="s">
         <v>344</v>
@@ -8923,8 +8923,8 @@
         <v>343</v>
       </c>
       <c r="M90" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.160746293419</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45876.646273336715</v>
       </c>
       <c r="N90" s="2" t="s">
         <v>344</v>
@@ -8980,8 +8980,8 @@
         <v>349</v>
       </c>
       <c r="M91" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.363664425488</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45878.31698953762</v>
       </c>
       <c r="N91" s="2" t="s">
         <v>350</v>
@@ -9037,8 +9037,8 @@
         <v>349</v>
       </c>
       <c r="M92" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.987598081367</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45881.776556347984</v>
       </c>
       <c r="N92" s="2" t="s">
         <v>350</v>
@@ -9094,8 +9094,8 @@
         <v>349</v>
       </c>
       <c r="M93" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.510935977567</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45879.290465491584</v>
       </c>
       <c r="N93" s="2" t="s">
         <v>350</v>
@@ -9151,8 +9151,8 @@
         <v>349</v>
       </c>
       <c r="M94" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.710825713999</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45884.164027677682</v>
       </c>
       <c r="N94" s="2" t="s">
         <v>350</v>
@@ -9208,8 +9208,8 @@
         <v>349</v>
       </c>
       <c r="M95" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.965092699756</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45880.109591353394</v>
       </c>
       <c r="N95" s="2" t="s">
         <v>350</v>
@@ -9265,8 +9265,8 @@
         <v>349</v>
       </c>
       <c r="M96" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.301252606034</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45881.626317878065</v>
       </c>
       <c r="N96" s="2" t="s">
         <v>350</v>
@@ -9322,8 +9322,8 @@
         <v>0</v>
       </c>
       <c r="M97" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.748222281283</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45881.079198680309</v>
       </c>
       <c r="N97" s="2">
         <v>0</v>
@@ -9373,8 +9373,8 @@
         <v>358</v>
       </c>
       <c r="M98" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.131725603649</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45879.53579182025</v>
       </c>
       <c r="N98" s="2" t="s">
         <v>359</v>
@@ -9430,8 +9430,8 @@
         <v>358</v>
       </c>
       <c r="M99" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.181786747955</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45880.780658209442</v>
       </c>
       <c r="N99" s="2" t="s">
         <v>359</v>
@@ -9487,8 +9487,8 @@
         <v>358</v>
       </c>
       <c r="M100" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.415593307873</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45879.027543488657</v>
       </c>
       <c r="N100" s="2" t="s">
         <v>359</v>
@@ -9544,8 +9544,8 @@
         <v>358</v>
       </c>
       <c r="M101" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.910988896561</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45879.54291372501</v>
       </c>
       <c r="N101" s="2" t="s">
         <v>359</v>
@@ -9601,8 +9601,8 @@
         <v>358</v>
       </c>
       <c r="M102" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.798860953641</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45878.682436152936</v>
       </c>
       <c r="N102" s="2" t="s">
         <v>359</v>
@@ -9658,8 +9658,8 @@
         <v>358</v>
       </c>
       <c r="M103" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.600246473972</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45884.051081477184</v>
       </c>
       <c r="N103" s="2" t="s">
         <v>359</v>
@@ -9715,8 +9715,8 @@
         <v>358</v>
       </c>
       <c r="M104" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.872694936981</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45877.720828305952</v>
       </c>
       <c r="N104" s="2" t="s">
         <v>359</v>
@@ -9772,8 +9772,8 @@
         <v>358</v>
       </c>
       <c r="M105" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.369383366269</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45881.206995845423</v>
       </c>
       <c r="N105" s="2" t="s">
         <v>359</v>
@@ -9829,8 +9829,8 @@
         <v>358</v>
       </c>
       <c r="M106" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.049145571</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45875.873605607536</v>
       </c>
       <c r="N106" s="2" t="s">
         <v>359</v>
@@ -9886,8 +9886,8 @@
         <v>358</v>
       </c>
       <c r="M107" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.551130714492</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45878.125688580265</v>
       </c>
       <c r="N107" s="2" t="s">
         <v>359</v>
@@ -9943,8 +9943,8 @@
         <v>358</v>
       </c>
       <c r="M108" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.112566445554</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45879.303692976107</v>
       </c>
       <c r="N108" s="2" t="s">
         <v>359</v>
@@ -10000,8 +10000,8 @@
         <v>358</v>
       </c>
       <c r="M109" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.94843331672</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45873.088128972275</v>
       </c>
       <c r="N109" s="2" t="s">
         <v>359</v>
@@ -10057,8 +10057,8 @@
         <v>730</v>
       </c>
       <c r="M110" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.522317864903</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45881.101382653011</v>
       </c>
       <c r="N110" s="2" t="s">
         <v>731</v>
@@ -10114,8 +10114,8 @@
         <v>730</v>
       </c>
       <c r="M111" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.804671439408</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45881.741571109851</v>
       </c>
       <c r="N111" s="2" t="s">
         <v>731</v>
@@ -10171,8 +10171,8 @@
         <v>730</v>
       </c>
       <c r="M112" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.123119875461</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45876.098827087699</v>
       </c>
       <c r="N112" s="2" t="s">
         <v>731</v>
@@ -10228,8 +10228,8 @@
         <v>730</v>
       </c>
       <c r="M113" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.372819070129</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45883.665367775939</v>
       </c>
       <c r="N113" s="2" t="s">
         <v>731</v>
@@ -10285,8 +10285,8 @@
         <v>730</v>
       </c>
       <c r="M114" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.204210548538</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45877.95331881084</v>
       </c>
       <c r="N114" s="2" t="s">
         <v>731</v>
@@ -10342,8 +10342,8 @@
         <v>730</v>
       </c>
       <c r="M115" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.572231120233</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45882.863432846425</v>
       </c>
       <c r="N115" s="2" t="s">
         <v>731</v>
@@ -10399,8 +10399,8 @@
         <v>730</v>
       </c>
       <c r="M116" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.5938037956</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45881.518042022086</v>
       </c>
       <c r="N116" s="2" t="s">
         <v>731</v>
@@ -10456,8 +10456,8 @@
         <v>730</v>
       </c>
       <c r="M117" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.813896721309</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45882.670034418123</v>
       </c>
       <c r="N117" s="2" t="s">
         <v>731</v>
@@ -10513,8 +10513,8 @@
         <v>730</v>
       </c>
       <c r="M118" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.677389033124</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45880.915193177883</v>
       </c>
       <c r="N118" s="2" t="s">
         <v>731</v>
@@ -10570,8 +10570,8 @@
         <v>730</v>
       </c>
       <c r="M119" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.985853653758</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45873.954070093343</v>
       </c>
       <c r="N119" s="2" t="s">
         <v>731</v>
@@ -10627,8 +10627,8 @@
         <v>730</v>
       </c>
       <c r="M120" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.569565185739</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45876.451862311005</v>
       </c>
       <c r="N120" s="2" t="s">
         <v>731</v>
@@ -10684,8 +10684,8 @@
         <v>730</v>
       </c>
       <c r="M121" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.937827973197</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45875.24982848877</v>
       </c>
       <c r="N121" s="2" t="s">
         <v>731</v>
@@ -10741,8 +10741,8 @@
         <v>730</v>
       </c>
       <c r="M122" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.438932888595</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45880.052772364659</v>
       </c>
       <c r="N122" s="2" t="s">
         <v>731</v>
@@ -10798,8 +10798,8 @@
         <v>730</v>
       </c>
       <c r="M123" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.790675379423</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45873.341480497074</v>
       </c>
       <c r="N123" s="2" t="s">
         <v>731</v>
@@ -10855,8 +10855,8 @@
         <v>678</v>
       </c>
       <c r="M124" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.101431166084</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45879.498467890473</v>
       </c>
       <c r="N124" s="2" t="s">
         <v>679</v>
@@ -10912,8 +10912,8 @@
         <v>678</v>
       </c>
       <c r="M125" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.787309059961</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45877.163632919262</v>
       </c>
       <c r="N125" s="2" t="s">
         <v>679</v>
@@ -10969,8 +10969,8 @@
         <v>678</v>
       </c>
       <c r="M126" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.579767141993</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45883.434907234201</v>
       </c>
       <c r="N126" s="2" t="s">
         <v>679</v>
@@ -11026,8 +11026,8 @@
         <v>678</v>
       </c>
       <c r="M127" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.427022078191</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45876.812439403591</v>
       </c>
       <c r="N127" s="2" t="s">
         <v>679</v>
@@ -11083,8 +11083,8 @@
         <v>678</v>
       </c>
       <c r="M128" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.257830725881</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45879.826716905605</v>
       </c>
       <c r="N128" s="2" t="s">
         <v>679</v>
@@ -11140,8 +11140,8 @@
         <v>678</v>
       </c>
       <c r="M129" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.093210483348</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45876.061754803217</v>
       </c>
       <c r="N129" s="2" t="s">
         <v>679</v>
@@ -11197,8 +11197,8 @@
         <v>678</v>
       </c>
       <c r="M130" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.840129201082</v>
+        <f t="shared" ref="M130:M193" ca="1" si="2">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45879.343988868146</v>
       </c>
       <c r="N130" s="2" t="s">
         <v>679</v>
@@ -11254,8 +11254,8 @@
         <v>678</v>
       </c>
       <c r="M131" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.848747980519</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45884.050637650129</v>
       </c>
       <c r="N131" s="2" t="s">
         <v>679</v>
@@ -11311,8 +11311,8 @@
         <v>678</v>
       </c>
       <c r="M132" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.477196885178</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45874.557416033029</v>
       </c>
       <c r="N132" s="2" t="s">
         <v>679</v>
@@ -11368,8 +11368,8 @@
         <v>678</v>
       </c>
       <c r="M133" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.993466132291</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45880.168714741099</v>
       </c>
       <c r="N133" s="2" t="s">
         <v>679</v>
@@ -11425,8 +11425,8 @@
         <v>678</v>
       </c>
       <c r="M134" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.333617070726</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45881.321833365713</v>
       </c>
       <c r="N134" s="2" t="s">
         <v>679</v>
@@ -11482,8 +11482,8 @@
         <v>678</v>
       </c>
       <c r="M135" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.27134063228</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45873.418893190683</v>
       </c>
       <c r="N135" s="2" t="s">
         <v>679</v>
@@ -11539,8 +11539,8 @@
         <v>678</v>
       </c>
       <c r="M136" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.652120411476</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45876.541554370895</v>
       </c>
       <c r="N136" s="2" t="s">
         <v>679</v>
@@ -11596,8 +11596,8 @@
         <v>678</v>
       </c>
       <c r="M137" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.99260996782</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45875.056985488329</v>
       </c>
       <c r="N137" s="2" t="s">
         <v>679</v>
@@ -11653,8 +11653,8 @@
         <v>678</v>
       </c>
       <c r="M138" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.417849565791</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45880.414987596065</v>
       </c>
       <c r="N138" s="2" t="s">
         <v>679</v>
@@ -11710,8 +11710,8 @@
         <v>881</v>
       </c>
       <c r="M139" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.678260607114</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45882.595055407699</v>
       </c>
       <c r="N139" s="2" t="s">
         <v>882</v>
@@ -11767,8 +11767,8 @@
         <v>881</v>
       </c>
       <c r="M140" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.95310031766</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45882.469989840429</v>
       </c>
       <c r="N140" s="2" t="s">
         <v>882</v>
@@ -11824,8 +11824,8 @@
         <v>881</v>
       </c>
       <c r="M141" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.481316544261</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45873.051204167779</v>
       </c>
       <c r="N141" s="2" t="s">
         <v>882</v>
@@ -11881,8 +11881,8 @@
         <v>881</v>
       </c>
       <c r="M142" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.961832147565</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45873.511738969864</v>
       </c>
       <c r="N142" s="2" t="s">
         <v>882</v>
@@ -11938,8 +11938,8 @@
         <v>881</v>
       </c>
       <c r="M143" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.139955799583</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45879.087637932287</v>
       </c>
       <c r="N143" s="2" t="s">
         <v>882</v>
@@ -11995,8 +11995,8 @@
         <v>881</v>
       </c>
       <c r="M144" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.452159088432</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45885.40206395946</v>
       </c>
       <c r="N144" s="2" t="s">
         <v>882</v>
@@ -12052,8 +12052,8 @@
         <v>881</v>
       </c>
       <c r="M145" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.349372262113</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45874.676218339475</v>
       </c>
       <c r="N145" s="2" t="s">
         <v>882</v>
@@ -12109,8 +12109,8 @@
         <v>881</v>
       </c>
       <c r="M146" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.179520895057</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45877.802257032556</v>
       </c>
       <c r="N146" s="2" t="s">
         <v>882</v>
@@ -12166,8 +12166,8 @@
         <v>881</v>
       </c>
       <c r="M147" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.648205946702</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45873.230147929033</v>
       </c>
       <c r="N147" s="2" t="s">
         <v>882</v>
@@ -12223,8 +12223,8 @@
         <v>881</v>
       </c>
       <c r="M148" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.413255156403</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45874.113135281041</v>
       </c>
       <c r="N148" s="2" t="s">
         <v>882</v>
@@ -12280,8 +12280,8 @@
         <v>881</v>
       </c>
       <c r="M149" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.272009986285</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45874.528992313513</v>
       </c>
       <c r="N149" s="2" t="s">
         <v>882</v>
@@ -12337,8 +12337,8 @@
         <v>881</v>
       </c>
       <c r="M150" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.334984082612</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45876.207457720651</v>
       </c>
       <c r="N150" s="2" t="s">
         <v>882</v>
@@ -12394,8 +12394,8 @@
         <v>881</v>
       </c>
       <c r="M151" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.0075457188</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45884.450624371217</v>
       </c>
       <c r="N151" s="2" t="s">
         <v>882</v>
@@ -12451,8 +12451,8 @@
         <v>207</v>
       </c>
       <c r="M152" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.873444292141</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45875.593715195915</v>
       </c>
       <c r="N152" s="2" t="s">
         <v>208</v>
@@ -12508,8 +12508,8 @@
         <v>207</v>
       </c>
       <c r="M153" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.806708721451</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45877.419525262478</v>
       </c>
       <c r="N153" s="2" t="s">
         <v>208</v>
@@ -12565,8 +12565,8 @@
         <v>207</v>
       </c>
       <c r="M154" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.283301331161</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45876.341994646624</v>
       </c>
       <c r="N154" s="2" t="s">
         <v>208</v>
@@ -12622,8 +12622,8 @@
         <v>207</v>
       </c>
       <c r="M155" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.057535811109</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45876.413032083154</v>
       </c>
       <c r="N155" s="2" t="s">
         <v>208</v>
@@ -12679,8 +12679,8 @@
         <v>207</v>
       </c>
       <c r="M156" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.695708844025</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45881.938551885389</v>
       </c>
       <c r="N156" s="2" t="s">
         <v>208</v>
@@ -12736,8 +12736,8 @@
         <v>207</v>
       </c>
       <c r="M157" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.582373127443</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45875.968685143256</v>
       </c>
       <c r="N157" s="2" t="s">
         <v>208</v>
@@ -12793,8 +12793,8 @@
         <v>207</v>
       </c>
       <c r="M158" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.901419504247</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45884.153682747237</v>
       </c>
       <c r="N158" s="2" t="s">
         <v>208</v>
@@ -12850,8 +12850,8 @@
         <v>207</v>
       </c>
       <c r="M159" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.249465561727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45875.839252477832</v>
       </c>
       <c r="N159" s="2" t="s">
         <v>208</v>
@@ -12907,8 +12907,8 @@
         <v>207</v>
       </c>
       <c r="M160" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.02325832886</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45885.0166054293</v>
       </c>
       <c r="N160" s="2" t="s">
         <v>208</v>
@@ -12964,8 +12964,8 @@
         <v>207</v>
       </c>
       <c r="M161" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.495063214228</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45878.81995640578</v>
       </c>
       <c r="N161" s="2" t="s">
         <v>208</v>
@@ -13021,8 +13021,8 @@
         <v>207</v>
       </c>
       <c r="M162" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.919777390278</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45880.679449389107</v>
       </c>
       <c r="N162" s="2" t="s">
         <v>208</v>
@@ -13078,8 +13078,8 @@
         <v>207</v>
       </c>
       <c r="M163" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.670506877323</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45877.706720033973</v>
       </c>
       <c r="N163" s="2" t="s">
         <v>208</v>
@@ -13135,8 +13135,8 @@
         <v>207</v>
       </c>
       <c r="M164" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.598566468681</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45876.76671656112</v>
       </c>
       <c r="N164" s="2" t="s">
         <v>208</v>
@@ -13192,8 +13192,8 @@
         <v>207</v>
       </c>
       <c r="M165" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.712635797412</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45882.603128156254</v>
       </c>
       <c r="N165" s="2" t="s">
         <v>208</v>
@@ -13249,8 +13249,8 @@
         <v>207</v>
       </c>
       <c r="M166" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.433174940459</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45881.920938067437</v>
       </c>
       <c r="N166" s="2" t="s">
         <v>208</v>
@@ -13306,8 +13306,8 @@
         <v>207</v>
       </c>
       <c r="M167" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.06871577492</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45873.812769055308</v>
       </c>
       <c r="N167" s="2" t="s">
         <v>208</v>
@@ -13363,8 +13363,8 @@
         <v>207</v>
       </c>
       <c r="M168" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.019199822018</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45873.507701860108</v>
       </c>
       <c r="N168" s="2" t="s">
         <v>208</v>
@@ -13420,8 +13420,8 @@
         <v>207</v>
       </c>
       <c r="M169" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.140262643348</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45884.052612919157</v>
       </c>
       <c r="N169" s="2" t="s">
         <v>208</v>
@@ -13477,8 +13477,8 @@
         <v>207</v>
       </c>
       <c r="M170" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.145077577123</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45883.178873562007</v>
       </c>
       <c r="N170" s="2" t="s">
         <v>208</v>
@@ -13534,8 +13534,8 @@
         <v>207</v>
       </c>
       <c r="M171" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.214807621327</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45878.576435393661</v>
       </c>
       <c r="N171" s="2" t="s">
         <v>208</v>
@@ -13591,8 +13591,8 @@
         <v>207</v>
       </c>
       <c r="M172" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.40439292026</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45877.328887684234</v>
       </c>
       <c r="N172" s="2" t="s">
         <v>208</v>
@@ -13648,8 +13648,8 @@
         <v>207</v>
       </c>
       <c r="M173" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.508301459922</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45873.936362362518</v>
       </c>
       <c r="N173" s="2" t="s">
         <v>208</v>
@@ -13705,8 +13705,8 @@
         <v>207</v>
       </c>
       <c r="M174" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.40856873685</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45882.404863095697</v>
       </c>
       <c r="N174" s="2" t="s">
         <v>208</v>
@@ -13762,8 +13762,8 @@
         <v>207</v>
       </c>
       <c r="M175" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.232152904187</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45885.390228062846</v>
       </c>
       <c r="N175" s="2" t="s">
         <v>208</v>
@@ -13819,8 +13819,8 @@
         <v>207</v>
       </c>
       <c r="M176" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.760874568528</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45881.398697407545</v>
       </c>
       <c r="N176" s="2" t="s">
         <v>208</v>
@@ -13876,8 +13876,8 @@
         <v>207</v>
       </c>
       <c r="M177" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.669311591497</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45875.886445201009</v>
       </c>
       <c r="N177" s="2" t="s">
         <v>208</v>
@@ -13933,8 +13933,8 @@
         <v>289</v>
       </c>
       <c r="M178" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.895557605727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45883.60660715733</v>
       </c>
       <c r="N178" s="2" t="s">
         <v>290</v>
@@ -13990,8 +13990,8 @@
         <v>289</v>
       </c>
       <c r="M179" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.893771216783</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45873.515205924821</v>
       </c>
       <c r="N179" s="2" t="s">
         <v>290</v>
@@ -14047,8 +14047,8 @@
         <v>289</v>
       </c>
       <c r="M180" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.661361000391</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45875.442657126914</v>
       </c>
       <c r="N180" s="2" t="s">
         <v>290</v>
@@ -14104,8 +14104,8 @@
         <v>289</v>
       </c>
       <c r="M181" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.669142544844</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45881.973222045053</v>
       </c>
       <c r="N181" s="2" t="s">
         <v>290</v>
@@ -14161,8 +14161,8 @@
         <v>289</v>
       </c>
       <c r="M182" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.776041469559</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45885.391603023127</v>
       </c>
       <c r="N182" s="2" t="s">
         <v>290</v>
@@ -14218,8 +14218,8 @@
         <v>289</v>
       </c>
       <c r="M183" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.694003311844</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45881.31656465921</v>
       </c>
       <c r="N183" s="2" t="s">
         <v>290</v>
@@ -14275,8 +14275,8 @@
         <v>289</v>
       </c>
       <c r="M184" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.086758863072</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45884.654826142076</v>
       </c>
       <c r="N184" s="2" t="s">
         <v>290</v>
@@ -14332,8 +14332,8 @@
         <v>289</v>
       </c>
       <c r="M185" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.253680962727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45876.94956784034</v>
       </c>
       <c r="N185" s="2" t="s">
         <v>290</v>
@@ -14389,8 +14389,8 @@
         <v>289</v>
       </c>
       <c r="M186" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.723349266853</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45877.920420569637</v>
       </c>
       <c r="N186" s="2" t="s">
         <v>290</v>
@@ -14446,8 +14446,8 @@
         <v>289</v>
       </c>
       <c r="M187" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.180925589753</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45885.504790713218</v>
       </c>
       <c r="N187" s="2" t="s">
         <v>290</v>
@@ -14503,8 +14503,8 @@
         <v>0</v>
       </c>
       <c r="M188" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.6584830219</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45874.797359976226</v>
       </c>
       <c r="N188" s="2">
         <v>0</v>
@@ -14554,8 +14554,8 @@
         <v>411</v>
       </c>
       <c r="M189" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.455183917984</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45877.468771087537</v>
       </c>
       <c r="N189" s="2" t="s">
         <v>412</v>
@@ -14611,8 +14611,8 @@
         <v>411</v>
       </c>
       <c r="M190" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.052694649668</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45882.785375907173</v>
       </c>
       <c r="N190" s="2" t="s">
         <v>412</v>
@@ -14668,8 +14668,8 @@
         <v>411</v>
       </c>
       <c r="M191" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.211852815781</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45880.350945615006</v>
       </c>
       <c r="N191" s="2" t="s">
         <v>412</v>
@@ -14725,8 +14725,8 @@
         <v>411</v>
       </c>
       <c r="M192" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.946570975328</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45877.388355385105</v>
       </c>
       <c r="N192" s="2" t="s">
         <v>412</v>
@@ -14782,8 +14782,8 @@
         <v>411</v>
       </c>
       <c r="M193" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.323800542195</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45882.119297882171</v>
       </c>
       <c r="N193" s="2" t="s">
         <v>412</v>
@@ -14839,8 +14839,8 @@
         <v>411</v>
       </c>
       <c r="M194" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.558441401394</v>
+        <f t="shared" ref="M194:M257" ca="1" si="3">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.693733386695</v>
       </c>
       <c r="N194" s="2" t="s">
         <v>412</v>
@@ -14896,8 +14896,8 @@
         <v>411</v>
       </c>
       <c r="M195" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.818196384236</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45876.244216465922</v>
       </c>
       <c r="N195" s="2" t="s">
         <v>412</v>
@@ -14953,8 +14953,8 @@
         <v>411</v>
       </c>
       <c r="M196" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.756690514107</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45875.379328329138</v>
       </c>
       <c r="N196" s="2" t="s">
         <v>412</v>
@@ -15010,8 +15010,8 @@
         <v>411</v>
       </c>
       <c r="M197" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.472325903938</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45875.281094619</v>
       </c>
       <c r="N197" s="2" t="s">
         <v>412</v>
@@ -15067,8 +15067,8 @@
         <v>411</v>
       </c>
       <c r="M198" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.117273882213</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45883.280126204161</v>
       </c>
       <c r="N198" s="2" t="s">
         <v>412</v>
@@ -15124,8 +15124,8 @@
         <v>411</v>
       </c>
       <c r="M199" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.491583239214</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45873.625036907899</v>
       </c>
       <c r="N199" s="2" t="s">
         <v>412</v>
@@ -15181,8 +15181,8 @@
         <v>411</v>
       </c>
       <c r="M200" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.533145112742</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45881.267599603394</v>
       </c>
       <c r="N200" s="2" t="s">
         <v>412</v>
@@ -15238,8 +15238,8 @@
         <v>667</v>
       </c>
       <c r="M201" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.498458011498</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45873.282149940496</v>
       </c>
       <c r="N201" s="2" t="s">
         <v>668</v>
@@ -15295,8 +15295,8 @@
         <v>667</v>
       </c>
       <c r="M202" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.261536515398</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45876.314972724256</v>
       </c>
       <c r="N202" s="2" t="s">
         <v>668</v>
@@ -15352,8 +15352,8 @@
         <v>667</v>
       </c>
       <c r="M203" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.522261954182</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45883.624617142195</v>
       </c>
       <c r="N203" s="2" t="s">
         <v>668</v>
@@ -15409,8 +15409,8 @@
         <v>667</v>
       </c>
       <c r="M204" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.549342846323</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45883.04832445694</v>
       </c>
       <c r="N204" s="2" t="s">
         <v>668</v>
@@ -15466,8 +15466,8 @@
         <v>667</v>
       </c>
       <c r="M205" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.657512535552</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45884.822312060554</v>
       </c>
       <c r="N205" s="2" t="s">
         <v>668</v>
@@ -15523,8 +15523,8 @@
         <v>667</v>
       </c>
       <c r="M206" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.953844761374</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45873.083241144624</v>
       </c>
       <c r="N206" s="2" t="s">
         <v>668</v>
@@ -15580,8 +15580,8 @@
         <v>667</v>
       </c>
       <c r="M207" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.134120234499</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45884.010572457839</v>
       </c>
       <c r="N207" s="2" t="s">
         <v>668</v>
@@ -15637,8 +15637,8 @@
         <v>667</v>
       </c>
       <c r="M208" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.623219288733</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45883.413805204975</v>
       </c>
       <c r="N208" s="2" t="s">
         <v>668</v>
@@ -15694,8 +15694,8 @@
         <v>435</v>
       </c>
       <c r="M209" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.353140490224</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45885.924788467302</v>
       </c>
       <c r="N209" s="2" t="s">
         <v>436</v>
@@ -15751,8 +15751,8 @@
         <v>435</v>
       </c>
       <c r="M210" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.592899212519</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45884.581724694173</v>
       </c>
       <c r="N210" s="2" t="s">
         <v>436</v>
@@ -15808,8 +15808,8 @@
         <v>435</v>
       </c>
       <c r="M211" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.457142110368</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45880.080813699635</v>
       </c>
       <c r="N211" s="2" t="s">
         <v>436</v>
@@ -15865,8 +15865,8 @@
         <v>435</v>
       </c>
       <c r="M212" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.230826746636</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45878.5372912276</v>
       </c>
       <c r="N212" s="2" t="s">
         <v>436</v>
@@ -15922,8 +15922,8 @@
         <v>435</v>
       </c>
       <c r="M213" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.483561808949</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45873.19052562955</v>
       </c>
       <c r="N213" s="2" t="s">
         <v>436</v>
@@ -15979,8 +15979,8 @@
         <v>435</v>
       </c>
       <c r="M214" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.264913620689</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45878.699787646125</v>
       </c>
       <c r="N214" s="2" t="s">
         <v>436</v>
@@ -16036,8 +16036,8 @@
         <v>189</v>
       </c>
       <c r="M215" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.560866984983</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45879.470172141911</v>
       </c>
       <c r="N215" s="2" t="s">
         <v>190</v>
@@ -16093,8 +16093,8 @@
         <v>189</v>
       </c>
       <c r="M216" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.659965547129</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45882.183954052169</v>
       </c>
       <c r="N216" s="2" t="s">
         <v>190</v>
@@ -16150,8 +16150,8 @@
         <v>189</v>
       </c>
       <c r="M217" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.456475948245</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45875.009310037021</v>
       </c>
       <c r="N217" s="2" t="s">
         <v>190</v>
@@ -16207,8 +16207,8 @@
         <v>189</v>
       </c>
       <c r="M218" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.538710203007</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45882.171966318783</v>
       </c>
       <c r="N218" s="2" t="s">
         <v>190</v>
@@ -16264,8 +16264,8 @@
         <v>189</v>
       </c>
       <c r="M219" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.019926692286</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45877.076608022551</v>
       </c>
       <c r="N219" s="2" t="s">
         <v>190</v>
@@ -16321,8 +16321,8 @@
         <v>189</v>
       </c>
       <c r="M220" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.052043200405</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45880.602178246692</v>
       </c>
       <c r="N220" s="2" t="s">
         <v>190</v>
@@ -16378,8 +16378,8 @@
         <v>189</v>
       </c>
       <c r="M221" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.8265781429</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45882.491597946915</v>
       </c>
       <c r="N221" s="2" t="s">
         <v>190</v>
@@ -16435,8 +16435,8 @@
         <v>189</v>
       </c>
       <c r="M222" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.861170388962</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45876.885658526509</v>
       </c>
       <c r="N222" s="2" t="s">
         <v>190</v>
@@ -16492,8 +16492,8 @@
         <v>189</v>
       </c>
       <c r="M223" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.16182258154</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45873.058454223588</v>
       </c>
       <c r="N223" s="2" t="s">
         <v>190</v>
@@ -16549,8 +16549,8 @@
         <v>189</v>
       </c>
       <c r="M224" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.61288446463</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45874.545734889827</v>
       </c>
       <c r="N224" s="2" t="s">
         <v>190</v>
@@ -16606,8 +16606,8 @@
         <v>189</v>
       </c>
       <c r="M225" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.53024886491</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45873.195210872182</v>
       </c>
       <c r="N225" s="2" t="s">
         <v>190</v>
@@ -16663,8 +16663,8 @@
         <v>189</v>
       </c>
       <c r="M226" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.587814907376</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45882.344726381438</v>
       </c>
       <c r="N226" s="2" t="s">
         <v>190</v>
@@ -16720,8 +16720,8 @@
         <v>189</v>
       </c>
       <c r="M227" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.274745504285</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45874.342454469224</v>
       </c>
       <c r="N227" s="2" t="s">
         <v>190</v>
@@ -16777,8 +16777,8 @@
         <v>189</v>
       </c>
       <c r="M228" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.912054260756</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45880.888916947115</v>
       </c>
       <c r="N228" s="2" t="s">
         <v>190</v>
@@ -16834,8 +16834,8 @@
         <v>117</v>
       </c>
       <c r="M229" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.332695494042</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45885.207748092427</v>
       </c>
       <c r="N229" s="2" t="s">
         <v>118</v>
@@ -16894,8 +16894,8 @@
         <v>117</v>
       </c>
       <c r="M230" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.372032741121</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45884.377698513599</v>
       </c>
       <c r="N230" s="2" t="s">
         <v>118</v>
@@ -16954,8 +16954,8 @@
         <v>117</v>
       </c>
       <c r="M231" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.452392083163</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45883.471129072794</v>
       </c>
       <c r="N231" s="2" t="s">
         <v>118</v>
@@ -17014,8 +17014,8 @@
         <v>117</v>
       </c>
       <c r="M232" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.735365418332</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45879.849659534266</v>
       </c>
       <c r="N232" s="2" t="s">
         <v>118</v>
@@ -17074,8 +17074,8 @@
         <v>117</v>
       </c>
       <c r="M233" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.47921784615</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45880.442907883509</v>
       </c>
       <c r="N233" s="2" t="s">
         <v>118</v>
@@ -17134,8 +17134,8 @@
         <v>117</v>
       </c>
       <c r="M234" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.344243133892</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45884.267292937868</v>
       </c>
       <c r="N234" s="2" t="s">
         <v>118</v>
@@ -17194,8 +17194,8 @@
         <v>117</v>
       </c>
       <c r="M235" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.556669185731</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45884.141936409025</v>
       </c>
       <c r="N235" s="2" t="s">
         <v>118</v>
@@ -17254,8 +17254,8 @@
         <v>117</v>
       </c>
       <c r="M236" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.786544683622</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45873.968670319133</v>
       </c>
       <c r="N236" s="2" t="s">
         <v>118</v>
@@ -17314,8 +17314,8 @@
         <v>117</v>
       </c>
       <c r="M237" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.274426806813</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45874.277954099634</v>
       </c>
       <c r="N237" s="2" t="s">
         <v>118</v>
@@ -17374,8 +17374,8 @@
         <v>117</v>
       </c>
       <c r="M238" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.854235516053</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45879.915534732987</v>
       </c>
       <c r="N238" s="2" t="s">
         <v>118</v>
@@ -17434,8 +17434,8 @@
         <v>117</v>
       </c>
       <c r="M239" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.252985305182</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45885.946121849534</v>
       </c>
       <c r="N239" s="2" t="s">
         <v>118</v>
@@ -17494,8 +17494,8 @@
         <v>117</v>
       </c>
       <c r="M240" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.903649834749</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45877.736401356982</v>
       </c>
       <c r="N240" s="2" t="s">
         <v>118</v>
@@ -17554,8 +17554,8 @@
         <v>696</v>
       </c>
       <c r="M241" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.421005755612</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45875.09438324767</v>
       </c>
       <c r="N241" s="2" t="s">
         <v>697</v>
@@ -17611,8 +17611,8 @@
         <v>696</v>
       </c>
       <c r="M242" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.581622857782</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45878.783776388285</v>
       </c>
       <c r="N242" s="2" t="s">
         <v>697</v>
@@ -17668,8 +17668,8 @@
         <v>696</v>
       </c>
       <c r="M243" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.422043537896</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45884.095546286211</v>
       </c>
       <c r="N243" s="2" t="s">
         <v>697</v>
@@ -17725,8 +17725,8 @@
         <v>696</v>
       </c>
       <c r="M244" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.370143767184</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45878.717988035001</v>
       </c>
       <c r="N244" s="2" t="s">
         <v>697</v>
@@ -17782,8 +17782,8 @@
         <v>696</v>
       </c>
       <c r="M245" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.897543812687</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45874.362300251276</v>
       </c>
       <c r="N245" s="2" t="s">
         <v>697</v>
@@ -17839,8 +17839,8 @@
         <v>696</v>
       </c>
       <c r="M246" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.810937774564</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45878.539662785384</v>
       </c>
       <c r="N246" s="2" t="s">
         <v>697</v>
@@ -17896,8 +17896,8 @@
         <v>696</v>
       </c>
       <c r="M247" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.826101731087</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45881.677087298442</v>
       </c>
       <c r="N247" s="2" t="s">
         <v>697</v>
@@ -17953,8 +17953,8 @@
         <v>0</v>
       </c>
       <c r="M248" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.99986106906</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45874.814701639312</v>
       </c>
       <c r="N248" s="2">
         <v>0</v>
@@ -18004,8 +18004,8 @@
         <v>0</v>
       </c>
       <c r="M249" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.177724390189</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45877.446481713378</v>
       </c>
       <c r="N249" s="2">
         <v>0</v>
@@ -18055,8 +18055,8 @@
         <v>384</v>
       </c>
       <c r="M250" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.215148942676</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45873.647894940892</v>
       </c>
       <c r="N250" s="2" t="s">
         <v>385</v>
@@ -18112,8 +18112,8 @@
         <v>384</v>
       </c>
       <c r="M251" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.868693122204</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45880.714957421573</v>
       </c>
       <c r="N251" s="2" t="s">
         <v>385</v>
@@ -18169,8 +18169,8 @@
         <v>384</v>
       </c>
       <c r="M252" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.18455718529</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45885.150466089312</v>
       </c>
       <c r="N252" s="2" t="s">
         <v>385</v>
@@ -18226,8 +18226,8 @@
         <v>384</v>
       </c>
       <c r="M253" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.910749348412</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45884.864460306795</v>
       </c>
       <c r="N253" s="2" t="s">
         <v>385</v>
@@ -18283,8 +18283,8 @@
         <v>384</v>
       </c>
       <c r="M254" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.307760944328</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45880.884177768894</v>
       </c>
       <c r="N254" s="2" t="s">
         <v>385</v>
@@ -18340,8 +18340,8 @@
         <v>384</v>
       </c>
       <c r="M255" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.458747990655</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45876.813211284563</v>
       </c>
       <c r="N255" s="2" t="s">
         <v>385</v>
@@ -18397,8 +18397,8 @@
         <v>384</v>
       </c>
       <c r="M256" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.416775340898</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45881.67251931112</v>
       </c>
       <c r="N256" s="2" t="s">
         <v>385</v>
@@ -18454,8 +18454,8 @@
         <v>384</v>
       </c>
       <c r="M257" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.72603633273</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45881.634234063153</v>
       </c>
       <c r="N257" s="2" t="s">
         <v>385</v>
@@ -18511,8 +18511,8 @@
         <v>384</v>
       </c>
       <c r="M258" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.416996825392</v>
+        <f t="shared" ref="M258:M321" ca="1" si="4">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.298359953493</v>
       </c>
       <c r="N258" s="2" t="s">
         <v>385</v>
@@ -18568,8 +18568,8 @@
         <v>384</v>
       </c>
       <c r="M259" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.171599412293</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45884.520690567508</v>
       </c>
       <c r="N259" s="2" t="s">
         <v>385</v>
@@ -18625,8 +18625,8 @@
         <v>384</v>
       </c>
       <c r="M260" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.474029878147</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45876.00876998403</v>
       </c>
       <c r="N260" s="2" t="s">
         <v>385</v>
@@ -18682,8 +18682,8 @@
         <v>384</v>
       </c>
       <c r="M261" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.483771268955</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45884.17937197983</v>
       </c>
       <c r="N261" s="2" t="s">
         <v>385</v>
@@ -18739,8 +18739,8 @@
         <v>384</v>
       </c>
       <c r="M262" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.658811669535</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45885.935230050593</v>
       </c>
       <c r="N262" s="2" t="s">
         <v>385</v>
@@ -18796,8 +18796,8 @@
         <v>384</v>
       </c>
       <c r="M263" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.966122063597</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45882.414830029498</v>
       </c>
       <c r="N263" s="2" t="s">
         <v>385</v>
@@ -18853,8 +18853,8 @@
         <v>384</v>
       </c>
       <c r="M264" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.016442117398</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45881.952258908343</v>
       </c>
       <c r="N264" s="2" t="s">
         <v>385</v>
@@ -18910,8 +18910,8 @@
         <v>384</v>
       </c>
       <c r="M265" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.81522152105</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45874.589335560959</v>
       </c>
       <c r="N265" s="2" t="s">
         <v>385</v>
@@ -18967,8 +18967,8 @@
         <v>384</v>
       </c>
       <c r="M266" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.290338563405</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45881.973558649501</v>
       </c>
       <c r="N266" s="2" t="s">
         <v>385</v>
@@ -19024,8 +19024,8 @@
         <v>384</v>
       </c>
       <c r="M267" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.27423036642</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45883.816380307479</v>
       </c>
       <c r="N267" s="2" t="s">
         <v>385</v>
@@ -19081,8 +19081,8 @@
         <v>384</v>
       </c>
       <c r="M268" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.097534465931</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45873.200378611255</v>
       </c>
       <c r="N268" s="2" t="s">
         <v>385</v>
@@ -19138,8 +19138,8 @@
         <v>384</v>
       </c>
       <c r="M269" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.702196639024</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45885.780940082215</v>
       </c>
       <c r="N269" s="2" t="s">
         <v>385</v>
@@ -19195,8 +19195,8 @@
         <v>384</v>
       </c>
       <c r="M270" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.905945960003</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45878.360091707022</v>
       </c>
       <c r="N270" s="2" t="s">
         <v>385</v>
@@ -19252,8 +19252,8 @@
         <v>384</v>
       </c>
       <c r="M271" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.120452131341</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45881.6193369092</v>
       </c>
       <c r="N271" s="2" t="s">
         <v>385</v>
@@ -19309,8 +19309,8 @@
         <v>384</v>
       </c>
       <c r="M272" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.455135111471</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45876.778933136418</v>
       </c>
       <c r="N272" s="2" t="s">
         <v>385</v>
@@ -19366,8 +19366,8 @@
         <v>384</v>
       </c>
       <c r="M273" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.411000529348</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45880.558696286236</v>
       </c>
       <c r="N273" s="2" t="s">
         <v>385</v>
@@ -19423,8 +19423,8 @@
         <v>236</v>
       </c>
       <c r="M274" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.012949434691</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45874.271364335713</v>
       </c>
       <c r="N274" s="2" t="s">
         <v>237</v>
@@ -19480,8 +19480,8 @@
         <v>236</v>
       </c>
       <c r="M275" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.162130243822</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45876.098067889114</v>
       </c>
       <c r="N275" s="2" t="s">
         <v>237</v>
@@ -19537,8 +19537,8 @@
         <v>236</v>
       </c>
       <c r="M276" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.780817289095</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45880.793098685426</v>
       </c>
       <c r="N276" s="2" t="s">
         <v>237</v>
@@ -19594,8 +19594,8 @@
         <v>236</v>
       </c>
       <c r="M277" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.487288628108</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45874.635631879384</v>
       </c>
       <c r="N277" s="2" t="s">
         <v>237</v>
@@ -19651,8 +19651,8 @@
         <v>236</v>
       </c>
       <c r="M278" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.503633287204</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45879.084750864407</v>
       </c>
       <c r="N278" s="2" t="s">
         <v>237</v>
@@ -19708,8 +19708,8 @@
         <v>236</v>
       </c>
       <c r="M279" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.276882915241</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45885.352395805785</v>
       </c>
       <c r="N279" s="2" t="s">
         <v>237</v>
@@ -19765,8 +19765,8 @@
         <v>236</v>
       </c>
       <c r="M280" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.606336919351</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45881.786627679801</v>
       </c>
       <c r="N280" s="2" t="s">
         <v>237</v>
@@ -19822,8 +19822,8 @@
         <v>236</v>
       </c>
       <c r="M281" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.083501827103</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45878.09751322247</v>
       </c>
       <c r="N281" s="2" t="s">
         <v>237</v>
@@ -19879,8 +19879,8 @@
         <v>236</v>
       </c>
       <c r="M282" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.958105481521</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45883.798451256924</v>
       </c>
       <c r="N282" s="2" t="s">
         <v>237</v>
@@ -19936,8 +19936,8 @@
         <v>236</v>
       </c>
       <c r="M283" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.443784644704</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45881.270220027494</v>
       </c>
       <c r="N283" s="2" t="s">
         <v>237</v>
@@ -19993,8 +19993,8 @@
         <v>236</v>
       </c>
       <c r="M284" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.890794592764</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45873.546487230094</v>
       </c>
       <c r="N284" s="2" t="s">
         <v>237</v>
@@ -20050,8 +20050,8 @@
         <v>236</v>
       </c>
       <c r="M285" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.221688582911</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45877.896990306384</v>
       </c>
       <c r="N285" s="2" t="s">
         <v>237</v>
@@ -20107,8 +20107,8 @@
         <v>236</v>
       </c>
       <c r="M286" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.808144412724</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45880.110141012672</v>
       </c>
       <c r="N286" s="2" t="s">
         <v>237</v>
@@ -20164,8 +20164,8 @@
         <v>236</v>
       </c>
       <c r="M287" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.592652925152</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45882.495910512996</v>
       </c>
       <c r="N287" s="2" t="s">
         <v>237</v>
@@ -20221,8 +20221,8 @@
         <v>236</v>
       </c>
       <c r="M288" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.194438940583</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45873.703122309293</v>
       </c>
       <c r="N288" s="2" t="s">
         <v>237</v>
@@ -20278,8 +20278,8 @@
         <v>236</v>
       </c>
       <c r="M289" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.699240948277</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45880.830411620365</v>
       </c>
       <c r="N289" s="2" t="s">
         <v>237</v>
@@ -20335,8 +20335,8 @@
         <v>236</v>
       </c>
       <c r="M290" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.620961132357</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45879.512841499811</v>
       </c>
       <c r="N290" s="2" t="s">
         <v>237</v>
@@ -20392,8 +20392,8 @@
         <v>236</v>
       </c>
       <c r="M291" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.965459706567</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45885.290198441799</v>
       </c>
       <c r="N291" s="2" t="s">
         <v>237</v>
@@ -20449,8 +20449,8 @@
         <v>236</v>
       </c>
       <c r="M292" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.868452092029</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45879.768015470974</v>
       </c>
       <c r="N292" s="2" t="s">
         <v>237</v>
@@ -20506,8 +20506,8 @@
         <v>236</v>
       </c>
       <c r="M293" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.734348958787</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45879.478140662533</v>
       </c>
       <c r="N293" s="2" t="s">
         <v>237</v>
@@ -20563,8 +20563,8 @@
         <v>236</v>
       </c>
       <c r="M294" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.552628908234</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45873.58242301955</v>
       </c>
       <c r="N294" s="2" t="s">
         <v>237</v>
@@ -20620,8 +20620,8 @@
         <v>516</v>
       </c>
       <c r="M295" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.124411256998</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45875.767090243695</v>
       </c>
       <c r="N295" s="2" t="s">
         <v>517</v>
@@ -20677,8 +20677,8 @@
         <v>516</v>
       </c>
       <c r="M296" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.070704268102</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45878.329266216177</v>
       </c>
       <c r="N296" s="2" t="s">
         <v>517</v>
@@ -20734,8 +20734,8 @@
         <v>516</v>
       </c>
       <c r="M297" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.956561313207</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45878.342062124459</v>
       </c>
       <c r="N297" s="2" t="s">
         <v>517</v>
@@ -20791,8 +20791,8 @@
         <v>516</v>
       </c>
       <c r="M298" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.415066989233</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45885.187271123395</v>
       </c>
       <c r="N298" s="2" t="s">
         <v>517</v>
@@ -20848,8 +20848,8 @@
         <v>516</v>
       </c>
       <c r="M299" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.316687492807</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45876.038406329972</v>
       </c>
       <c r="N299" s="2" t="s">
         <v>517</v>
@@ -20905,8 +20905,8 @@
         <v>516</v>
       </c>
       <c r="M300" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.565800742006</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45879.921151343289</v>
       </c>
       <c r="N300" s="2" t="s">
         <v>517</v>
@@ -20962,8 +20962,8 @@
         <v>516</v>
       </c>
       <c r="M301" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.949546585893</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45874.784210638019</v>
       </c>
       <c r="N301" s="2" t="s">
         <v>517</v>
@@ -21019,8 +21019,8 @@
         <v>516</v>
       </c>
       <c r="M302" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.60490741441</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45880.041058448012</v>
       </c>
       <c r="N302" s="2" t="s">
         <v>517</v>
@@ -21076,8 +21076,8 @@
         <v>516</v>
       </c>
       <c r="M303" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.503799199694</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45877.763983778939</v>
       </c>
       <c r="N303" s="2" t="s">
         <v>517</v>
@@ -21133,8 +21133,8 @@
         <v>516</v>
       </c>
       <c r="M304" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.869018609083</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45880.196779660742</v>
       </c>
       <c r="N304" s="2" t="s">
         <v>517</v>
@@ -21190,8 +21190,8 @@
         <v>516</v>
       </c>
       <c r="M305" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.356315145385</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45877.876108975426</v>
       </c>
       <c r="N305" s="2" t="s">
         <v>517</v>
@@ -21247,8 +21247,8 @@
         <v>516</v>
       </c>
       <c r="M306" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.852770299352</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45884.323796529352</v>
       </c>
       <c r="N306" s="2" t="s">
         <v>517</v>
@@ -21304,8 +21304,8 @@
         <v>516</v>
       </c>
       <c r="M307" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.178227295895</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45883.39735417816</v>
       </c>
       <c r="N307" s="2" t="s">
         <v>517</v>
@@ -21361,8 +21361,8 @@
         <v>134</v>
       </c>
       <c r="M308" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.703397565565</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45877.131801913427</v>
       </c>
       <c r="N308" s="2" t="s">
         <v>135</v>
@@ -21418,8 +21418,8 @@
         <v>134</v>
       </c>
       <c r="M309" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.011584884873</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45885.261141813746</v>
       </c>
       <c r="N309" s="2" t="s">
         <v>135</v>
@@ -21475,8 +21475,8 @@
         <v>134</v>
       </c>
       <c r="M310" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.72361311868</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45877.207028117817</v>
       </c>
       <c r="N310" s="2" t="s">
         <v>135</v>
@@ -21532,8 +21532,8 @@
         <v>134</v>
       </c>
       <c r="M311" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.601619298504</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45876.956731874081</v>
       </c>
       <c r="N311" s="2" t="s">
         <v>135</v>
@@ -21589,8 +21589,8 @@
         <v>134</v>
       </c>
       <c r="M312" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.981526520438</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45884.685202853143</v>
       </c>
       <c r="N312" s="2" t="s">
         <v>135</v>
@@ -21646,8 +21646,8 @@
         <v>134</v>
       </c>
       <c r="M313" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.260760844074</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45885.935814117838</v>
       </c>
       <c r="N313" s="2" t="s">
         <v>135</v>
@@ -21703,8 +21703,8 @@
         <v>134</v>
       </c>
       <c r="M314" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.18422458187</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45883.89377669181</v>
       </c>
       <c r="N314" s="2" t="s">
         <v>135</v>
@@ -21760,8 +21760,8 @@
         <v>134</v>
       </c>
       <c r="M315" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.47297205792</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45879.330309759178</v>
       </c>
       <c r="N315" s="2" t="s">
         <v>135</v>
@@ -21817,8 +21817,8 @@
         <v>134</v>
       </c>
       <c r="M316" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.119042812366</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45878.980886910686</v>
       </c>
       <c r="N316" s="2" t="s">
         <v>135</v>
@@ -21874,8 +21874,8 @@
         <v>134</v>
       </c>
       <c r="M317" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.362760723685</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45882.564117240458</v>
       </c>
       <c r="N317" s="2" t="s">
         <v>135</v>
@@ -21931,8 +21931,8 @@
         <v>784</v>
       </c>
       <c r="M318" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.557139499222</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45883.317139232233</v>
       </c>
       <c r="N318" s="2" t="s">
         <v>785</v>
@@ -21988,8 +21988,8 @@
         <v>784</v>
       </c>
       <c r="M319" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.794705122797</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45883.321516520795</v>
       </c>
       <c r="N319" s="2" t="s">
         <v>785</v>
@@ -22045,8 +22045,8 @@
         <v>784</v>
       </c>
       <c r="M320" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.849060747445</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45877.329893211776</v>
       </c>
       <c r="N320" s="2" t="s">
         <v>785</v>
@@ -22102,8 +22102,8 @@
         <v>784</v>
       </c>
       <c r="M321" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.034049266462</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45880.131657589605</v>
       </c>
       <c r="N321" s="2" t="s">
         <v>785</v>
@@ -22159,8 +22159,8 @@
         <v>784</v>
       </c>
       <c r="M322" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.061237857604</v>
+        <f t="shared" ref="M322:M385" ca="1" si="5">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45881.805640944287</v>
       </c>
       <c r="N322" s="2" t="s">
         <v>785</v>
@@ -22216,8 +22216,8 @@
         <v>784</v>
       </c>
       <c r="M323" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.100339577133</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45880.083611561058</v>
       </c>
       <c r="N323" s="2" t="s">
         <v>785</v>
@@ -22273,8 +22273,8 @@
         <v>784</v>
       </c>
       <c r="M324" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.979203525523</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45881.104832162666</v>
       </c>
       <c r="N324" s="2" t="s">
         <v>785</v>
@@ -22330,8 +22330,8 @@
         <v>784</v>
       </c>
       <c r="M325" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.797825487236</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45880.436883254806</v>
       </c>
       <c r="N325" s="2" t="s">
         <v>785</v>
@@ -22387,8 +22387,8 @@
         <v>784</v>
       </c>
       <c r="M326" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.793265281711</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45875.659523796901</v>
       </c>
       <c r="N326" s="2" t="s">
         <v>785</v>
@@ -22444,8 +22444,8 @@
         <v>784</v>
       </c>
       <c r="M327" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.933727264455</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45882.980205338637</v>
       </c>
       <c r="N327" s="2" t="s">
         <v>785</v>
@@ -22501,8 +22501,8 @@
         <v>427</v>
       </c>
       <c r="M328" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.837554072757</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45879.815395226913</v>
       </c>
       <c r="N328" s="2" t="s">
         <v>428</v>
@@ -22558,8 +22558,8 @@
         <v>427</v>
       </c>
       <c r="M329" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.32000022399</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45885.324438861258</v>
       </c>
       <c r="N329" s="2" t="s">
         <v>428</v>
@@ -22615,8 +22615,8 @@
         <v>427</v>
       </c>
       <c r="M330" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.334925055751</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45879.959746482018</v>
       </c>
       <c r="N330" s="2" t="s">
         <v>428</v>
@@ -22672,8 +22672,8 @@
         <v>427</v>
       </c>
       <c r="M331" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.340161765518</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45874.778145751872</v>
       </c>
       <c r="N331" s="2" t="s">
         <v>428</v>
@@ -22729,8 +22729,8 @@
         <v>427</v>
       </c>
       <c r="M332" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.150222588352</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45879.0203491461</v>
       </c>
       <c r="N332" s="2" t="s">
         <v>428</v>
@@ -22786,8 +22786,8 @@
         <v>0</v>
       </c>
       <c r="M333" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.733604431174</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45875.898596984953</v>
       </c>
       <c r="N333" s="2">
         <v>0</v>
@@ -22837,8 +22837,8 @@
         <v>832</v>
       </c>
       <c r="M334" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.93804981163</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45881.042104363536</v>
       </c>
       <c r="N334" s="2" t="s">
         <v>833</v>
@@ -22894,8 +22894,8 @@
         <v>832</v>
       </c>
       <c r="M335" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.463381053356</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45876.101499981698</v>
       </c>
       <c r="N335" s="2" t="s">
         <v>833</v>
@@ -22951,8 +22951,8 @@
         <v>832</v>
       </c>
       <c r="M336" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.117251721647</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45884.849119585531</v>
       </c>
       <c r="N336" s="2" t="s">
         <v>833</v>
@@ -23008,8 +23008,8 @@
         <v>832</v>
       </c>
       <c r="M337" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.639422629079</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45883.462209721896</v>
       </c>
       <c r="N337" s="2" t="s">
         <v>833</v>
@@ -23065,8 +23065,8 @@
         <v>832</v>
       </c>
       <c r="M338" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.45987686493</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45875.388601409068</v>
       </c>
       <c r="N338" s="2" t="s">
         <v>833</v>
@@ -23122,8 +23122,8 @@
         <v>832</v>
       </c>
       <c r="M339" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.242256339305</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45878.846480302534</v>
       </c>
       <c r="N339" s="2" t="s">
         <v>833</v>
@@ -23179,8 +23179,8 @@
         <v>832</v>
       </c>
       <c r="M340" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.699110369424</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45876.686351866461</v>
       </c>
       <c r="N340" s="2" t="s">
         <v>833</v>
@@ -23236,8 +23236,8 @@
         <v>832</v>
       </c>
       <c r="M341" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.213185502769</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45884.506123186839</v>
       </c>
       <c r="N341" s="2" t="s">
         <v>833</v>
@@ -23293,8 +23293,8 @@
         <v>832</v>
       </c>
       <c r="M342" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.900441912527</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45879.420884481879</v>
       </c>
       <c r="N342" s="2" t="s">
         <v>833</v>
@@ -23350,8 +23350,8 @@
         <v>832</v>
       </c>
       <c r="M343" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.711356664855</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45884.860021298118</v>
       </c>
       <c r="N343" s="2" t="s">
         <v>833</v>
@@ -23407,8 +23407,8 @@
         <v>832</v>
       </c>
       <c r="M344" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.264664207403</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45874.630355816989</v>
       </c>
       <c r="N344" s="2" t="s">
         <v>833</v>
@@ -23464,8 +23464,8 @@
         <v>832</v>
       </c>
       <c r="M345" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.062527300695</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45873.06555417995</v>
       </c>
       <c r="N345" s="2" t="s">
         <v>833</v>
@@ -23521,8 +23521,8 @@
         <v>832</v>
       </c>
       <c r="M346" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.832276384019</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45876.18560116247</v>
       </c>
       <c r="N346" s="2" t="s">
         <v>833</v>
@@ -23578,8 +23578,8 @@
         <v>832</v>
       </c>
       <c r="M347" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.960649952118</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45873.609095633961</v>
       </c>
       <c r="N347" s="2" t="s">
         <v>833</v>
@@ -23635,8 +23635,8 @@
         <v>832</v>
       </c>
       <c r="M348" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.492901376012</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45878.149239038095</v>
       </c>
       <c r="N348" s="2" t="s">
         <v>833</v>
@@ -23692,8 +23692,8 @@
         <v>832</v>
       </c>
       <c r="M349" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.307530351587</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45876.6586482497</v>
       </c>
       <c r="N349" s="2" t="s">
         <v>833</v>
@@ -23749,8 +23749,8 @@
         <v>832</v>
       </c>
       <c r="M350" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.779882792951</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45875.838042452851</v>
       </c>
       <c r="N350" s="2" t="s">
         <v>833</v>
@@ -23806,8 +23806,8 @@
         <v>832</v>
       </c>
       <c r="M351" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.492963341268</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45873.140403356025</v>
       </c>
       <c r="N351" s="2" t="s">
         <v>833</v>
@@ -23863,8 +23863,8 @@
         <v>832</v>
       </c>
       <c r="M352" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.201011429519</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45882.402872542407</v>
       </c>
       <c r="N352" s="2" t="s">
         <v>833</v>
@@ -23920,8 +23920,8 @@
         <v>832</v>
       </c>
       <c r="M353" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.453486238541</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45877.597606485957</v>
       </c>
       <c r="N353" s="2" t="s">
         <v>833</v>
@@ -23977,8 +23977,8 @@
         <v>832</v>
       </c>
       <c r="M354" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.698606806203</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45885.32048639861</v>
       </c>
       <c r="N354" s="2" t="s">
         <v>833</v>
@@ -24034,8 +24034,8 @@
         <v>832</v>
       </c>
       <c r="M355" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.473222083398</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45873.744885678068</v>
       </c>
       <c r="N355" s="2" t="s">
         <v>833</v>
@@ -24091,8 +24091,8 @@
         <v>832</v>
       </c>
       <c r="M356" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.719527641355</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45876.599357993706</v>
       </c>
       <c r="N356" s="2" t="s">
         <v>833</v>
@@ -24148,8 +24148,8 @@
         <v>832</v>
       </c>
       <c r="M357" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.313669628282</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45880.262356423817</v>
       </c>
       <c r="N357" s="2" t="s">
         <v>833</v>
@@ -24205,8 +24205,8 @@
         <v>832</v>
       </c>
       <c r="M358" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.627583918264</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45879.928822153874</v>
       </c>
       <c r="N358" s="2" t="s">
         <v>833</v>
@@ -24262,8 +24262,8 @@
         <v>832</v>
       </c>
       <c r="M359" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.600601934719</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45884.857600070842</v>
       </c>
       <c r="N359" s="2" t="s">
         <v>833</v>
@@ -24319,8 +24319,8 @@
         <v>832</v>
       </c>
       <c r="M360" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.26330102051</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45881.70684210844</v>
       </c>
       <c r="N360" s="2" t="s">
         <v>833</v>
@@ -24376,8 +24376,8 @@
         <v>832</v>
       </c>
       <c r="M361" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.906475192496</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45881.155911808019</v>
       </c>
       <c r="N361" s="2" t="s">
         <v>833</v>
@@ -24433,8 +24433,8 @@
         <v>832</v>
       </c>
       <c r="M362" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.27136064064</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45874.393489788556</v>
       </c>
       <c r="N362" s="2" t="s">
         <v>833</v>
@@ -24490,8 +24490,8 @@
         <v>832</v>
       </c>
       <c r="M363" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.388305029068</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45880.679596099893</v>
       </c>
       <c r="N363" s="2" t="s">
         <v>833</v>
@@ -24547,8 +24547,8 @@
         <v>832</v>
       </c>
       <c r="M364" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.475144423261</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45876.571629702725</v>
       </c>
       <c r="N364" s="2" t="s">
         <v>833</v>
@@ -24604,8 +24604,8 @@
         <v>832</v>
       </c>
       <c r="M365" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.672010986644</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45876.038477604365</v>
       </c>
       <c r="N365" s="2" t="s">
         <v>833</v>
@@ -24661,8 +24661,8 @@
         <v>81</v>
       </c>
       <c r="M366" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.07608088971</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45877.960792429963</v>
       </c>
       <c r="N366" s="2" t="s">
         <v>82</v>
@@ -24718,8 +24718,8 @@
         <v>81</v>
       </c>
       <c r="M367" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.281813031099</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45877.121620527483</v>
       </c>
       <c r="N367" s="2" t="s">
         <v>82</v>
@@ -24775,8 +24775,8 @@
         <v>81</v>
       </c>
       <c r="M368" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.847134219053</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45877.218391557697</v>
       </c>
       <c r="N368" s="2" t="s">
         <v>82</v>
@@ -24832,8 +24832,8 @@
         <v>81</v>
       </c>
       <c r="M369" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.937020204474</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45875.623143345903</v>
       </c>
       <c r="N369" s="2" t="s">
         <v>82</v>
@@ -24889,8 +24889,8 @@
         <v>81</v>
       </c>
       <c r="M370" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.180764099183</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45877.018876858645</v>
       </c>
       <c r="N370" s="2" t="s">
         <v>82</v>
@@ -24946,8 +24946,8 @@
         <v>81</v>
       </c>
       <c r="M371" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.053118044438</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45876.643133175174</v>
       </c>
       <c r="N371" s="2" t="s">
         <v>82</v>
@@ -25003,8 +25003,8 @@
         <v>81</v>
       </c>
       <c r="M372" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.788206682686</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45882.280310494025</v>
       </c>
       <c r="N372" s="2" t="s">
         <v>82</v>
@@ -25060,8 +25060,8 @@
         <v>81</v>
       </c>
       <c r="M373" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.547147019999</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45885.366895207182</v>
       </c>
       <c r="N373" s="2" t="s">
         <v>82</v>
@@ -25117,8 +25117,8 @@
         <v>903</v>
       </c>
       <c r="M374" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.598979060982</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45873.952777077466</v>
       </c>
       <c r="N374" s="2" t="s">
         <v>904</v>
@@ -25174,8 +25174,8 @@
         <v>18</v>
       </c>
       <c r="M375" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.054432947742</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45882.169048777294</v>
       </c>
       <c r="N375" s="2" t="s">
         <v>19</v>
@@ -25231,8 +25231,8 @@
         <v>18</v>
       </c>
       <c r="M376" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.412669490033</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45874.328496371912</v>
       </c>
       <c r="N376" s="2" t="s">
         <v>19</v>
@@ -25288,8 +25288,8 @@
         <v>18</v>
       </c>
       <c r="M377" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.708610458729</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45882.449466064601</v>
       </c>
       <c r="N377" s="2" t="s">
         <v>19</v>
@@ -25345,8 +25345,8 @@
         <v>18</v>
       </c>
       <c r="M378" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.316691301101</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45878.283790566951</v>
       </c>
       <c r="N378" s="2" t="s">
         <v>19</v>
@@ -25402,8 +25402,8 @@
         <v>18</v>
       </c>
       <c r="M379" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.046650386372</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45881.322746655394</v>
       </c>
       <c r="N379" s="2" t="s">
         <v>19</v>
@@ -25459,8 +25459,8 @@
         <v>18</v>
       </c>
       <c r="M380" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.347000081201</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45876.463739173611</v>
       </c>
       <c r="N380" s="2" t="s">
         <v>19</v>
@@ -25516,8 +25516,8 @@
         <v>18</v>
       </c>
       <c r="M381" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.030807460447</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45884.822653276278</v>
       </c>
       <c r="N381" s="2" t="s">
         <v>19</v>
@@ -25573,8 +25573,8 @@
         <v>18</v>
       </c>
       <c r="M382" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.206827290356</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45878.458329281108</v>
       </c>
       <c r="N382" s="2" t="s">
         <v>19</v>
@@ -25630,8 +25630,8 @@
         <v>18</v>
       </c>
       <c r="M383" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.369645368359</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45877.343662900043</v>
       </c>
       <c r="N383" s="2" t="s">
         <v>19</v>
@@ -25687,8 +25687,8 @@
         <v>18</v>
       </c>
       <c r="M384" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.723947643812</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45879.24704233557</v>
       </c>
       <c r="N384" s="2" t="s">
         <v>19</v>
@@ -25744,8 +25744,8 @@
         <v>493</v>
       </c>
       <c r="M385" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.629403488456</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45875.128566726606</v>
       </c>
       <c r="N385" s="2" t="s">
         <v>494</v>
@@ -25801,8 +25801,8 @@
         <v>493</v>
       </c>
       <c r="M386" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.265538462896</v>
+        <f t="shared" ref="M386:M449" ca="1" si="6">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45885.755070738604</v>
       </c>
       <c r="N386" s="2" t="s">
         <v>494</v>
@@ -25858,8 +25858,8 @@
         <v>493</v>
       </c>
       <c r="M387" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.819455012177</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45876.76874216889</v>
       </c>
       <c r="N387" s="2" t="s">
         <v>494</v>
@@ -25915,8 +25915,8 @@
         <v>493</v>
       </c>
       <c r="M388" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.924314358417</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45874.73098645157</v>
       </c>
       <c r="N388" s="2" t="s">
         <v>494</v>
@@ -25972,8 +25972,8 @@
         <v>493</v>
       </c>
       <c r="M389" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.887358735687</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45877.158343277857</v>
       </c>
       <c r="N389" s="2" t="s">
         <v>494</v>
@@ -26029,8 +26029,8 @@
         <v>493</v>
       </c>
       <c r="M390" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.297924732709</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45876.540997254488</v>
       </c>
       <c r="N390" s="2" t="s">
         <v>494</v>
@@ -26086,8 +26086,8 @@
         <v>493</v>
       </c>
       <c r="M391" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.802012591535</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45880.99036497582</v>
       </c>
       <c r="N391" s="2" t="s">
         <v>494</v>
@@ -26143,8 +26143,8 @@
         <v>493</v>
       </c>
       <c r="M392" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.216206968311</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45876.064414390414</v>
       </c>
       <c r="N392" s="2" t="s">
         <v>494</v>
@@ -26200,8 +26200,8 @@
         <v>493</v>
       </c>
       <c r="M393" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.57289139786</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45876.685470621771</v>
       </c>
       <c r="N393" s="2" t="s">
         <v>494</v>
@@ -26257,8 +26257,8 @@
         <v>493</v>
       </c>
       <c r="M394" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.910797053686</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45885.679833581606</v>
       </c>
       <c r="N394" s="2" t="s">
         <v>494</v>
@@ -26314,8 +26314,8 @@
         <v>493</v>
       </c>
       <c r="M395" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.042807587561</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45878.354021167972</v>
       </c>
       <c r="N395" s="2" t="s">
         <v>494</v>
@@ -26371,8 +26371,8 @@
         <v>493</v>
       </c>
       <c r="M396" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.06340570312</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45873.32267346431</v>
       </c>
       <c r="N396" s="2" t="s">
         <v>494</v>
@@ -26428,8 +26428,8 @@
         <v>493</v>
       </c>
       <c r="M397" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.013773394836</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45883.361071245075</v>
       </c>
       <c r="N397" s="2" t="s">
         <v>494</v>
@@ -26485,8 +26485,8 @@
         <v>553</v>
       </c>
       <c r="M398" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.435063752855</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45883.702312574285</v>
       </c>
       <c r="N398" s="2" t="s">
         <v>554</v>
@@ -26542,8 +26542,8 @@
         <v>553</v>
       </c>
       <c r="M399" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.130370172119</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45882.813170522706</v>
       </c>
       <c r="N399" s="2" t="s">
         <v>554</v>
@@ -26599,8 +26599,8 @@
         <v>553</v>
       </c>
       <c r="M400" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.989642445595</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45876.376090711092</v>
       </c>
       <c r="N400" s="2" t="s">
         <v>554</v>
@@ -26656,8 +26656,8 @@
         <v>553</v>
       </c>
       <c r="M401" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.242508067044</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45878.551669429566</v>
       </c>
       <c r="N401" s="2" t="s">
         <v>554</v>
@@ -26713,8 +26713,8 @@
         <v>553</v>
       </c>
       <c r="M402" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.265916548182</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45884.941068186476</v>
       </c>
       <c r="N402" s="2" t="s">
         <v>554</v>
@@ -26770,8 +26770,8 @@
         <v>553</v>
       </c>
       <c r="M403" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.775533921085</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45881.890552196128</v>
       </c>
       <c r="N403" s="2" t="s">
         <v>554</v>
@@ -26827,8 +26827,8 @@
         <v>553</v>
       </c>
       <c r="M404" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.710692184461</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45874.976509467342</v>
       </c>
       <c r="N404" s="2" t="s">
         <v>554</v>
@@ -26884,8 +26884,8 @@
         <v>553</v>
       </c>
       <c r="M405" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.032703829893</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45879.883752662114</v>
       </c>
       <c r="N405" s="2" t="s">
         <v>554</v>
@@ -26941,8 +26941,8 @@
         <v>553</v>
       </c>
       <c r="M406" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.897501474123</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45880.499194583601</v>
       </c>
       <c r="N406" s="2" t="s">
         <v>554</v>
@@ -26998,8 +26998,8 @@
         <v>553</v>
       </c>
       <c r="M407" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.9420218245</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45877.493394688267</v>
       </c>
       <c r="N407" s="2" t="s">
         <v>554</v>
@@ -27055,8 +27055,8 @@
         <v>553</v>
       </c>
       <c r="M408" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.52366794004</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45877.03838005224</v>
       </c>
       <c r="N408" s="2" t="s">
         <v>554</v>
@@ -27112,8 +27112,8 @@
         <v>553</v>
       </c>
       <c r="M409" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.563094896352</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45876.294070101503</v>
       </c>
       <c r="N409" s="2" t="s">
         <v>554</v>
@@ -27169,8 +27169,8 @@
         <v>553</v>
       </c>
       <c r="M410" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.515039008307</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45876.762291979372</v>
       </c>
       <c r="N410" s="2" t="s">
         <v>554</v>
@@ -27226,8 +27226,8 @@
         <v>553</v>
       </c>
       <c r="M411" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.51402200391</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45880.059141568046</v>
       </c>
       <c r="N411" s="2" t="s">
         <v>554</v>
@@ -27283,8 +27283,8 @@
         <v>553</v>
       </c>
       <c r="M412" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.255063806624</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45881.440241474309</v>
       </c>
       <c r="N412" s="2" t="s">
         <v>554</v>
@@ -27340,8 +27340,8 @@
         <v>553</v>
       </c>
       <c r="M413" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.069385951574</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45873.357291528715</v>
       </c>
       <c r="N413" s="2" t="s">
         <v>554</v>
@@ -27397,8 +27397,8 @@
         <v>489</v>
       </c>
       <c r="M414" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.789003841892</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45875.94146250769</v>
       </c>
       <c r="N414" s="2" t="s">
         <v>490</v>
@@ -27454,8 +27454,8 @@
         <v>531</v>
       </c>
       <c r="M415" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.60654466955</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45878.218961063081</v>
       </c>
       <c r="N415" s="2" t="s">
         <v>532</v>
@@ -27511,8 +27511,8 @@
         <v>531</v>
       </c>
       <c r="M416" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.735875085105</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45883.507452917307</v>
       </c>
       <c r="N416" s="2" t="s">
         <v>532</v>
@@ -27568,8 +27568,8 @@
         <v>531</v>
       </c>
       <c r="M417" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.900083550121</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45875.132467785988</v>
       </c>
       <c r="N417" s="2" t="s">
         <v>532</v>
@@ -27625,8 +27625,8 @@
         <v>531</v>
       </c>
       <c r="M418" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.303742196265</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45881.697630568829</v>
       </c>
       <c r="N418" s="2" t="s">
         <v>532</v>
@@ -27682,8 +27682,8 @@
         <v>531</v>
       </c>
       <c r="M419" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.044066410526</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45878.276816695172</v>
       </c>
       <c r="N419" s="2" t="s">
         <v>532</v>
@@ -27739,8 +27739,8 @@
         <v>531</v>
       </c>
       <c r="M420" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.112560266221</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45877.438711715862</v>
       </c>
       <c r="N420" s="2" t="s">
         <v>532</v>
@@ -27796,8 +27796,8 @@
         <v>531</v>
       </c>
       <c r="M421" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.500460368603</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45883.254252771068</v>
       </c>
       <c r="N421" s="2" t="s">
         <v>532</v>
@@ -27853,8 +27853,8 @@
         <v>531</v>
       </c>
       <c r="M422" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.607982288508</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45885.807356816265</v>
       </c>
       <c r="N422" s="2" t="s">
         <v>532</v>
@@ -27910,8 +27910,8 @@
         <v>531</v>
       </c>
       <c r="M423" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.797583313077</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45875.39907236932</v>
       </c>
       <c r="N423" s="2" t="s">
         <v>532</v>
@@ -27967,8 +27967,8 @@
         <v>531</v>
       </c>
       <c r="M424" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.464612295815</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45885.44986377607</v>
       </c>
       <c r="N424" s="2" t="s">
         <v>532</v>
@@ -28024,8 +28024,8 @@
         <v>531</v>
       </c>
       <c r="M425" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.512653275939</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45881.67814139033</v>
       </c>
       <c r="N425" s="2" t="s">
         <v>532</v>
@@ -28081,8 +28081,8 @@
         <v>531</v>
       </c>
       <c r="M426" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.206021789527</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45880.759611684305</v>
       </c>
       <c r="N426" s="2" t="s">
         <v>532</v>
@@ -28138,8 +28138,8 @@
         <v>531</v>
       </c>
       <c r="M427" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.550030833991</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45879.186045228256</v>
       </c>
       <c r="N427" s="2" t="s">
         <v>532</v>
@@ -28195,8 +28195,8 @@
         <v>531</v>
       </c>
       <c r="M428" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.634076490613</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45876.692381416571</v>
       </c>
       <c r="N428" s="2" t="s">
         <v>532</v>
@@ -28252,8 +28252,8 @@
         <v>531</v>
       </c>
       <c r="M429" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.77190658162</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45878.720352111435</v>
       </c>
       <c r="N429" s="2" t="s">
         <v>532</v>
@@ -28309,8 +28309,8 @@
         <v>531</v>
       </c>
       <c r="M430" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.520306043603</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45882.767042415879</v>
       </c>
       <c r="N430" s="2" t="s">
         <v>532</v>
@@ -28366,8 +28366,8 @@
         <v>531</v>
       </c>
       <c r="M431" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.55064337721</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45880.376143057154</v>
       </c>
       <c r="N431" s="2" t="s">
         <v>532</v>
@@ -28423,8 +28423,8 @@
         <v>531</v>
       </c>
       <c r="M432" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.841284723378</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45883.966671928967</v>
       </c>
       <c r="N432" s="2" t="s">
         <v>532</v>
@@ -28480,8 +28480,8 @@
         <v>531</v>
       </c>
       <c r="M433" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.409355694734</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45879.294869215533</v>
       </c>
       <c r="N433" s="2" t="s">
         <v>532</v>
@@ -28537,8 +28537,8 @@
         <v>531</v>
       </c>
       <c r="M434" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.253926659105</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45879.450304269434</v>
       </c>
       <c r="N434" s="2" t="s">
         <v>532</v>
@@ -28594,8 +28594,8 @@
         <v>384</v>
       </c>
       <c r="M435" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.195492301238</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45880.927511134061</v>
       </c>
       <c r="N435" s="2" t="s">
         <v>639</v>
@@ -28651,8 +28651,8 @@
         <v>384</v>
       </c>
       <c r="M436" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.064356011135</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45881.391379451998</v>
       </c>
       <c r="N436" s="2" t="s">
         <v>639</v>
@@ -28708,8 +28708,8 @@
         <v>384</v>
       </c>
       <c r="M437" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.436392792122</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45884.119822386361</v>
       </c>
       <c r="N437" s="2" t="s">
         <v>639</v>
@@ -28765,8 +28765,8 @@
         <v>384</v>
       </c>
       <c r="M438" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.737678778947</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45880.376536096061</v>
       </c>
       <c r="N438" s="2" t="s">
         <v>639</v>
@@ -28822,8 +28822,8 @@
         <v>384</v>
       </c>
       <c r="M439" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.399063134028</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45882.736290295965</v>
       </c>
       <c r="N439" s="2" t="s">
         <v>639</v>
@@ -28879,8 +28879,8 @@
         <v>384</v>
       </c>
       <c r="M440" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.56369830959</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45884.39799889594</v>
       </c>
       <c r="N440" s="2" t="s">
         <v>639</v>
@@ -28936,8 +28936,8 @@
         <v>384</v>
       </c>
       <c r="M441" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.547853716307</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45877.791449920245</v>
       </c>
       <c r="N441" s="2" t="s">
         <v>639</v>
@@ -28993,8 +28993,8 @@
         <v>384</v>
       </c>
       <c r="M442" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.273148375978</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45884.070692526591</v>
       </c>
       <c r="N442" s="2" t="s">
         <v>639</v>
@@ -29050,8 +29050,8 @@
         <v>384</v>
       </c>
       <c r="M443" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.604810259203</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45878.563964648165</v>
       </c>
       <c r="N443" s="2" t="s">
         <v>639</v>
@@ -29107,8 +29107,8 @@
         <v>384</v>
       </c>
       <c r="M444" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.557303313675</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45876.991796374496</v>
       </c>
       <c r="N444" s="2" t="s">
         <v>639</v>
@@ -29164,8 +29164,8 @@
         <v>384</v>
       </c>
       <c r="M445" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.836852983644</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45885.731811271893</v>
       </c>
       <c r="N445" s="2" t="s">
         <v>639</v>
@@ -29221,8 +29221,8 @@
         <v>384</v>
       </c>
       <c r="M446" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.040406525928</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45875.213931738275</v>
       </c>
       <c r="N446" s="2" t="s">
         <v>639</v>
@@ -29278,8 +29278,8 @@
         <v>384</v>
       </c>
       <c r="M447" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.74915415841</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45873.328725035994</v>
       </c>
       <c r="N447" s="2" t="s">
         <v>639</v>
@@ -29335,8 +29335,8 @@
         <v>384</v>
       </c>
       <c r="M448" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.951639030849</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45884.568941717531</v>
       </c>
       <c r="N448" s="2" t="s">
         <v>639</v>
@@ -29392,8 +29392,8 @@
         <v>384</v>
       </c>
       <c r="M449" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.56625289892</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45876.534946962638</v>
       </c>
       <c r="N449" s="2" t="s">
         <v>639</v>
@@ -29449,8 +29449,8 @@
         <v>384</v>
       </c>
       <c r="M450" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.67606043339</v>
+        <f t="shared" ref="M450:M513" ca="1" si="7">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.503436589432</v>
       </c>
       <c r="N450" s="2" t="s">
         <v>639</v>
@@ -29506,8 +29506,8 @@
         <v>384</v>
       </c>
       <c r="M451" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.885523811077</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45880.176128717183</v>
       </c>
       <c r="N451" s="2" t="s">
         <v>639</v>
@@ -29563,8 +29563,8 @@
         <v>384</v>
       </c>
       <c r="M452" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.856400660603</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45876.583706529265</v>
       </c>
       <c r="N452" s="2" t="s">
         <v>639</v>
@@ -29620,8 +29620,8 @@
         <v>384</v>
       </c>
       <c r="M453" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.119279979546</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45885.906741945953</v>
       </c>
       <c r="N453" s="2" t="s">
         <v>639</v>
@@ -29677,8 +29677,8 @@
         <v>384</v>
       </c>
       <c r="M454" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.764122323424</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45876.450899934905</v>
       </c>
       <c r="N454" s="2" t="s">
         <v>639</v>
@@ -29734,8 +29734,8 @@
         <v>384</v>
       </c>
       <c r="M455" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.405462391813</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45883.910075307467</v>
       </c>
       <c r="N455" s="2" t="s">
         <v>639</v>
@@ -29791,8 +29791,8 @@
         <v>384</v>
       </c>
       <c r="M456" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.9682476983</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45880.040446726322</v>
       </c>
       <c r="N456" s="2" t="s">
         <v>639</v>
@@ -29848,8 +29848,8 @@
         <v>384</v>
       </c>
       <c r="M457" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.24806296367</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45880.136865773326</v>
       </c>
       <c r="N457" s="2" t="s">
         <v>639</v>
@@ -29905,8 +29905,8 @@
         <v>749</v>
       </c>
       <c r="M458" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.581252869459</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45877.774284929365</v>
       </c>
       <c r="N458" s="2" t="s">
         <v>750</v>
@@ -29962,8 +29962,8 @@
         <v>749</v>
       </c>
       <c r="M459" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.424061844482</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45878.561543439071</v>
       </c>
       <c r="N459" s="2" t="s">
         <v>750</v>
@@ -30019,8 +30019,8 @@
         <v>749</v>
       </c>
       <c r="M460" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.644525092219</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45880.641581483898</v>
       </c>
       <c r="N460" s="2" t="s">
         <v>750</v>
@@ -30076,8 +30076,8 @@
         <v>749</v>
       </c>
       <c r="M461" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.133505121179</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45882.407164716278</v>
       </c>
       <c r="N461" s="2" t="s">
         <v>750</v>
@@ -30133,8 +30133,8 @@
         <v>749</v>
       </c>
       <c r="M462" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.384035423609</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45879.585968960731</v>
       </c>
       <c r="N462" s="2" t="s">
         <v>750</v>
@@ -30190,8 +30190,8 @@
         <v>749</v>
       </c>
       <c r="M463" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.744768539764</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45878.19496951469</v>
       </c>
       <c r="N463" s="2" t="s">
         <v>750</v>
@@ -30247,8 +30247,8 @@
         <v>749</v>
       </c>
       <c r="M464" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.016392946411</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45882.772040591131</v>
       </c>
       <c r="N464" s="2" t="s">
         <v>750</v>
@@ -30304,8 +30304,8 @@
         <v>749</v>
       </c>
       <c r="M465" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.283008031183</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45877.564772001933</v>
       </c>
       <c r="N465" s="2" t="s">
         <v>750</v>
@@ -30361,8 +30361,8 @@
         <v>749</v>
       </c>
       <c r="M466" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.700676335058</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45879.05768103421</v>
       </c>
       <c r="N466" s="2" t="s">
         <v>750</v>
@@ -30418,8 +30418,8 @@
         <v>749</v>
       </c>
       <c r="M467" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.257504727764</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45873.326175487651</v>
       </c>
       <c r="N467" s="2" t="s">
         <v>750</v>
@@ -30475,8 +30475,8 @@
         <v>749</v>
       </c>
       <c r="M468" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.778298403653</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45881.544561854273</v>
       </c>
       <c r="N468" s="2" t="s">
         <v>750</v>
@@ -30532,8 +30532,8 @@
         <v>749</v>
       </c>
       <c r="M469" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.879437242089</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45885.31932538507</v>
       </c>
       <c r="N469" s="2" t="s">
         <v>750</v>
@@ -30589,8 +30589,8 @@
         <v>749</v>
       </c>
       <c r="M470" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.000705481216</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45879.772508025919</v>
       </c>
       <c r="N470" s="2" t="s">
         <v>750</v>
@@ -30646,8 +30646,8 @@
         <v>749</v>
       </c>
       <c r="M471" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.647590477245</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45883.809292986312</v>
       </c>
       <c r="N471" s="2" t="s">
         <v>750</v>
@@ -30703,8 +30703,8 @@
         <v>749</v>
       </c>
       <c r="M472" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.20120376283</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45883.941246759015</v>
       </c>
       <c r="N472" s="2" t="s">
         <v>750</v>
@@ -30760,8 +30760,8 @@
         <v>749</v>
       </c>
       <c r="M473" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.388645276922</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45883.032826172406</v>
       </c>
       <c r="N473" s="2" t="s">
         <v>750</v>
@@ -30817,8 +30817,8 @@
         <v>749</v>
       </c>
       <c r="M474" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.544992066461</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45875.774548033391</v>
       </c>
       <c r="N474" s="2" t="s">
         <v>750</v>
@@ -30874,8 +30874,8 @@
         <v>201</v>
       </c>
       <c r="M475" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.165762215896</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45877.280442992524</v>
       </c>
       <c r="N475" s="2" t="s">
         <v>473</v>
@@ -30931,8 +30931,8 @@
         <v>92</v>
       </c>
       <c r="M476" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.991324690141</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45877.809374148528</v>
       </c>
       <c r="N476" s="2" t="s">
         <v>93</v>
@@ -30988,8 +30988,8 @@
         <v>92</v>
       </c>
       <c r="M477" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.260722747822</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45882.255837336896</v>
       </c>
       <c r="N477" s="2" t="s">
         <v>93</v>
@@ -31045,8 +31045,8 @@
         <v>92</v>
       </c>
       <c r="M478" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.168090067935</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45881.960801728957</v>
       </c>
       <c r="N478" s="2" t="s">
         <v>93</v>
@@ -31102,8 +31102,8 @@
         <v>92</v>
       </c>
       <c r="M479" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.838919795278</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45873.404418853213</v>
       </c>
       <c r="N479" s="2" t="s">
         <v>93</v>
@@ -31159,8 +31159,8 @@
         <v>92</v>
       </c>
       <c r="M480" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.963424116984</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45877.702602355785</v>
       </c>
       <c r="N480" s="2" t="s">
         <v>93</v>
@@ -31216,8 +31216,8 @@
         <v>92</v>
       </c>
       <c r="M481" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.003055190471</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45873.362190881919</v>
       </c>
       <c r="N481" s="2" t="s">
         <v>93</v>
@@ -31273,8 +31273,8 @@
         <v>92</v>
       </c>
       <c r="M482" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.773428660505</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45877.7531504535</v>
       </c>
       <c r="N482" s="2" t="s">
         <v>93</v>
@@ -31330,8 +31330,8 @@
         <v>92</v>
       </c>
       <c r="M483" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.110589843338</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45874.942411901829</v>
       </c>
       <c r="N483" s="2" t="s">
         <v>93</v>
@@ -31387,8 +31387,8 @@
         <v>92</v>
       </c>
       <c r="M484" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.800058385343</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45875.51202068822</v>
       </c>
       <c r="N484" s="2" t="s">
         <v>93</v>
@@ -31444,8 +31444,8 @@
         <v>92</v>
       </c>
       <c r="M485" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.340982682821</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45882.435258634534</v>
       </c>
       <c r="N485" s="2" t="s">
         <v>93</v>
@@ -31501,8 +31501,8 @@
         <v>92</v>
       </c>
       <c r="M486" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.204251108567</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45883.795048709915</v>
       </c>
       <c r="N486" s="2" t="s">
         <v>93</v>
@@ -31558,8 +31558,8 @@
         <v>92</v>
       </c>
       <c r="M487" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.335493736769</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45885.791242262319</v>
       </c>
       <c r="N487" s="2" t="s">
         <v>93</v>
@@ -31615,8 +31615,8 @@
         <v>92</v>
       </c>
       <c r="M488" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.359096359956</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45881.151086361773</v>
       </c>
       <c r="N488" s="2" t="s">
         <v>93</v>
@@ -31672,8 +31672,8 @@
         <v>92</v>
       </c>
       <c r="M489" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.131355096128</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45881.942161869425</v>
       </c>
       <c r="N489" s="2" t="s">
         <v>93</v>
@@ -31729,8 +31729,8 @@
         <v>92</v>
       </c>
       <c r="M490" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.917134490031</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45876.209374662161</v>
       </c>
       <c r="N490" s="2" t="s">
         <v>93</v>
@@ -31786,8 +31786,8 @@
         <v>92</v>
       </c>
       <c r="M491" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.894407737847</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45878.359303169389</v>
       </c>
       <c r="N491" s="2" t="s">
         <v>93</v>
@@ -31843,8 +31843,8 @@
         <v>92</v>
       </c>
       <c r="M492" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.271244193485</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45879.25735771739</v>
       </c>
       <c r="N492" s="2" t="s">
         <v>93</v>
@@ -31900,8 +31900,8 @@
         <v>92</v>
       </c>
       <c r="M493" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.6148988774</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45880.599276635869</v>
       </c>
       <c r="N493" s="2" t="s">
         <v>93</v>
@@ -31957,8 +31957,8 @@
         <v>92</v>
       </c>
       <c r="M494" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.312432746046</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45882.83018968664</v>
       </c>
       <c r="N494" s="2" t="s">
         <v>93</v>
@@ -32014,8 +32014,8 @@
         <v>92</v>
       </c>
       <c r="M495" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.80663379957</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45881.374100415167</v>
       </c>
       <c r="N495" s="2" t="s">
         <v>93</v>
@@ -32071,8 +32071,8 @@
         <v>92</v>
       </c>
       <c r="M496" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.953301274298</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45874.718685100401</v>
       </c>
       <c r="N496" s="2" t="s">
         <v>93</v>
@@ -32128,8 +32128,8 @@
         <v>67</v>
       </c>
       <c r="M497" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.870146714718</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45883.194753621239</v>
       </c>
       <c r="N497" s="2" t="s">
         <v>68</v>
@@ -32185,8 +32185,8 @@
         <v>67</v>
       </c>
       <c r="M498" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.004340131367</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45874.24309845399</v>
       </c>
       <c r="N498" s="2" t="s">
         <v>68</v>
@@ -32242,8 +32242,8 @@
         <v>67</v>
       </c>
       <c r="M499" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.370339654582</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45883.471992393454</v>
       </c>
       <c r="N499" s="2" t="s">
         <v>68</v>
@@ -32299,8 +32299,8 @@
         <v>67</v>
       </c>
       <c r="M500" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.941832402954</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45879.529336838001</v>
       </c>
       <c r="N500" s="2" t="s">
         <v>68</v>
@@ -32356,8 +32356,8 @@
         <v>67</v>
       </c>
       <c r="M501" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.31839031916</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45875.346583844985</v>
       </c>
       <c r="N501" s="2" t="s">
         <v>68</v>
@@ -32413,8 +32413,8 @@
         <v>67</v>
       </c>
       <c r="M502" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.572145395723</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45875.740918990166</v>
       </c>
       <c r="N502" s="2" t="s">
         <v>68</v>
@@ -32470,8 +32470,8 @@
         <v>67</v>
       </c>
       <c r="M503" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.120989405681</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45877.946273383728</v>
       </c>
       <c r="N503" s="2" t="s">
         <v>68</v>
@@ -32527,8 +32527,8 @@
         <v>67</v>
       </c>
       <c r="M504" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.719126551121</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45883.257657989867</v>
       </c>
       <c r="N504" s="2" t="s">
         <v>68</v>
@@ -32584,8 +32584,8 @@
         <v>67</v>
       </c>
       <c r="M505" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.307539665329</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45877.486964148622</v>
       </c>
       <c r="N505" s="2" t="s">
         <v>68</v>
@@ -32641,8 +32641,8 @@
         <v>67</v>
       </c>
       <c r="M506" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.217266962616</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45876.929905928147</v>
       </c>
       <c r="N506" s="2" t="s">
         <v>68</v>
@@ -32698,8 +32698,8 @@
         <v>67</v>
       </c>
       <c r="M507" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.322438592921</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45880.10684372051</v>
       </c>
       <c r="N507" s="2" t="s">
         <v>68</v>
@@ -32755,8 +32755,8 @@
         <v>67</v>
       </c>
       <c r="M508" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.203587773292</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45883.083142247473</v>
       </c>
       <c r="N508" s="2" t="s">
         <v>68</v>
@@ -32812,8 +32812,8 @@
         <v>796</v>
       </c>
       <c r="M509" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.889188766152</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45885.489230551815</v>
       </c>
       <c r="N509" s="2" t="s">
         <v>797</v>
@@ -32869,8 +32869,8 @@
         <v>796</v>
       </c>
       <c r="M510" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.533305524114</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45874.073428708114</v>
       </c>
       <c r="N510" s="2" t="s">
         <v>797</v>
@@ -32926,8 +32926,8 @@
         <v>796</v>
       </c>
       <c r="M511" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.322658951067</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45884.529276351648</v>
       </c>
       <c r="N511" s="2" t="s">
         <v>797</v>
@@ -32983,8 +32983,8 @@
         <v>796</v>
       </c>
       <c r="M512" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.010549253006</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45879.063169812034</v>
       </c>
       <c r="N512" s="2" t="s">
         <v>797</v>
@@ -33040,8 +33040,8 @@
         <v>796</v>
       </c>
       <c r="M513" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.971784264329</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45875.486175352773</v>
       </c>
       <c r="N513" s="2" t="s">
         <v>797</v>
@@ -33097,8 +33097,8 @@
         <v>796</v>
       </c>
       <c r="M514" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.156643047812</v>
+        <f t="shared" ref="M514:M577" ca="1" si="8">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45876.148091895389</v>
       </c>
       <c r="N514" s="2" t="s">
         <v>797</v>
@@ -33154,8 +33154,8 @@
         <v>796</v>
       </c>
       <c r="M515" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.570416101604</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45876.027984979526</v>
       </c>
       <c r="N515" s="2" t="s">
         <v>797</v>
@@ -33211,8 +33211,8 @@
         <v>796</v>
       </c>
       <c r="M516" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.018147874311</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45881.650905869399</v>
       </c>
       <c r="N516" s="2" t="s">
         <v>797</v>
@@ -33268,8 +33268,8 @@
         <v>796</v>
       </c>
       <c r="M517" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.92491112803</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45881.17711451299</v>
       </c>
       <c r="N517" s="2" t="s">
         <v>797</v>
@@ -33325,8 +33325,8 @@
         <v>0</v>
       </c>
       <c r="M518" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.365116024201</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45876.097959313076</v>
       </c>
       <c r="N518" s="2">
         <v>0</v>
@@ -33376,8 +33376,8 @@
         <v>509</v>
       </c>
       <c r="M519" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.71775552597</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45880.711856386995</v>
       </c>
       <c r="N519" s="2" t="s">
         <v>510</v>
@@ -33433,8 +33433,8 @@
         <v>509</v>
       </c>
       <c r="M520" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.85718753071</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45879.123464923097</v>
       </c>
       <c r="N520" s="2" t="s">
         <v>510</v>
@@ -33490,8 +33490,8 @@
         <v>509</v>
       </c>
       <c r="M521" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.888866202877</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45874.902936382736</v>
       </c>
       <c r="N521" s="2" t="s">
         <v>510</v>
@@ -33547,8 +33547,8 @@
         <v>476</v>
       </c>
       <c r="M522" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.567318617439</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45884.956337292439</v>
       </c>
       <c r="N522" s="2" t="s">
         <v>477</v>
@@ -33604,8 +33604,8 @@
         <v>476</v>
       </c>
       <c r="M523" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.873509336998</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45876.824219509312</v>
       </c>
       <c r="N523" s="2" t="s">
         <v>477</v>
@@ -33661,8 +33661,8 @@
         <v>476</v>
       </c>
       <c r="M524" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.050689942858</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45876.423730850722</v>
       </c>
       <c r="N524" s="2" t="s">
         <v>477</v>
@@ -33718,8 +33718,8 @@
         <v>476</v>
       </c>
       <c r="M525" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.619417457696</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45885.531866998288</v>
       </c>
       <c r="N525" s="2" t="s">
         <v>477</v>
@@ -33775,8 +33775,8 @@
         <v>466</v>
       </c>
       <c r="M526" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.735295051869</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45880.119810102609</v>
       </c>
       <c r="N526" s="2" t="s">
         <v>467</v>
@@ -33832,8 +33832,8 @@
         <v>466</v>
       </c>
       <c r="M527" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.135333464066</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45875.832254090012</v>
       </c>
       <c r="N527" s="2" t="s">
         <v>467</v>
@@ -33889,8 +33889,8 @@
         <v>466</v>
       </c>
       <c r="M528" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.466155723712</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45883.941966063227</v>
       </c>
       <c r="N528" s="2" t="s">
         <v>467</v>
@@ -33946,8 +33946,8 @@
         <v>466</v>
       </c>
       <c r="M529" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.376671892613</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45884.889248081745</v>
       </c>
       <c r="N529" s="2" t="s">
         <v>467</v>
@@ -34003,8 +34003,8 @@
         <v>466</v>
       </c>
       <c r="M530" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.795461151902</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45882.390250255892</v>
       </c>
       <c r="N530" s="2" t="s">
         <v>467</v>
@@ -34060,8 +34060,8 @@
         <v>591</v>
       </c>
       <c r="M531" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.816829431635</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45876.084386963979</v>
       </c>
       <c r="N531" s="2" t="s">
         <v>592</v>
@@ -34117,8 +34117,8 @@
         <v>591</v>
       </c>
       <c r="M532" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.930695017683</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45878.984873259396</v>
       </c>
       <c r="N532" s="2" t="s">
         <v>592</v>
@@ -34174,8 +34174,8 @@
         <v>591</v>
       </c>
       <c r="M533" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.486858292439</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45874.490851402137</v>
       </c>
       <c r="N533" s="2" t="s">
         <v>592</v>
@@ -34231,8 +34231,8 @@
         <v>591</v>
       </c>
       <c r="M534" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.880489059753</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45879.877396501797</v>
       </c>
       <c r="N534" s="2" t="s">
         <v>592</v>
@@ -34288,8 +34288,8 @@
         <v>591</v>
       </c>
       <c r="M535" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.537386867414</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45880.998176637295</v>
       </c>
       <c r="N535" s="2" t="s">
         <v>592</v>
@@ -34345,8 +34345,8 @@
         <v>591</v>
       </c>
       <c r="M536" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.619973672197</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45878.028630388435</v>
       </c>
       <c r="N536" s="2" t="s">
         <v>592</v>
@@ -34402,8 +34402,8 @@
         <v>591</v>
       </c>
       <c r="M537" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.965735932718</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45876.909765429453</v>
       </c>
       <c r="N537" s="2" t="s">
         <v>592</v>
@@ -34459,8 +34459,8 @@
         <v>591</v>
       </c>
       <c r="M538" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.115906417173</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45880.646158923701</v>
       </c>
       <c r="N538" s="2" t="s">
         <v>592</v>
@@ -34516,8 +34516,8 @@
         <v>591</v>
       </c>
       <c r="M539" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.539782539854</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45875.651769028111</v>
       </c>
       <c r="N539" s="2" t="s">
         <v>592</v>
@@ -34573,8 +34573,8 @@
         <v>591</v>
       </c>
       <c r="M540" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.30733819522</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45881.610438364267</v>
       </c>
       <c r="N540" s="2" t="s">
         <v>592</v>
@@ -34630,8 +34630,8 @@
         <v>591</v>
       </c>
       <c r="M541" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.711419554966</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45882.94257390163</v>
       </c>
       <c r="N541" s="2" t="s">
         <v>592</v>
@@ -34687,8 +34687,8 @@
         <v>591</v>
       </c>
       <c r="M542" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.121299939339</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45877.320706338673</v>
       </c>
       <c r="N542" s="2" t="s">
         <v>592</v>
@@ -34744,8 +34744,8 @@
         <v>591</v>
       </c>
       <c r="M543" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.982293842368</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45881.61125295252</v>
       </c>
       <c r="N543" s="2" t="s">
         <v>592</v>
@@ -34801,8 +34801,8 @@
         <v>591</v>
       </c>
       <c r="M544" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.459249418163</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45881.021966015993</v>
       </c>
       <c r="N544" s="2" t="s">
         <v>592</v>
@@ -34858,8 +34858,8 @@
         <v>591</v>
       </c>
       <c r="M545" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.4636504706</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45880.949559429639</v>
       </c>
       <c r="N545" s="2" t="s">
         <v>592</v>
@@ -34915,8 +34915,8 @@
         <v>591</v>
       </c>
       <c r="M546" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.629802799209</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45873.050251168577</v>
       </c>
       <c r="N546" s="2" t="s">
         <v>592</v>
@@ -34972,8 +34972,8 @@
         <v>591</v>
       </c>
       <c r="M547" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.738718841778</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45873.39310467516</v>
       </c>
       <c r="N547" s="2" t="s">
         <v>592</v>
@@ -35029,8 +35029,8 @@
         <v>716</v>
       </c>
       <c r="M548" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.59987640482</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45884.341033750818</v>
       </c>
       <c r="N548" s="2" t="s">
         <v>717</v>
@@ -35086,8 +35086,8 @@
         <v>716</v>
       </c>
       <c r="M549" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.904410264062</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45873.095342193919</v>
       </c>
       <c r="N549" s="2" t="s">
         <v>717</v>
@@ -35143,8 +35143,8 @@
         <v>716</v>
       </c>
       <c r="M550" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.241557142559</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45881.897003771766</v>
       </c>
       <c r="N550" s="2" t="s">
         <v>717</v>
@@ -35200,8 +35200,8 @@
         <v>716</v>
       </c>
       <c r="M551" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.56463831666</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45878.408930878933</v>
       </c>
       <c r="N551" s="2" t="s">
         <v>717</v>
@@ -35257,8 +35257,8 @@
         <v>716</v>
       </c>
       <c r="M552" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.449220425464</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45879.004689529174</v>
       </c>
       <c r="N552" s="2" t="s">
         <v>717</v>
@@ -35314,8 +35314,8 @@
         <v>716</v>
       </c>
       <c r="M553" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.13223914666</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45880.905850198513</v>
       </c>
       <c r="N553" s="2" t="s">
         <v>717</v>
@@ -35371,8 +35371,8 @@
         <v>716</v>
       </c>
       <c r="M554" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.581455814507</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45879.983658715311</v>
       </c>
       <c r="N554" s="2" t="s">
         <v>717</v>
@@ -35428,8 +35428,8 @@
         <v>716</v>
       </c>
       <c r="M555" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.70989402078</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45880.247183438449</v>
       </c>
       <c r="N555" s="2" t="s">
         <v>717</v>
@@ -35485,8 +35485,8 @@
         <v>716</v>
       </c>
       <c r="M556" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.62113671752</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45873.351695398014</v>
       </c>
       <c r="N556" s="2" t="s">
         <v>717</v>
@@ -35542,8 +35542,8 @@
         <v>716</v>
       </c>
       <c r="M557" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.637416811718</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45874.690141607964</v>
       </c>
       <c r="N557" s="2" t="s">
         <v>717</v>
@@ -35599,8 +35599,8 @@
         <v>716</v>
       </c>
       <c r="M558" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.358107497457</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45880.4388534479</v>
       </c>
       <c r="N558" s="2" t="s">
         <v>717</v>
@@ -35656,8 +35656,8 @@
         <v>769</v>
       </c>
       <c r="M559" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.237443821687</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45880.89846923991</v>
       </c>
       <c r="N559" s="2" t="s">
         <v>770</v>
@@ -35713,8 +35713,8 @@
         <v>769</v>
       </c>
       <c r="M560" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.95772674046</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45884.086984167952</v>
       </c>
       <c r="N560" s="2" t="s">
         <v>770</v>
@@ -35770,8 +35770,8 @@
         <v>769</v>
       </c>
       <c r="M561" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.131693936157</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45879.350426583762</v>
       </c>
       <c r="N561" s="2" t="s">
         <v>770</v>
@@ -35827,8 +35827,8 @@
         <v>769</v>
       </c>
       <c r="M562" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.026986633915</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45878.712147635459</v>
       </c>
       <c r="N562" s="2" t="s">
         <v>770</v>
@@ -35884,8 +35884,8 @@
         <v>769</v>
       </c>
       <c r="M563" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.89186115624</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45882.448582148187</v>
       </c>
       <c r="N563" s="2" t="s">
         <v>770</v>
@@ -35941,8 +35941,8 @@
         <v>769</v>
       </c>
       <c r="M564" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.217274324474</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45876.227641544137</v>
       </c>
       <c r="N564" s="2" t="s">
         <v>770</v>
@@ -35998,8 +35998,8 @@
         <v>769</v>
       </c>
       <c r="M565" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.757948300241</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45875.036005070433</v>
       </c>
       <c r="N565" s="2" t="s">
         <v>770</v>
@@ -36055,8 +36055,8 @@
         <v>769</v>
       </c>
       <c r="M566" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.658171519281</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45882.934204947807</v>
       </c>
       <c r="N566" s="2" t="s">
         <v>770</v>
@@ -36112,8 +36112,8 @@
         <v>769</v>
       </c>
       <c r="M567" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.366650414828</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45876.962535331877</v>
       </c>
       <c r="N567" s="2" t="s">
         <v>770</v>
@@ -36169,8 +36169,8 @@
         <v>769</v>
       </c>
       <c r="M568" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.146720488228</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45884.553316914789</v>
       </c>
       <c r="N568" s="2" t="s">
         <v>770</v>
@@ -36226,8 +36226,8 @@
         <v>769</v>
       </c>
       <c r="M569" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.498597644895</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45873.022682700328</v>
       </c>
       <c r="N569" s="2" t="s">
         <v>770</v>
@@ -36283,8 +36283,8 @@
         <v>769</v>
       </c>
       <c r="M570" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.40750768243</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45875.166460063636</v>
       </c>
       <c r="N570" s="2" t="s">
         <v>770</v>
@@ -36340,8 +36340,8 @@
         <v>612</v>
       </c>
       <c r="M571" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.668141788898</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45874.695591321717</v>
       </c>
       <c r="N571" s="2" t="s">
         <v>809</v>
@@ -36397,8 +36397,8 @@
         <v>612</v>
       </c>
       <c r="M572" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.662744454159</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45877.710717236499</v>
       </c>
       <c r="N572" s="2" t="s">
         <v>809</v>
@@ -36454,8 +36454,8 @@
         <v>612</v>
       </c>
       <c r="M573" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.528737455956</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45878.125300565218</v>
       </c>
       <c r="N573" s="2" t="s">
         <v>809</v>
@@ -36511,8 +36511,8 @@
         <v>612</v>
       </c>
       <c r="M574" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.306089402766</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45885.573025997961</v>
       </c>
       <c r="N574" s="2" t="s">
         <v>809</v>
@@ -36568,8 +36568,8 @@
         <v>612</v>
       </c>
       <c r="M575" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.312789980933</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45877.617131339815</v>
       </c>
       <c r="N575" s="2" t="s">
         <v>809</v>
@@ -36625,8 +36625,8 @@
         <v>612</v>
       </c>
       <c r="M576" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.843138972967</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45875.07399130609</v>
       </c>
       <c r="N576" s="2" t="s">
         <v>809</v>
@@ -36682,8 +36682,8 @@
         <v>612</v>
       </c>
       <c r="M577" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.664397921159</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45885.995053765066</v>
       </c>
       <c r="N577" s="2" t="s">
         <v>809</v>
@@ -36739,8 +36739,8 @@
         <v>612</v>
       </c>
       <c r="M578" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.545995786168</v>
+        <f t="shared" ref="M578:M641" ca="1" si="9">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45883.287904494027</v>
       </c>
       <c r="N578" s="2" t="s">
         <v>809</v>
@@ -36796,8 +36796,8 @@
         <v>612</v>
       </c>
       <c r="M579" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.016874846566</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45884.709909719342</v>
       </c>
       <c r="N579" s="2" t="s">
         <v>809</v>
@@ -36853,8 +36853,8 @@
         <v>612</v>
       </c>
       <c r="M580" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.856970620895</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45885.56199080839</v>
       </c>
       <c r="N580" s="2" t="s">
         <v>809</v>
@@ -36910,8 +36910,8 @@
         <v>612</v>
       </c>
       <c r="M581" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.880049939209</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45880.99161682219</v>
       </c>
       <c r="N581" s="2" t="s">
         <v>809</v>
@@ -36967,8 +36967,8 @@
         <v>612</v>
       </c>
       <c r="M582" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.503357201451</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45873.792170413988</v>
       </c>
       <c r="N582" s="2" t="s">
         <v>809</v>
@@ -37024,8 +37024,8 @@
         <v>612</v>
       </c>
       <c r="M583" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.917173042901</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45874.631861642323</v>
       </c>
       <c r="N583" s="2" t="s">
         <v>809</v>
@@ -37081,8 +37081,8 @@
         <v>612</v>
       </c>
       <c r="M584" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.117334978167</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45874.781991102966</v>
       </c>
       <c r="N584" s="2" t="s">
         <v>809</v>
@@ -37138,8 +37138,8 @@
         <v>612</v>
       </c>
       <c r="M585" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.454191077399</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45881.926039366706</v>
       </c>
       <c r="N585" s="2" t="s">
         <v>809</v>
@@ -37195,8 +37195,8 @@
         <v>612</v>
       </c>
       <c r="M586" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.970092382129</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45875.905801414716</v>
       </c>
       <c r="N586" s="2" t="s">
         <v>809</v>
@@ -37252,8 +37252,8 @@
         <v>612</v>
       </c>
       <c r="M587" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.636373358859</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45873.128022314253</v>
       </c>
       <c r="N587" s="2" t="s">
         <v>809</v>
@@ -37309,8 +37309,8 @@
         <v>612</v>
       </c>
       <c r="M588" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.543713544655</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45879.76113402917</v>
       </c>
       <c r="N588" s="2" t="s">
         <v>809</v>
@@ -37366,8 +37366,8 @@
         <v>612</v>
       </c>
       <c r="M589" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.152166197113</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45873.390738384864</v>
       </c>
       <c r="N589" s="2" t="s">
         <v>809</v>
@@ -37423,8 +37423,8 @@
         <v>612</v>
       </c>
       <c r="M590" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.882964134966</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45885.933659252456</v>
       </c>
       <c r="N590" s="2" t="s">
         <v>809</v>
@@ -37480,8 +37480,8 @@
         <v>612</v>
       </c>
       <c r="M591" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.302814422095</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45885.031845817372</v>
       </c>
       <c r="N591" s="2" t="s">
         <v>809</v>
@@ -37537,8 +37537,8 @@
         <v>612</v>
       </c>
       <c r="M592" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.602825407572</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45881.698702720001</v>
       </c>
       <c r="N592" s="2" t="s">
         <v>809</v>
@@ -37594,8 +37594,8 @@
         <v>867</v>
       </c>
       <c r="M593" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.698778717226</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45875.971525578389</v>
       </c>
       <c r="N593" s="2" t="s">
         <v>868</v>
@@ -37651,8 +37651,8 @@
         <v>867</v>
       </c>
       <c r="M594" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.298530035492</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45874.12178699005</v>
       </c>
       <c r="N594" s="2" t="s">
         <v>868</v>
@@ -37708,8 +37708,8 @@
         <v>867</v>
       </c>
       <c r="M595" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.369773348721</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45884.817932915103</v>
       </c>
       <c r="N595" s="2" t="s">
         <v>868</v>
@@ -37765,8 +37765,8 @@
         <v>867</v>
       </c>
       <c r="M596" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.342130970901</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45873.241619243432</v>
       </c>
       <c r="N596" s="2" t="s">
         <v>868</v>
@@ -37822,8 +37822,8 @@
         <v>867</v>
       </c>
       <c r="M597" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.105381880967</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45885.042951788797</v>
       </c>
       <c r="N597" s="2" t="s">
         <v>868</v>
@@ -37879,8 +37879,8 @@
         <v>867</v>
       </c>
       <c r="M598" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.933217587684</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45882.097200723634</v>
       </c>
       <c r="N598" s="2" t="s">
         <v>868</v>
@@ -37936,8 +37936,8 @@
         <v>867</v>
       </c>
       <c r="M599" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.645476150261</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45874.09748086035</v>
       </c>
       <c r="N599" s="2" t="s">
         <v>868</v>
@@ -37993,8 +37993,8 @@
         <v>867</v>
       </c>
       <c r="M600" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.386718639085</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45876.643359553687</v>
       </c>
       <c r="N600" s="2" t="s">
         <v>868</v>
@@ -38050,8 +38050,8 @@
         <v>867</v>
       </c>
       <c r="M601" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.32370523319</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45875.027352690886</v>
       </c>
       <c r="N601" s="2" t="s">
         <v>868</v>
@@ -38107,8 +38107,8 @@
         <v>867</v>
       </c>
       <c r="M602" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.713412647281</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45880.090192727053</v>
       </c>
       <c r="N602" s="2" t="s">
         <v>868</v>
@@ -38164,8 +38164,8 @@
         <v>867</v>
       </c>
       <c r="M603" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.585038496123</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45877.207300632203</v>
       </c>
       <c r="N603" s="2" t="s">
         <v>868</v>
@@ -38221,8 +38221,8 @@
         <v>33</v>
       </c>
       <c r="M604" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.753031158267</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45881.991399604231</v>
       </c>
       <c r="N604" s="2" t="s">
         <v>34</v>
@@ -38278,8 +38278,8 @@
         <v>33</v>
       </c>
       <c r="M605" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.173395664504</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45877.637637611442</v>
       </c>
       <c r="N605" s="2" t="s">
         <v>34</v>
@@ -38335,8 +38335,8 @@
         <v>33</v>
       </c>
       <c r="M606" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.366273637519</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45874.799182107461</v>
       </c>
       <c r="N606" s="2" t="s">
         <v>34</v>
@@ -38392,8 +38392,8 @@
         <v>33</v>
       </c>
       <c r="M607" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.62420540383</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45877.150130409085</v>
       </c>
       <c r="N607" s="2" t="s">
         <v>34</v>
@@ -38449,8 +38449,8 @@
         <v>33</v>
       </c>
       <c r="M608" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.95361097432</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45874.170965093173</v>
       </c>
       <c r="N608" s="2" t="s">
         <v>34</v>
@@ -38506,8 +38506,8 @@
         <v>33</v>
       </c>
       <c r="M609" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.439005368913</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45876.120376147577</v>
       </c>
       <c r="N609" s="2" t="s">
         <v>34</v>
@@ -38563,8 +38563,8 @@
         <v>33</v>
       </c>
       <c r="M610" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.344940267896</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45876.631176347699</v>
       </c>
       <c r="N610" s="2" t="s">
         <v>34</v>
@@ -38620,8 +38620,8 @@
         <v>33</v>
       </c>
       <c r="M611" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.07135807578</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45883.199452554269</v>
       </c>
       <c r="N611" s="2" t="s">
         <v>34</v>
@@ -38677,8 +38677,8 @@
         <v>33</v>
       </c>
       <c r="M612" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.183040282791</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45878.60204868533</v>
       </c>
       <c r="N612" s="2" t="s">
         <v>34</v>
@@ -38734,8 +38734,8 @@
         <v>33</v>
       </c>
       <c r="M613" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.056315935784</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45885.574926355235</v>
       </c>
       <c r="N613" s="2" t="s">
         <v>34</v>
@@ -38791,8 +38791,8 @@
         <v>33</v>
       </c>
       <c r="M614" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.024965044984</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45882.131969903916</v>
       </c>
       <c r="N614" s="2" t="s">
         <v>34</v>
@@ -38848,8 +38848,8 @@
         <v>33</v>
       </c>
       <c r="M615" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.58129631765</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45873.953148570297</v>
       </c>
       <c r="N615" s="2" t="s">
         <v>34</v>
@@ -38905,8 +38905,8 @@
         <v>33</v>
       </c>
       <c r="M616" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.514594676766</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45877.798365951465</v>
       </c>
       <c r="N616" s="2" t="s">
         <v>34</v>
@@ -38962,8 +38962,8 @@
         <v>33</v>
       </c>
       <c r="M617" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.751779360478</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45884.99290474494</v>
       </c>
       <c r="N617" s="2" t="s">
         <v>34</v>
@@ -39019,8 +39019,8 @@
         <v>33</v>
       </c>
       <c r="M618" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.521436237555</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45876.118182649123</v>
       </c>
       <c r="N618" s="2" t="s">
         <v>34</v>
@@ -39076,8 +39076,8 @@
         <v>33</v>
       </c>
       <c r="M619" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.22857929649</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45874.106845036025</v>
       </c>
       <c r="N619" s="2" t="s">
         <v>34</v>
@@ -39133,8 +39133,8 @@
         <v>148</v>
       </c>
       <c r="M620" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.762273463908</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45877.474052253106</v>
       </c>
       <c r="N620" s="2" t="s">
         <v>149</v>
@@ -39190,8 +39190,8 @@
         <v>148</v>
       </c>
       <c r="M621" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.027800526499</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45882.254444676611</v>
       </c>
       <c r="N621" s="2" t="s">
         <v>149</v>
@@ -39247,8 +39247,8 @@
         <v>148</v>
       </c>
       <c r="M622" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.798147067282</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45882.871280051899</v>
       </c>
       <c r="N622" s="2" t="s">
         <v>149</v>
@@ -39304,8 +39304,8 @@
         <v>148</v>
       </c>
       <c r="M623" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.405011072973</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45873.557270974881</v>
       </c>
       <c r="N623" s="2" t="s">
         <v>149</v>
@@ -39361,8 +39361,8 @@
         <v>148</v>
       </c>
       <c r="M624" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.930466982267</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45875.436033943733</v>
       </c>
       <c r="N624" s="2" t="s">
         <v>149</v>
@@ -39418,8 +39418,8 @@
         <v>148</v>
       </c>
       <c r="M625" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.557347840913</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45877.650672134943</v>
       </c>
       <c r="N625" s="2" t="s">
         <v>149</v>
@@ -39475,8 +39475,8 @@
         <v>148</v>
       </c>
       <c r="M626" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.57326253903</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45873.496638636323</v>
       </c>
       <c r="N626" s="2" t="s">
         <v>149</v>
@@ -39532,8 +39532,8 @@
         <v>148</v>
       </c>
       <c r="M627" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.251370997707</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45885.869169631929</v>
       </c>
       <c r="N627" s="2" t="s">
         <v>149</v>
@@ -39589,8 +39589,8 @@
         <v>148</v>
       </c>
       <c r="M628" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.361994880455</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45875.805613313263</v>
       </c>
       <c r="N628" s="2" t="s">
         <v>149</v>
@@ -39646,8 +39646,8 @@
         <v>148</v>
       </c>
       <c r="M629" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.066473095292</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45876.085478898895</v>
       </c>
       <c r="N629" s="2" t="s">
         <v>149</v>
@@ -39703,8 +39703,8 @@
         <v>148</v>
       </c>
       <c r="M630" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.872213140748</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45883.045206841634</v>
       </c>
       <c r="N630" s="2" t="s">
         <v>149</v>
@@ -39760,8 +39760,8 @@
         <v>148</v>
       </c>
       <c r="M631" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.976904039089</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45874.548047813209</v>
       </c>
       <c r="N631" s="2" t="s">
         <v>149</v>
@@ -39817,8 +39817,8 @@
         <v>148</v>
       </c>
       <c r="M632" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.640448424652</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45876.01081711211</v>
       </c>
       <c r="N632" s="2" t="s">
         <v>149</v>
@@ -39874,8 +39874,8 @@
         <v>148</v>
       </c>
       <c r="M633" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.494836996259</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45876.692943022834</v>
       </c>
       <c r="N633" s="2" t="s">
         <v>149</v>
@@ -39931,8 +39931,8 @@
         <v>148</v>
       </c>
       <c r="M634" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.006150203619</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45883.330068928299</v>
       </c>
       <c r="N634" s="2" t="s">
         <v>149</v>
@@ -39988,8 +39988,8 @@
         <v>148</v>
       </c>
       <c r="M635" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.066543032088</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45876.573163860958</v>
       </c>
       <c r="N635" s="2" t="s">
         <v>149</v>
@@ -40045,8 +40045,8 @@
         <v>148</v>
       </c>
       <c r="M636" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.284669297485</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45883.946294816204</v>
       </c>
       <c r="N636" s="2" t="s">
         <v>149</v>
@@ -40102,8 +40102,8 @@
         <v>148</v>
       </c>
       <c r="M637" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.105856603048</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45873.776277067736</v>
       </c>
       <c r="N637" s="2" t="s">
         <v>149</v>
@@ -40159,8 +40159,8 @@
         <v>148</v>
       </c>
       <c r="M638" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.339509629521</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45882.647982408067</v>
       </c>
       <c r="N638" s="2" t="s">
         <v>149</v>
@@ -40216,8 +40216,8 @@
         <v>148</v>
       </c>
       <c r="M639" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.078574684776</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45882.486658357564</v>
       </c>
       <c r="N639" s="2" t="s">
         <v>149</v>
@@ -40273,8 +40273,8 @@
         <v>148</v>
       </c>
       <c r="M640" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.031131809315</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45877.26500974864</v>
       </c>
       <c r="N640" s="2" t="s">
         <v>149</v>
@@ -40330,8 +40330,8 @@
         <v>53</v>
       </c>
       <c r="M641" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.440042864233</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45879.288796556772</v>
       </c>
       <c r="N641" s="2" t="s">
         <v>54</v>
@@ -40387,8 +40387,8 @@
         <v>53</v>
       </c>
       <c r="M642" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.39938827874</v>
+        <f t="shared" ref="M642:M701" ca="1" si="10">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
+        <v>45882.613468225398</v>
       </c>
       <c r="N642" s="2" t="s">
         <v>54</v>
@@ -40444,8 +40444,8 @@
         <v>53</v>
       </c>
       <c r="M643" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.490851315662</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45879.592961137518</v>
       </c>
       <c r="N643" s="2" t="s">
         <v>54</v>
@@ -40501,8 +40501,8 @@
         <v>53</v>
       </c>
       <c r="M644" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.905857530197</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45881.07432506865</v>
       </c>
       <c r="N644" s="2" t="s">
         <v>54</v>
@@ -40558,8 +40558,8 @@
         <v>53</v>
       </c>
       <c r="M645" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.816530497017</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45880.781270300642</v>
       </c>
       <c r="N645" s="2" t="s">
         <v>54</v>
@@ -40615,8 +40615,8 @@
         <v>53</v>
       </c>
       <c r="M646" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.142005938658</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45880.741016990687</v>
       </c>
       <c r="N646" s="2" t="s">
         <v>54</v>
@@ -40672,8 +40672,8 @@
         <v>53</v>
       </c>
       <c r="M647" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.777549502091</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45885.169952485339</v>
       </c>
       <c r="N647" s="2" t="s">
         <v>54</v>
@@ -40729,8 +40729,8 @@
         <v>53</v>
       </c>
       <c r="M648" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.493662302761</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45878.178543116454</v>
       </c>
       <c r="N648" s="2" t="s">
         <v>54</v>
@@ -40786,8 +40786,8 @@
         <v>53</v>
       </c>
       <c r="M649" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.852083356847</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45884.05280948829</v>
       </c>
       <c r="N649" s="2" t="s">
         <v>54</v>
@@ -40843,8 +40843,8 @@
         <v>53</v>
       </c>
       <c r="M650" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.262403893452</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45882.296204161074</v>
       </c>
       <c r="N650" s="2" t="s">
         <v>54</v>
@@ -40900,8 +40900,8 @@
         <v>53</v>
       </c>
       <c r="M651" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.038675943644</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45884.200999072855</v>
       </c>
       <c r="N651" s="2" t="s">
         <v>54</v>
@@ -40957,8 +40957,8 @@
         <v>573</v>
       </c>
       <c r="M652" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.664267068074</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45877.950904554658</v>
       </c>
       <c r="N652" s="2" t="s">
         <v>574</v>
@@ -41014,8 +41014,8 @@
         <v>573</v>
       </c>
       <c r="M653" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.805769000799</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45877.956479032902</v>
       </c>
       <c r="N653" s="2" t="s">
         <v>574</v>
@@ -41071,8 +41071,8 @@
         <v>573</v>
       </c>
       <c r="M654" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.63870608779</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45875.787224474363</v>
       </c>
       <c r="N654" s="2" t="s">
         <v>574</v>
@@ -41128,8 +41128,8 @@
         <v>573</v>
       </c>
       <c r="M655" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.53764271531</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45873.425174794393</v>
       </c>
       <c r="N655" s="2" t="s">
         <v>574</v>
@@ -41185,8 +41185,8 @@
         <v>573</v>
       </c>
       <c r="M656" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.863673728018</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45885.715717197229</v>
       </c>
       <c r="N656" s="2" t="s">
         <v>574</v>
@@ -41242,8 +41242,8 @@
         <v>573</v>
       </c>
       <c r="M657" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.870476445329</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45880.148594210288</v>
       </c>
       <c r="N657" s="2" t="s">
         <v>574</v>
@@ -41299,8 +41299,8 @@
         <v>573</v>
       </c>
       <c r="M658" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.760867463687</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45883.898106630972</v>
       </c>
       <c r="N658" s="2" t="s">
         <v>574</v>
@@ -41356,8 +41356,8 @@
         <v>573</v>
       </c>
       <c r="M659" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.249430972348</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45873.855047485464</v>
       </c>
       <c r="N659" s="2" t="s">
         <v>574</v>
@@ -41413,8 +41413,8 @@
         <v>573</v>
       </c>
       <c r="M660" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.228721513318</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45881.286110350433</v>
       </c>
       <c r="N660" s="2" t="s">
         <v>574</v>
@@ -41470,8 +41470,8 @@
         <v>573</v>
       </c>
       <c r="M661" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.119305170563</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45883.059154527044</v>
       </c>
       <c r="N661" s="2" t="s">
         <v>574</v>
@@ -41527,8 +41527,8 @@
         <v>573</v>
       </c>
       <c r="M662" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.685301952886</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45883.030980962343</v>
       </c>
       <c r="N662" s="2" t="s">
         <v>574</v>
@@ -41584,8 +41584,8 @@
         <v>573</v>
       </c>
       <c r="M663" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.418509811192</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45877.942704100882</v>
       </c>
       <c r="N663" s="2" t="s">
         <v>574</v>
@@ -41641,8 +41641,8 @@
         <v>573</v>
       </c>
       <c r="M664" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.772603201302</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45881.35873048348</v>
       </c>
       <c r="N664" s="2" t="s">
         <v>574</v>
@@ -41698,8 +41698,8 @@
         <v>573</v>
       </c>
       <c r="M665" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.994898120436</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45877.717662492934</v>
       </c>
       <c r="N665" s="2" t="s">
         <v>574</v>
@@ -41755,8 +41755,8 @@
         <v>444</v>
       </c>
       <c r="M666" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45885.236504908033</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45874.751016247836</v>
       </c>
       <c r="N666" s="2" t="s">
         <v>445</v>
@@ -41812,8 +41812,8 @@
         <v>444</v>
       </c>
       <c r="M667" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.844658522648</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45882.085244215901</v>
       </c>
       <c r="N667" s="2" t="s">
         <v>445</v>
@@ -41869,8 +41869,8 @@
         <v>444</v>
       </c>
       <c r="M668" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.596028296139</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45873.722528009312</v>
       </c>
       <c r="N668" s="2" t="s">
         <v>445</v>
@@ -41926,8 +41926,8 @@
         <v>444</v>
       </c>
       <c r="M669" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.129136283678</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45874.408935116393</v>
       </c>
       <c r="N669" s="2" t="s">
         <v>445</v>
@@ -41983,8 +41983,8 @@
         <v>444</v>
       </c>
       <c r="M670" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.984849207191</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45880.911676821408</v>
       </c>
       <c r="N670" s="2" t="s">
         <v>445</v>
@@ -42040,8 +42040,8 @@
         <v>444</v>
       </c>
       <c r="M671" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.16672248688</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45874.431153048383</v>
       </c>
       <c r="N671" s="2" t="s">
         <v>445</v>
@@ -42097,8 +42097,8 @@
         <v>444</v>
       </c>
       <c r="M672" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.570646920489</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45874.976218341901</v>
       </c>
       <c r="N672" s="2" t="s">
         <v>445</v>
@@ -42154,8 +42154,8 @@
         <v>444</v>
       </c>
       <c r="M673" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.003887196573</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45875.424411865912</v>
       </c>
       <c r="N673" s="2" t="s">
         <v>445</v>
@@ -42211,8 +42211,8 @@
         <v>444</v>
       </c>
       <c r="M674" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.188330128607</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45885.640371953399</v>
       </c>
       <c r="N674" s="2" t="s">
         <v>445</v>
@@ -42268,8 +42268,8 @@
         <v>444</v>
       </c>
       <c r="M675" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45874.741620426212</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45880.039289656859</v>
       </c>
       <c r="N675" s="2" t="s">
         <v>445</v>
@@ -42325,8 +42325,8 @@
         <v>444</v>
       </c>
       <c r="M676" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.966165860453</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45875.867597403812</v>
       </c>
       <c r="N676" s="2" t="s">
         <v>445</v>
@@ -42382,8 +42382,8 @@
         <v>260</v>
       </c>
       <c r="M677" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.372897012057</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45876.936939522719</v>
       </c>
       <c r="N677" s="2" t="s">
         <v>261</v>
@@ -42439,8 +42439,8 @@
         <v>260</v>
       </c>
       <c r="M678" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.487792361593</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45880.138934018156</v>
       </c>
       <c r="N678" s="2" t="s">
         <v>261</v>
@@ -42496,8 +42496,8 @@
         <v>260</v>
       </c>
       <c r="M679" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.192910674836</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45883.101929282813</v>
       </c>
       <c r="N679" s="2" t="s">
         <v>261</v>
@@ -42553,8 +42553,8 @@
         <v>260</v>
       </c>
       <c r="M680" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.435974566812</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45879.442517099116</v>
       </c>
       <c r="N680" s="2" t="s">
         <v>261</v>
@@ -42610,8 +42610,8 @@
         <v>260</v>
       </c>
       <c r="M681" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.625306559741</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45882.644347112517</v>
       </c>
       <c r="N681" s="2" t="s">
         <v>261</v>
@@ -42667,8 +42667,8 @@
         <v>260</v>
       </c>
       <c r="M682" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.572564918839</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45885.09115786777</v>
       </c>
       <c r="N682" s="2" t="s">
         <v>261</v>
@@ -42724,8 +42724,8 @@
         <v>260</v>
       </c>
       <c r="M683" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.61360621381</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45881.953737909156</v>
       </c>
       <c r="N683" s="2" t="s">
         <v>261</v>
@@ -42781,8 +42781,8 @@
         <v>260</v>
       </c>
       <c r="M684" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45880.727013658143</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45873.713150176183</v>
       </c>
       <c r="N684" s="2" t="s">
         <v>261</v>
@@ -42838,8 +42838,8 @@
         <v>273</v>
       </c>
       <c r="M685" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.37647632655</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45875.681704093055</v>
       </c>
       <c r="N685" s="2" t="s">
         <v>274</v>
@@ -42895,8 +42895,8 @@
         <v>273</v>
       </c>
       <c r="M686" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.900976591132</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45876.939639457254</v>
       </c>
       <c r="N686" s="2" t="s">
         <v>274</v>
@@ -42952,8 +42952,8 @@
         <v>273</v>
       </c>
       <c r="M687" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45875.885028263743</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45881.844977108558</v>
       </c>
       <c r="N687" s="2" t="s">
         <v>274</v>
@@ -43009,8 +43009,8 @@
         <v>273</v>
       </c>
       <c r="M688" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45882.028400977055</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45882.606832240279</v>
       </c>
       <c r="N688" s="2" t="s">
         <v>274</v>
@@ -43066,8 +43066,8 @@
         <v>273</v>
       </c>
       <c r="M689" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45884.139460809129</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45884.047522247936</v>
       </c>
       <c r="N689" s="2" t="s">
         <v>274</v>
@@ -43123,8 +43123,8 @@
         <v>273</v>
       </c>
       <c r="M690" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.491163434555</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45883.36692471234</v>
       </c>
       <c r="N690" s="2" t="s">
         <v>274</v>
@@ -43180,8 +43180,8 @@
         <v>273</v>
       </c>
       <c r="M691" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45878.84226522439</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45883.117084957878</v>
       </c>
       <c r="N691" s="2" t="s">
         <v>274</v>
@@ -43237,8 +43237,8 @@
         <v>273</v>
       </c>
       <c r="M692" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.434580714114</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45885.234856819072</v>
       </c>
       <c r="N692" s="2" t="s">
         <v>274</v>
@@ -43294,8 +43294,8 @@
         <v>273</v>
       </c>
       <c r="M693" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45881.547800771135</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45879.842004210797</v>
       </c>
       <c r="N693" s="2" t="s">
         <v>274</v>
@@ -43351,8 +43351,8 @@
         <v>273</v>
       </c>
       <c r="M694" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.196419545136</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45885.798590901803</v>
       </c>
       <c r="N694" s="2" t="s">
         <v>274</v>
@@ -43408,8 +43408,8 @@
         <v>273</v>
       </c>
       <c r="M695" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45876.132168642864</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45879.781286737809</v>
       </c>
       <c r="N695" s="2" t="s">
         <v>274</v>
@@ -43465,8 +43465,8 @@
         <v>273</v>
       </c>
       <c r="M696" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.518307878978</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45885.114898830929</v>
       </c>
       <c r="N696" s="2" t="s">
         <v>274</v>
@@ -43522,8 +43522,8 @@
         <v>181</v>
       </c>
       <c r="M697" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.200395608888</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45873.418833811062</v>
       </c>
       <c r="N697" s="2" t="s">
         <v>182</v>
@@ -43579,8 +43579,8 @@
         <v>181</v>
       </c>
       <c r="M698" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45873.429369573154</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45874.26696858045</v>
       </c>
       <c r="N698" s="2" t="s">
         <v>182</v>
@@ -43636,8 +43636,8 @@
         <v>181</v>
       </c>
       <c r="M699" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45879.803377603217</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45873.953367194503</v>
       </c>
       <c r="N699" s="2" t="s">
         <v>182</v>
@@ -43693,8 +43693,8 @@
         <v>181</v>
       </c>
       <c r="M700" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45877.5167131407</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45884.791372122745</v>
       </c>
       <c r="N700" s="2" t="s">
         <v>182</v>
@@ -43750,8 +43750,8 @@
         <v>181</v>
       </c>
       <c r="M701" s="3">
-        <f ca="1">DATE(2025,8,9) + RANDBETWEEN(-5,7) + RAND()</f>
-        <v>45883.148723371371</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45878.79273586972</v>
       </c>
       <c r="N701" s="2" t="s">
         <v>182</v>
@@ -45839,7 +45839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723F9AEC-0A63-4794-9C16-93C59AE1C0EB}">
   <dimension ref="A1:R79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -45950,11 +45950,11 @@
       </c>
       <c r="M2" s="3">
         <f ca="1">DATE(2025,7,25) + RANDBETWEEN(-5,5) + RAND()</f>
-        <v>45865.05939698757</v>
+        <v>45860.836009955783</v>
       </c>
       <c r="N2" s="3">
         <f ca="1">DATE(2025,8,5) + RANDBETWEEN(-5,5) + RAND()</f>
-        <v>45879.642293674282</v>
+        <v>45876.163989697896</v>
       </c>
       <c r="O2" s="2">
         <v>85331</v>
@@ -46002,11 +46002,11 @@
       </c>
       <c r="M3" s="3">
         <f t="shared" ref="M3:M66" ca="1" si="0">DATE(2025,7,25) + RANDBETWEEN(-5,5) + RAND()</f>
-        <v>45865.084374449914</v>
+        <v>45864.800705702808</v>
       </c>
       <c r="N3" s="3">
         <f t="shared" ref="N3:N66" ca="1" si="1">DATE(2025,8,5) + RANDBETWEEN(-5,5) + RAND()</f>
-        <v>45869.400928326068</v>
+        <v>45876.970255722605</v>
       </c>
       <c r="O3" s="2">
         <v>9173</v>
@@ -46054,11 +46054,11 @@
       </c>
       <c r="M4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45864.150231339612</v>
+        <v>45866.509618185119</v>
       </c>
       <c r="N4" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45877.187693792119</v>
+        <v>45873.579544214037</v>
       </c>
       <c r="O4" s="2">
         <v>9173</v>
@@ -46106,11 +46106,11 @@
       </c>
       <c r="M5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45868.155196364969</v>
+        <v>45866.474206524916</v>
       </c>
       <c r="N5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45874.194235066854</v>
+        <v>45869.243619906461</v>
       </c>
       <c r="O5" s="2">
         <v>9173</v>
@@ -46158,11 +46158,11 @@
       </c>
       <c r="M6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45867.325865803083</v>
+        <v>45858.889673400066</v>
       </c>
       <c r="N6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45869.384719243149</v>
+        <v>45874.314639743359</v>
       </c>
       <c r="O6" s="2">
         <v>9173</v>
@@ -46211,11 +46211,11 @@
       </c>
       <c r="M7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45868.988267618166</v>
+        <v>45859.891596649759</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45877.508806664388</v>
+        <v>45874.436398532045</v>
       </c>
       <c r="O7" s="2">
         <v>9173</v>
@@ -46263,11 +46263,11 @@
       </c>
       <c r="M8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45859.646840599133</v>
+        <v>45858.393349234459</v>
       </c>
       <c r="N8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45879.035413273559</v>
+        <v>45872.88917277463</v>
       </c>
       <c r="O8" s="2">
         <v>85331</v>
@@ -46315,11 +46315,11 @@
       </c>
       <c r="M9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45867.053679207413</v>
+        <v>45861.46841209686</v>
       </c>
       <c r="N9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45869.960725723009</v>
+        <v>45873.0231334247</v>
       </c>
       <c r="O9" s="2">
         <v>84971</v>
@@ -46367,11 +46367,11 @@
       </c>
       <c r="M10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45865.040412249764</v>
+        <v>45860.560114825945</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45875.354437073889</v>
+        <v>45871.953681562969</v>
       </c>
       <c r="O10" s="2">
         <v>9148</v>
@@ -46416,11 +46416,11 @@
       </c>
       <c r="M11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45868.86983447813</v>
+        <v>45867.918161971007</v>
       </c>
       <c r="N11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45870.50510577255</v>
+        <v>45872.707294206542</v>
       </c>
       <c r="O11" s="2">
         <v>84971</v>
@@ -46465,11 +46465,11 @@
       </c>
       <c r="M12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45866.803321640531</v>
+        <v>45865.835479757196</v>
       </c>
       <c r="N12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45879.371828901662</v>
+        <v>45873.1735255682</v>
       </c>
       <c r="O12" s="2">
         <v>84971</v>
@@ -46517,11 +46517,11 @@
       </c>
       <c r="M13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45861.254208287588</v>
+        <v>45867.39438377459</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45877.009523707478</v>
+        <v>45879.11255405486</v>
       </c>
       <c r="O13" s="2">
         <v>85426</v>
@@ -46569,11 +46569,11 @@
       </c>
       <c r="M14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45862.485199122151</v>
+        <v>45863.987290709243</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45872.316967314189</v>
+        <v>45869.695391998634</v>
       </c>
       <c r="O14" s="2">
         <v>85426</v>
@@ -46621,11 +46621,11 @@
       </c>
       <c r="M15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45868.445438813498</v>
+        <v>45861.112263022304</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45869.367062628728</v>
+        <v>45874.567432341282</v>
       </c>
       <c r="O15" s="2">
         <v>85426</v>
@@ -46673,11 +46673,11 @@
       </c>
       <c r="M16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45863.667159652017</v>
+        <v>45861.176927762433</v>
       </c>
       <c r="N16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45872.022076436158</v>
+        <v>45877.82205680279</v>
       </c>
       <c r="O16" s="2">
         <v>85426</v>
@@ -46725,11 +46725,11 @@
       </c>
       <c r="M17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45867.802607359394</v>
+        <v>45864.212255706741</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45869.857794705582</v>
+        <v>45872.81764356255</v>
       </c>
       <c r="O17" s="2">
         <v>85426</v>
@@ -46777,11 +46777,11 @@
       </c>
       <c r="M18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45861.11232996601</v>
+        <v>45861.581939508054</v>
       </c>
       <c r="N18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45877.538049314506</v>
+        <v>45875.924869870047</v>
       </c>
       <c r="O18" s="2">
         <v>85426</v>
@@ -46829,11 +46829,11 @@
       </c>
       <c r="M19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45863.530047562665</v>
+        <v>45866.605592912078</v>
       </c>
       <c r="N19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45874.140227005766</v>
+        <v>45878.566972824665</v>
       </c>
       <c r="O19" s="2">
         <v>85426</v>
@@ -46881,11 +46881,11 @@
       </c>
       <c r="M20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45864.779325813142</v>
+        <v>45863.279176040109</v>
       </c>
       <c r="N20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45873.938950438518</v>
+        <v>45870.114812207255</v>
       </c>
       <c r="O20" s="2">
         <v>9148</v>
@@ -46933,11 +46933,11 @@
       </c>
       <c r="M21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45866.690972335244</v>
+        <v>45859.116733960742</v>
       </c>
       <c r="N21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45876.028192702164</v>
+        <v>45876.544986171473</v>
       </c>
       <c r="O21" s="2">
         <v>85426</v>
@@ -46985,11 +46985,11 @@
       </c>
       <c r="M22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45863.264884608958</v>
+        <v>45868.221244824985</v>
       </c>
       <c r="N22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45876.335857723054</v>
+        <v>45876.660346093558</v>
       </c>
       <c r="O22" s="2">
         <v>85426</v>
@@ -47037,11 +47037,11 @@
       </c>
       <c r="M23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45862.542711142851</v>
+        <v>45858.671999067061</v>
       </c>
       <c r="N23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45871.732934976069</v>
+        <v>45876.353308984748</v>
       </c>
       <c r="O23" s="2">
         <v>85426</v>
@@ -47089,11 +47089,11 @@
       </c>
       <c r="M24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45864.68775072322</v>
+        <v>45864.004561996939</v>
       </c>
       <c r="N24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45879.570436019989</v>
+        <v>45873.135164927473</v>
       </c>
       <c r="O24" s="2">
         <v>85426</v>
@@ -47141,11 +47141,11 @@
       </c>
       <c r="M25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45867.646693745286</v>
+        <v>45865.245487913679</v>
       </c>
       <c r="N25" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45873.044742107675</v>
+        <v>45874.27442493655</v>
       </c>
       <c r="O25" s="2">
         <v>84971</v>
@@ -47193,11 +47193,11 @@
       </c>
       <c r="M26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45865.518557766656</v>
+        <v>45864.478617075089</v>
       </c>
       <c r="N26" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45876.803797359091</v>
+        <v>45870.309936865597</v>
       </c>
       <c r="O26" s="2">
         <v>85426</v>
@@ -47245,11 +47245,11 @@
       </c>
       <c r="M27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45865.756816653025</v>
+        <v>45862.768579440657</v>
       </c>
       <c r="N27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45875.431727876705</v>
+        <v>45872.917560038964</v>
       </c>
       <c r="O27" s="2">
         <v>85426</v>
@@ -47297,11 +47297,11 @@
       </c>
       <c r="M28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45858.25272740292</v>
+        <v>45863.952751558958</v>
       </c>
       <c r="N28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45873.6815309913</v>
+        <v>45874.381440504447</v>
       </c>
       <c r="O28" s="2">
         <v>85426</v>
@@ -47349,11 +47349,11 @@
       </c>
       <c r="M29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45861.357824133462</v>
+        <v>45868.792696013872</v>
       </c>
       <c r="N29" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45869.4549223621</v>
+        <v>45875.031152249554</v>
       </c>
       <c r="O29" s="2">
         <v>85426</v>
@@ -47401,11 +47401,11 @@
       </c>
       <c r="M30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45861.303591551346</v>
+        <v>45863.857863864796</v>
       </c>
       <c r="N30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45870.138259172723</v>
+        <v>45877.156636661311</v>
       </c>
       <c r="O30" s="2">
         <v>85426</v>
@@ -47453,11 +47453,11 @@
       </c>
       <c r="M31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45866.54296707613</v>
+        <v>45859.235025554764</v>
       </c>
       <c r="N31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45870.343072289412</v>
+        <v>45876.293785597096</v>
       </c>
       <c r="O31" s="2">
         <v>85426</v>
@@ -47505,11 +47505,11 @@
       </c>
       <c r="M32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45868.026702126823</v>
+        <v>45861.340507245775</v>
       </c>
       <c r="N32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45875.928078936813</v>
+        <v>45875.315831562992</v>
       </c>
       <c r="O32" s="2">
         <v>85426</v>
@@ -47557,11 +47557,11 @@
       </c>
       <c r="M33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45861.28819213844</v>
+        <v>45868.663832247606</v>
       </c>
       <c r="N33" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45875.809987898429</v>
+        <v>45876.265631062583</v>
       </c>
       <c r="O33" s="2">
         <v>85426</v>
@@ -47609,11 +47609,11 @@
       </c>
       <c r="M34" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45861.336754636875</v>
+        <v>45859.970901651825</v>
       </c>
       <c r="N34" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45873.991482028418</v>
+        <v>45878.548336059663</v>
       </c>
       <c r="O34" s="2">
         <v>85426</v>
@@ -47661,11 +47661,11 @@
       </c>
       <c r="M35" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45864.994672188077</v>
+        <v>45859.397760781219</v>
       </c>
       <c r="N35" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45871.391022093128</v>
+        <v>45870.986603275989</v>
       </c>
       <c r="O35" s="2">
         <v>85426</v>
@@ -47713,11 +47713,11 @@
       </c>
       <c r="M36" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45862.866225739715</v>
+        <v>45861.82287049001</v>
       </c>
       <c r="N36" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45878.252758172632</v>
+        <v>45879.09761448361</v>
       </c>
       <c r="O36" s="2">
         <v>85426</v>
@@ -47765,11 +47765,11 @@
       </c>
       <c r="M37" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45866.507965766694</v>
+        <v>45865.14422646445</v>
       </c>
       <c r="N37" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45875.79459225251</v>
+        <v>45870.033521664584</v>
       </c>
       <c r="O37" s="2">
         <v>84971</v>
@@ -47817,11 +47817,11 @@
       </c>
       <c r="M38" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45868.370199883291</v>
+        <v>45865.50562117243</v>
       </c>
       <c r="N38" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45878.700689597994</v>
+        <v>45873.578017542015</v>
       </c>
       <c r="O38" s="2">
         <v>85426</v>
@@ -47869,11 +47869,11 @@
       </c>
       <c r="M39" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45862.014253771384</v>
+        <v>45858.994526415147</v>
       </c>
       <c r="N39" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45871.687932773464</v>
+        <v>45874.552959285531</v>
       </c>
       <c r="O39" s="2">
         <v>86217</v>
@@ -47921,11 +47921,11 @@
       </c>
       <c r="M40" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45861.863940593932</v>
+        <v>45863.490570884998</v>
       </c>
       <c r="N40" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45874.160449505405</v>
+        <v>45872.586171163224</v>
       </c>
       <c r="O40" s="2">
         <v>86217</v>
@@ -47973,11 +47973,11 @@
       </c>
       <c r="M41" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45858.707768155582</v>
+        <v>45861.506550312697</v>
       </c>
       <c r="N41" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45870.014131812524</v>
+        <v>45879.893945898926</v>
       </c>
       <c r="O41" s="2">
         <v>86217</v>
@@ -48025,11 +48025,11 @@
       </c>
       <c r="M42" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45860.440655849605</v>
+        <v>45858.750570521886</v>
       </c>
       <c r="N42" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45877.581848217582</v>
+        <v>45875.015152051448</v>
       </c>
       <c r="O42" s="2">
         <v>86217</v>
@@ -48077,11 +48077,11 @@
       </c>
       <c r="M43" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45867.925317020512</v>
+        <v>45863.069239632008</v>
       </c>
       <c r="N43" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45877.674705846039</v>
+        <v>45878.063765817024</v>
       </c>
       <c r="O43" s="2">
         <v>84971</v>
@@ -48129,11 +48129,11 @@
       </c>
       <c r="M44" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45858.071250615394</v>
+        <v>45865.573273149843</v>
       </c>
       <c r="N44" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45876.343496839945</v>
+        <v>45871.757282538361</v>
       </c>
       <c r="O44" s="2">
         <v>86217</v>
@@ -48181,11 +48181,11 @@
       </c>
       <c r="M45" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45863.983160539232</v>
+        <v>45862.399330476212</v>
       </c>
       <c r="N45" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45879.487474949485</v>
+        <v>45873.344578128177</v>
       </c>
       <c r="O45" s="2">
         <v>86217</v>
@@ -48233,11 +48233,11 @@
       </c>
       <c r="M46" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45866.7696815288</v>
+        <v>45861.616410856535</v>
       </c>
       <c r="N46" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45875.97650295066</v>
+        <v>45873.148655475095</v>
       </c>
       <c r="O46" s="2">
         <v>86217</v>
@@ -48285,11 +48285,11 @@
       </c>
       <c r="M47" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45858.013960976459</v>
+        <v>45862.09134471586</v>
       </c>
       <c r="N47" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45875.297815308491</v>
+        <v>45869.111848676301</v>
       </c>
       <c r="O47" s="2">
         <v>86217</v>
@@ -48337,11 +48337,11 @@
       </c>
       <c r="M48" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45858.776647348699</v>
+        <v>45867.278635668117</v>
       </c>
       <c r="N48" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45873.981663519909</v>
+        <v>45869.716555776657</v>
       </c>
       <c r="O48" s="2">
         <v>86217</v>
@@ -48389,11 +48389,11 @@
       </c>
       <c r="M49" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45858.129496356363</v>
+        <v>45868.127874922022</v>
       </c>
       <c r="N49" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45870.709657650521</v>
+        <v>45877.267752357657</v>
       </c>
       <c r="O49" s="2">
         <v>86217</v>
@@ -48441,11 +48441,11 @@
       </c>
       <c r="M50" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45860.991153964758</v>
+        <v>45860.258723655425</v>
       </c>
       <c r="N50" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45874.126197828024</v>
+        <v>45874.356339186343</v>
       </c>
       <c r="O50" s="2">
         <v>86217</v>
@@ -48493,11 +48493,11 @@
       </c>
       <c r="M51" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45864.715875732407</v>
+        <v>45859.917224734629</v>
       </c>
       <c r="N51" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45878.159804015777</v>
+        <v>45876.794116627505</v>
       </c>
       <c r="O51" s="2">
         <v>86217</v>
@@ -48545,11 +48545,11 @@
       </c>
       <c r="M52" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45864.468698213372</v>
+        <v>45858.798451252682</v>
       </c>
       <c r="N52" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45878.915119549245</v>
+        <v>45872.861625612226</v>
       </c>
       <c r="O52" s="2">
         <v>86217</v>
@@ -48597,11 +48597,11 @@
       </c>
       <c r="M53" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45859.557120946294</v>
+        <v>45866.970654820834</v>
       </c>
       <c r="N53" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45872.723184567483</v>
+        <v>45877.861159109263</v>
       </c>
       <c r="O53" s="2">
         <v>86217</v>
@@ -48649,11 +48649,11 @@
       </c>
       <c r="M54" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45868.512489192224</v>
+        <v>45858.908678494292</v>
       </c>
       <c r="N54" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45874.017168819533</v>
+        <v>45878.650580539957</v>
       </c>
       <c r="O54" s="2">
         <v>86217</v>
@@ -48701,11 +48701,11 @@
       </c>
       <c r="M55" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45860.569190919712</v>
+        <v>45866.847366189701</v>
       </c>
       <c r="N55" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45875.809344776804</v>
+        <v>45879.927695388717</v>
       </c>
       <c r="O55" s="2">
         <v>86217</v>
@@ -48753,11 +48753,11 @@
       </c>
       <c r="M56" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45863.981404546073</v>
+        <v>45866.480497923556</v>
       </c>
       <c r="N56" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45873.816195649459</v>
+        <v>45870.125078246332</v>
       </c>
       <c r="O56" s="2">
         <v>86217</v>
@@ -48805,11 +48805,11 @@
       </c>
       <c r="M57" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45866.588332367901</v>
+        <v>45867.342755323931</v>
       </c>
       <c r="N57" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45877.503896433773</v>
+        <v>45869.262051841091</v>
       </c>
       <c r="O57" s="2">
         <v>86217</v>
@@ -48857,11 +48857,11 @@
       </c>
       <c r="M58" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45865.116856071021</v>
+        <v>45858.207628969583</v>
       </c>
       <c r="N58" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45878.312906161605</v>
+        <v>45870.113048279432</v>
       </c>
       <c r="O58" s="2">
         <v>86217</v>
@@ -48909,11 +48909,11 @@
       </c>
       <c r="M59" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45861.532219650209</v>
+        <v>45861.93646625882</v>
       </c>
       <c r="N59" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45874.873197743931</v>
+        <v>45875.077077137314</v>
       </c>
       <c r="O59" s="2">
         <v>86217</v>
@@ -48961,11 +48961,11 @@
       </c>
       <c r="M60" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45868.208124158584</v>
+        <v>45865.17337316621</v>
       </c>
       <c r="N60" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45870.622818853553</v>
+        <v>45870.531673319609</v>
       </c>
       <c r="O60" s="2">
         <v>86217</v>
@@ -49013,11 +49013,11 @@
       </c>
       <c r="M61" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45859.5408363358</v>
+        <v>45868.92038836026</v>
       </c>
       <c r="N61" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45871.452836607554</v>
+        <v>45873.359691074533</v>
       </c>
       <c r="O61" s="2">
         <v>86217</v>
@@ -49065,11 +49065,11 @@
       </c>
       <c r="M62" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45865.265821563429</v>
+        <v>45868.185823227272</v>
       </c>
       <c r="N62" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45873.835605453372</v>
+        <v>45872.338459160361</v>
       </c>
       <c r="O62" s="2">
         <v>86217</v>
@@ -49117,11 +49117,11 @@
       </c>
       <c r="M63" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45860.453008782868</v>
+        <v>45861.574353561351</v>
       </c>
       <c r="N63" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45875.930388435743</v>
+        <v>45869.577877421514</v>
       </c>
       <c r="O63" s="2">
         <v>86217</v>
@@ -49169,11 +49169,11 @@
       </c>
       <c r="M64" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45858.958819944637</v>
+        <v>45859.125663115883</v>
       </c>
       <c r="N64" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45879.764080643305</v>
+        <v>45879.565823191864</v>
       </c>
       <c r="O64" s="2">
         <v>86217</v>
@@ -49221,11 +49221,11 @@
       </c>
       <c r="M65" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45864.467312483685</v>
+        <v>45867.456196248539</v>
       </c>
       <c r="N65" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45877.922203204202</v>
+        <v>45872.124271483328</v>
       </c>
       <c r="O65" s="2">
         <v>86217</v>
@@ -49273,11 +49273,11 @@
       </c>
       <c r="M66" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45867.212247100353</v>
+        <v>45867.165511630679</v>
       </c>
       <c r="N66" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45877.615327780004</v>
+        <v>45871.608397204502</v>
       </c>
       <c r="O66" s="2">
         <v>86217</v>
@@ -49325,11 +49325,11 @@
       </c>
       <c r="M67" s="3">
         <f t="shared" ref="M67:M77" ca="1" si="2">DATE(2025,7,25) + RANDBETWEEN(-5,5) + RAND()</f>
-        <v>45861.609642992669</v>
+        <v>45864.851010186656</v>
       </c>
       <c r="N67" s="3">
         <f t="shared" ref="N67:N77" ca="1" si="3">DATE(2025,8,5) + RANDBETWEEN(-5,5) + RAND()</f>
-        <v>45872.526364221914</v>
+        <v>45874.367040937897</v>
       </c>
       <c r="O67" s="2">
         <v>86217</v>
@@ -49377,11 +49377,11 @@
       </c>
       <c r="M68" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45863.352777753767</v>
+        <v>45863.566397039838</v>
       </c>
       <c r="N68" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45876.951131471178</v>
+        <v>45870.327825697314</v>
       </c>
       <c r="O68" s="2">
         <v>86217</v>
@@ -49429,11 +49429,11 @@
       </c>
       <c r="M69" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45866.233983872364</v>
+        <v>45859.592775048652</v>
       </c>
       <c r="N69" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45878.572335940917</v>
+        <v>45877.829030256304</v>
       </c>
       <c r="O69" s="2">
         <v>86217</v>
@@ -49481,11 +49481,11 @@
       </c>
       <c r="M70" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45859.494356221592</v>
+        <v>45859.679178334503</v>
       </c>
       <c r="N70" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45871.077007815467</v>
+        <v>45875.17863516105</v>
       </c>
       <c r="O70" s="2">
         <v>86217</v>
@@ -49533,11 +49533,11 @@
       </c>
       <c r="M71" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45867.764384480455</v>
+        <v>45861.81478517162</v>
       </c>
       <c r="N71" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45874.333627453831</v>
+        <v>45874.326391297363</v>
       </c>
       <c r="O71" s="2">
         <v>86217</v>
@@ -49585,11 +49585,11 @@
       </c>
       <c r="M72" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45867.028152412386</v>
+        <v>45867.039523149317</v>
       </c>
       <c r="N72" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45878.78788785122</v>
+        <v>45872.675822825622</v>
       </c>
       <c r="O72" s="2">
         <v>86217</v>
@@ -49637,11 +49637,11 @@
       </c>
       <c r="M73" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45859.010988250971</v>
+        <v>45860.71061406807</v>
       </c>
       <c r="N73" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45877.340561956538</v>
+        <v>45872.004488490893</v>
       </c>
       <c r="O73" s="2">
         <v>86217</v>
@@ -49689,11 +49689,11 @@
       </c>
       <c r="M74" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45858.92057260096</v>
+        <v>45860.732300261669</v>
       </c>
       <c r="N74" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45877.755661009338</v>
+        <v>45877.599643769987</v>
       </c>
       <c r="O74" s="2">
         <v>86217</v>
@@ -49741,11 +49741,11 @@
       </c>
       <c r="M75" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45858.205543251235</v>
+        <v>45868.590211802119</v>
       </c>
       <c r="N75" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45870.397272830349</v>
+        <v>45874.095313481266</v>
       </c>
       <c r="O75" s="2">
         <v>86217</v>
@@ -49793,11 +49793,11 @@
       </c>
       <c r="M76" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45866.27272900712</v>
+        <v>45860.06815761351</v>
       </c>
       <c r="N76" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45873.53089001622</v>
+        <v>45876.026625683618</v>
       </c>
       <c r="O76" s="2">
         <v>86217</v>
@@ -49845,11 +49845,11 @@
       </c>
       <c r="M77" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45868.106222688541</v>
+        <v>45862.749082892595</v>
       </c>
       <c r="N77" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45874.345770636573</v>
+        <v>45870.99808121864</v>
       </c>
       <c r="O77" s="2">
         <v>86217</v>
